--- a/experiments/experiment-a-hyperharameters_Rep-1-2.xlsx
+++ b/experiments/experiment-a-hyperharameters_Rep-1-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bdd34de6af154437/UU/R/sim-floor-effect/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bdd34de6af154437/UU/R/sim-floor-effect/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="8_{BA46104B-37C2-4A55-BDFE-BD67F9A4BFE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F245BAAA-662C-4915-ABC2-1CFDED833F29}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{BA46104B-37C2-4A55-BDFE-BD67F9A4BFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8CE67D8-7351-4B60-8056-750DC0607D40}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment-a-summary-results" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -762,7 +762,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -800,15 +800,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1542,7 +1533,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{1488B180-1106-4DDA-A736-279DCBDF6F2F}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1897,77 +1890,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z472"/>
+  <dimension ref="A1:Z171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="8.453125" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="3"/>
-    <col min="6" max="6" width="14.90625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8" style="5" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="9"/>
-    <col min="9" max="9" width="8.7265625" style="10"/>
-    <col min="10" max="10" width="8.7265625" style="11"/>
-    <col min="11" max="11" width="8.7265625" style="9"/>
-    <col min="12" max="12" width="8.7265625" style="10"/>
-    <col min="13" max="13" width="9.453125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="9"/>
-    <col min="15" max="15" width="8.7265625" style="10"/>
-    <col min="16" max="16" width="9.453125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="9"/>
-    <col min="18" max="18" width="8.7265625" style="10"/>
-    <col min="19" max="19" width="9.453125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="9"/>
-    <col min="21" max="21" width="8.7265625" style="10"/>
-    <col min="22" max="22" width="9.453125" style="11" customWidth="1"/>
-    <col min="23" max="23" width="9.453125" style="9" customWidth="1"/>
-    <col min="24" max="24" width="9.453125" style="10" customWidth="1"/>
-    <col min="25" max="25" width="10.36328125" style="11" customWidth="1"/>
-    <col min="26" max="26" width="32.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="12" width="8.7109375"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="15" width="8.7109375"/>
+    <col min="16" max="16" width="9.42578125" customWidth="1"/>
+    <col min="17" max="18" width="8.7109375"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="21" width="8.7109375"/>
+    <col min="22" max="24" width="9.42578125" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" customWidth="1"/>
+    <col min="26" max="26" width="32.7109375" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="H1" s="36" t="s">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="36" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="36" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="36" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="36" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="36" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="38"/>
-    </row>
-    <row r="2" spans="1:26" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="26" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1985,89 +1975,94 @@
       <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="17" t="s">
         <v>45</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
       <c r="B3" s="2"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="25"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="18"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B4" t="s">
@@ -2082,10 +2077,10 @@
       <c r="E4" s="3">
         <v>13286</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="9">
@@ -2152,8 +2147,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -2236,8 +2231,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -2320,8 +2315,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -2404,8 +2399,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -2488,8 +2483,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -2572,8 +2567,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -2656,8 +2651,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -2670,10 +2665,10 @@
       <c r="E11" s="3">
         <v>13286</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="9">
@@ -2740,8 +2735,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -2824,8 +2819,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -2908,8 +2903,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -2992,8 +2987,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -3006,10 +3001,10 @@
       <c r="E15" s="3">
         <v>13286</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="31" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="9">
@@ -3076,8 +3071,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -3160,8 +3155,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -3244,8 +3239,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -3328,8 +3323,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
       <c r="B19" t="s">
         <v>13</v>
       </c>
@@ -3412,8 +3407,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
       <c r="B20" t="s">
         <v>13</v>
       </c>
@@ -3496,8 +3491,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -3580,8 +3575,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -3664,8 +3659,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -3748,36 +3743,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="27"/>
-    </row>
-    <row r="25" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="24"/>
+    </row>
+    <row r="25" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
       <c r="B25" t="s">
         <v>13</v>
       </c>
@@ -3790,10 +3785,10 @@
       <c r="E25" s="3">
         <v>23286</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="9">
@@ -3860,8 +3855,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
       <c r="B26" t="s">
         <v>13</v>
       </c>
@@ -3944,8 +3939,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
       <c r="B27" t="s">
         <v>13</v>
       </c>
@@ -4028,8 +4023,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
       <c r="B28" t="s">
         <v>13</v>
       </c>
@@ -4112,8 +4107,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
       <c r="B29" t="s">
         <v>13</v>
       </c>
@@ -4196,8 +4191,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
       <c r="B30" t="s">
         <v>13</v>
       </c>
@@ -4280,8 +4275,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
       <c r="B31" t="s">
         <v>13</v>
       </c>
@@ -4364,8 +4359,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
       <c r="B32" t="s">
         <v>13</v>
       </c>
@@ -4378,10 +4373,10 @@
       <c r="E32" s="3">
         <v>23286</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="9">
@@ -4448,8 +4443,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
       <c r="B33" t="s">
         <v>13</v>
       </c>
@@ -4532,8 +4527,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
       <c r="B34" t="s">
         <v>13</v>
       </c>
@@ -4616,8 +4611,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A35" s="35"/>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
       <c r="B35" t="s">
         <v>13</v>
       </c>
@@ -4700,8 +4695,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -4714,10 +4709,10 @@
       <c r="E36" s="3">
         <v>23286</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="31" t="s">
         <v>27</v>
       </c>
       <c r="H36" s="9">
@@ -4784,8 +4779,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
       <c r="B37" t="s">
         <v>13</v>
       </c>
@@ -4868,8 +4863,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
       <c r="B38" t="s">
         <v>13</v>
       </c>
@@ -4952,8 +4947,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
       <c r="B39" t="s">
         <v>13</v>
       </c>
@@ -5036,8 +5031,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
       <c r="B40" t="s">
         <v>13</v>
       </c>
@@ -5120,8 +5115,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
       <c r="B41" t="s">
         <v>13</v>
       </c>
@@ -5204,8 +5199,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
       <c r="B42" t="s">
         <v>13</v>
       </c>
@@ -5288,8 +5283,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
       <c r="B43" t="s">
         <v>13</v>
       </c>
@@ -5372,8 +5367,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
       <c r="B44" t="s">
         <v>13</v>
       </c>
@@ -5456,7 +5451,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -5479,9 +5477,10 @@
       <c r="W45" s="12"/>
       <c r="X45" s="13"/>
       <c r="Y45" s="14"/>
-    </row>
-    <row r="46" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="35" t="s">
+      <c r="Z45" s="2"/>
+    </row>
+    <row r="46" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
         <v>51</v>
       </c>
       <c r="B46" t="s">
@@ -5496,10 +5495,10 @@
       <c r="E46" s="3">
         <v>13293</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H46" s="9">
@@ -5566,8 +5565,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -5650,8 +5649,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -5734,8 +5733,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A49" s="35"/>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
       <c r="B49" t="s">
         <v>30</v>
       </c>
@@ -5818,8 +5817,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A50" s="35"/>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
       <c r="B50" t="s">
         <v>30</v>
       </c>
@@ -5902,8 +5901,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A51" s="35"/>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -5986,8 +5985,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A52" s="35"/>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -6070,8 +6069,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A53" s="35"/>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
       <c r="B53" t="s">
         <v>30</v>
       </c>
@@ -6084,10 +6083,10 @@
       <c r="E53" s="3">
         <v>13293</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="34" t="s">
+      <c r="G53" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H53" s="9">
@@ -6154,8 +6153,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
       <c r="B54" t="s">
         <v>30</v>
       </c>
@@ -6238,8 +6237,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A55" s="35"/>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="32"/>
       <c r="B55" t="s">
         <v>30</v>
       </c>
@@ -6322,8 +6321,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="32"/>
       <c r="B56" t="s">
         <v>30</v>
       </c>
@@ -6406,8 +6405,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="32"/>
       <c r="B57" t="s">
         <v>30</v>
       </c>
@@ -6420,10 +6419,10 @@
       <c r="E57" s="3">
         <v>13293</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="G57" s="31" t="s">
         <v>27</v>
       </c>
       <c r="H57" s="9">
@@ -6490,8 +6489,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A58" s="35"/>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
       <c r="B58" t="s">
         <v>30</v>
       </c>
@@ -6574,8 +6573,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A59" s="35"/>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
       <c r="B59" t="s">
         <v>30</v>
       </c>
@@ -6658,8 +6657,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
       <c r="B60" t="s">
         <v>30</v>
       </c>
@@ -6742,8 +6741,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A61" s="35"/>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
       <c r="B61" t="s">
         <v>30</v>
       </c>
@@ -6826,8 +6825,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A62" s="35"/>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
       <c r="B62" t="s">
         <v>30</v>
       </c>
@@ -6910,8 +6909,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A63" s="35"/>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="32"/>
       <c r="B63" t="s">
         <v>30</v>
       </c>
@@ -6994,8 +6993,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A64" s="35"/>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="32"/>
       <c r="B64" t="s">
         <v>30</v>
       </c>
@@ -7078,8 +7077,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A65" s="35"/>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="32"/>
       <c r="B65" t="s">
         <v>30</v>
       </c>
@@ -7162,36 +7161,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="35"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="32"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="31"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="27"/>
-    </row>
-    <row r="67" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="35"/>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="32"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="24"/>
+    </row>
+    <row r="67" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="32"/>
       <c r="B67" t="s">
         <v>30</v>
       </c>
@@ -7204,10 +7203,10 @@
       <c r="E67" s="3">
         <v>23293</v>
       </c>
-      <c r="F67" s="33" t="s">
+      <c r="F67" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="34" t="s">
+      <c r="G67" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="9">
@@ -7274,8 +7273,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A68" s="35"/>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="32"/>
       <c r="B68" t="s">
         <v>30</v>
       </c>
@@ -7358,8 +7357,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A69" s="35"/>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="32"/>
       <c r="B69" t="s">
         <v>30</v>
       </c>
@@ -7442,8 +7441,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A70" s="35"/>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="32"/>
       <c r="B70" t="s">
         <v>30</v>
       </c>
@@ -7526,8 +7525,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A71" s="35"/>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="32"/>
       <c r="B71" t="s">
         <v>30</v>
       </c>
@@ -7610,8 +7609,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A72" s="35"/>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="32"/>
       <c r="B72" t="s">
         <v>30</v>
       </c>
@@ -7694,8 +7693,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A73" s="35"/>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="32"/>
       <c r="B73" t="s">
         <v>30</v>
       </c>
@@ -7778,8 +7777,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A74" s="35"/>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
       <c r="B74" t="s">
         <v>30</v>
       </c>
@@ -7792,10 +7791,10 @@
       <c r="E74" s="3">
         <v>23293</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="F74" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G74" s="34" t="s">
+      <c r="G74" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H74" s="9">
@@ -7862,8 +7861,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A75" s="35"/>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="32"/>
       <c r="B75" t="s">
         <v>30</v>
       </c>
@@ -7946,8 +7945,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A76" s="35"/>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="32"/>
       <c r="B76" t="s">
         <v>30</v>
       </c>
@@ -8030,8 +8029,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A77" s="35"/>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="32"/>
       <c r="B77" t="s">
         <v>30</v>
       </c>
@@ -8114,8 +8113,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A78" s="35"/>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="32"/>
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -8128,10 +8127,10 @@
       <c r="E78" s="3">
         <v>23293</v>
       </c>
-      <c r="F78" s="33" t="s">
+      <c r="F78" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="34" t="s">
+      <c r="G78" s="31" t="s">
         <v>27</v>
       </c>
       <c r="H78" s="9">
@@ -8198,8 +8197,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A79" s="35"/>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="32"/>
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -8282,8 +8281,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A80" s="35"/>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="32"/>
       <c r="B80" t="s">
         <v>30</v>
       </c>
@@ -8366,8 +8365,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A81" s="35"/>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="32"/>
       <c r="B81" t="s">
         <v>30</v>
       </c>
@@ -8450,8 +8449,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A82" s="35"/>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="32"/>
       <c r="B82" t="s">
         <v>30</v>
       </c>
@@ -8534,8 +8533,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A83" s="35"/>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="32"/>
       <c r="B83" t="s">
         <v>30</v>
       </c>
@@ -8618,8 +8617,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A84" s="35"/>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="32"/>
       <c r="B84" t="s">
         <v>30</v>
       </c>
@@ -8702,8 +8701,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A85" s="35"/>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="32"/>
       <c r="B85" t="s">
         <v>30</v>
       </c>
@@ -8786,8 +8785,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A86" s="35"/>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="32"/>
       <c r="B86" t="s">
         <v>30</v>
       </c>
@@ -8870,7 +8869,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -8893,9 +8895,10 @@
       <c r="W87" s="12"/>
       <c r="X87" s="13"/>
       <c r="Y87" s="14"/>
-    </row>
-    <row r="88" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="35" t="s">
+      <c r="Z87" s="2"/>
+    </row>
+    <row r="88" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B88" t="s">
@@ -8910,10 +8913,10 @@
       <c r="E88" s="3">
         <v>13297</v>
       </c>
-      <c r="F88" s="33" t="s">
+      <c r="F88" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="34" t="s">
+      <c r="G88" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H88" s="9">
@@ -8980,8 +8983,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A89" s="35"/>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="32"/>
       <c r="B89" t="s">
         <v>13</v>
       </c>
@@ -9064,8 +9067,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A90" s="35"/>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="32"/>
       <c r="B90" t="s">
         <v>13</v>
       </c>
@@ -9148,8 +9151,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A91" s="35"/>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="32"/>
       <c r="B91" t="s">
         <v>13</v>
       </c>
@@ -9232,8 +9235,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A92" s="35"/>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="32"/>
       <c r="B92" t="s">
         <v>13</v>
       </c>
@@ -9316,8 +9319,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A93" s="35"/>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="32"/>
       <c r="B93" t="s">
         <v>13</v>
       </c>
@@ -9400,8 +9403,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A94" s="35"/>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="32"/>
       <c r="B94" t="s">
         <v>13</v>
       </c>
@@ -9484,8 +9487,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A95" s="35"/>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="32"/>
       <c r="B95" t="s">
         <v>13</v>
       </c>
@@ -9498,10 +9501,10 @@
       <c r="E95" s="3">
         <v>13297</v>
       </c>
-      <c r="F95" s="33" t="s">
+      <c r="F95" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G95" s="34" t="s">
+      <c r="G95" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H95" s="9">
@@ -9568,8 +9571,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A96" s="35"/>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="32"/>
       <c r="B96" t="s">
         <v>13</v>
       </c>
@@ -9652,8 +9655,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A97" s="35"/>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="32"/>
       <c r="B97" t="s">
         <v>13</v>
       </c>
@@ -9736,8 +9739,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A98" s="35"/>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="32"/>
       <c r="B98" t="s">
         <v>13</v>
       </c>
@@ -9820,8 +9823,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A99" s="35"/>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="32"/>
       <c r="B99" t="s">
         <v>13</v>
       </c>
@@ -9834,10 +9837,10 @@
       <c r="E99" s="3">
         <v>13297</v>
       </c>
-      <c r="F99" s="33" t="s">
+      <c r="F99" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="34" t="s">
+      <c r="G99" s="31" t="s">
         <v>27</v>
       </c>
       <c r="H99" s="9">
@@ -9904,8 +9907,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="35"/>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A100" s="32"/>
       <c r="B100" t="s">
         <v>13</v>
       </c>
@@ -9988,8 +9991,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A101" s="35"/>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A101" s="32"/>
       <c r="B101" t="s">
         <v>13</v>
       </c>
@@ -10072,8 +10075,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A102" s="35"/>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A102" s="32"/>
       <c r="B102" t="s">
         <v>13</v>
       </c>
@@ -10156,8 +10159,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A103" s="35"/>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A103" s="32"/>
       <c r="B103" t="s">
         <v>13</v>
       </c>
@@ -10240,8 +10243,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A104" s="35"/>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A104" s="32"/>
       <c r="B104" t="s">
         <v>13</v>
       </c>
@@ -10324,8 +10327,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A105" s="35"/>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A105" s="32"/>
       <c r="B105" t="s">
         <v>13</v>
       </c>
@@ -10408,8 +10411,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A106" s="35"/>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A106" s="32"/>
       <c r="B106" t="s">
         <v>13</v>
       </c>
@@ -10492,8 +10495,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A107" s="35"/>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A107" s="32"/>
       <c r="B107" t="s">
         <v>13</v>
       </c>
@@ -10576,36 +10579,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="35"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="30"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="30"/>
-      <c r="O108" s="31"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="30"/>
-      <c r="R108" s="31"/>
-      <c r="S108" s="32"/>
-      <c r="T108" s="30"/>
-      <c r="U108" s="31"/>
-      <c r="V108" s="32"/>
-      <c r="W108" s="30"/>
-      <c r="X108" s="31"/>
-      <c r="Y108" s="32"/>
-      <c r="Z108" s="27"/>
-    </row>
-    <row r="109" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="35"/>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A108" s="32"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="28"/>
+      <c r="P108" s="29"/>
+      <c r="Q108" s="27"/>
+      <c r="R108" s="28"/>
+      <c r="S108" s="29"/>
+      <c r="T108" s="27"/>
+      <c r="U108" s="28"/>
+      <c r="V108" s="29"/>
+      <c r="W108" s="27"/>
+      <c r="X108" s="28"/>
+      <c r="Y108" s="29"/>
+      <c r="Z108" s="24"/>
+    </row>
+    <row r="109" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="32"/>
       <c r="B109" t="s">
         <v>13</v>
       </c>
@@ -10618,10 +10621,10 @@
       <c r="E109" s="3">
         <v>23297</v>
       </c>
-      <c r="F109" s="33" t="s">
+      <c r="F109" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G109" s="34" t="s">
+      <c r="G109" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H109" s="9">
@@ -10688,8 +10691,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A110" s="35"/>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A110" s="32"/>
       <c r="B110" t="s">
         <v>13</v>
       </c>
@@ -10772,8 +10775,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A111" s="35"/>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A111" s="32"/>
       <c r="B111" t="s">
         <v>13</v>
       </c>
@@ -10856,8 +10859,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A112" s="35"/>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A112" s="32"/>
       <c r="B112" t="s">
         <v>13</v>
       </c>
@@ -10940,8 +10943,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A113" s="35"/>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A113" s="32"/>
       <c r="B113" t="s">
         <v>13</v>
       </c>
@@ -11024,8 +11027,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A114" s="35"/>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A114" s="32"/>
       <c r="B114" t="s">
         <v>13</v>
       </c>
@@ -11108,8 +11111,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A115" s="35"/>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A115" s="32"/>
       <c r="B115" t="s">
         <v>13</v>
       </c>
@@ -11192,8 +11195,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A116" s="35"/>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A116" s="32"/>
       <c r="B116" t="s">
         <v>13</v>
       </c>
@@ -11206,10 +11209,10 @@
       <c r="E116" s="3">
         <v>23297</v>
       </c>
-      <c r="F116" s="33" t="s">
+      <c r="F116" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="34" t="s">
+      <c r="G116" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H116" s="9">
@@ -11276,8 +11279,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A117" s="35"/>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A117" s="32"/>
       <c r="B117" t="s">
         <v>13</v>
       </c>
@@ -11360,8 +11363,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A118" s="35"/>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A118" s="32"/>
       <c r="B118" t="s">
         <v>13</v>
       </c>
@@ -11444,8 +11447,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A119" s="35"/>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A119" s="32"/>
       <c r="B119" t="s">
         <v>13</v>
       </c>
@@ -11528,8 +11531,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A120" s="35"/>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A120" s="32"/>
       <c r="B120" t="s">
         <v>13</v>
       </c>
@@ -11542,10 +11545,10 @@
       <c r="E120" s="3">
         <v>23297</v>
       </c>
-      <c r="F120" s="33" t="s">
+      <c r="F120" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G120" s="34" t="s">
+      <c r="G120" s="31" t="s">
         <v>27</v>
       </c>
       <c r="H120" s="9">
@@ -11612,8 +11615,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A121" s="35"/>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A121" s="32"/>
       <c r="B121" t="s">
         <v>13</v>
       </c>
@@ -11696,8 +11699,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A122" s="35"/>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A122" s="32"/>
       <c r="B122" t="s">
         <v>13</v>
       </c>
@@ -11780,8 +11783,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A123" s="35"/>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A123" s="32"/>
       <c r="B123" t="s">
         <v>13</v>
       </c>
@@ -11864,8 +11867,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A124" s="35"/>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A124" s="32"/>
       <c r="B124" t="s">
         <v>13</v>
       </c>
@@ -11948,8 +11951,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A125" s="35"/>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A125" s="32"/>
       <c r="B125" t="s">
         <v>13</v>
       </c>
@@ -12032,8 +12035,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A126" s="35"/>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A126" s="32"/>
       <c r="B126" t="s">
         <v>13</v>
       </c>
@@ -12116,8 +12119,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A127" s="35"/>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A127" s="32"/>
       <c r="B127" t="s">
         <v>13</v>
       </c>
@@ -12200,8 +12203,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A128" s="35"/>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A128" s="32"/>
       <c r="B128" t="s">
         <v>13</v>
       </c>
@@ -12284,7 +12287,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -12307,9 +12313,10 @@
       <c r="W129" s="12"/>
       <c r="X129" s="13"/>
       <c r="Y129" s="14"/>
-    </row>
-    <row r="130" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="35" t="s">
+      <c r="Z129" s="2"/>
+    </row>
+    <row r="130" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B130" t="s">
@@ -12324,10 +12331,10 @@
       <c r="E130" s="3">
         <v>13304</v>
       </c>
-      <c r="F130" s="33" t="s">
+      <c r="F130" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G130" s="34" t="s">
+      <c r="G130" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H130" s="9">
@@ -12394,8 +12401,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A131" s="35"/>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A131" s="32"/>
       <c r="B131" t="s">
         <v>30</v>
       </c>
@@ -12478,8 +12485,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A132" s="35"/>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A132" s="32"/>
       <c r="B132" t="s">
         <v>30</v>
       </c>
@@ -12562,8 +12569,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A133" s="35"/>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A133" s="32"/>
       <c r="B133" t="s">
         <v>30</v>
       </c>
@@ -12646,8 +12653,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A134" s="35"/>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A134" s="32"/>
       <c r="B134" t="s">
         <v>30</v>
       </c>
@@ -12730,8 +12737,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A135" s="35"/>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A135" s="32"/>
       <c r="B135" t="s">
         <v>30</v>
       </c>
@@ -12814,8 +12821,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A136" s="35"/>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A136" s="32"/>
       <c r="B136" t="s">
         <v>30</v>
       </c>
@@ -12898,8 +12905,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A137" s="35"/>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A137" s="32"/>
       <c r="B137" t="s">
         <v>30</v>
       </c>
@@ -12912,10 +12919,10 @@
       <c r="E137" s="3">
         <v>13304</v>
       </c>
-      <c r="F137" s="33" t="s">
+      <c r="F137" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G137" s="34" t="s">
+      <c r="G137" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H137" s="9">
@@ -12982,8 +12989,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A138" s="35"/>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A138" s="32"/>
       <c r="B138" t="s">
         <v>30</v>
       </c>
@@ -13066,8 +13073,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A139" s="35"/>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A139" s="32"/>
       <c r="B139" t="s">
         <v>30</v>
       </c>
@@ -13150,8 +13157,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A140" s="35"/>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A140" s="32"/>
       <c r="B140" t="s">
         <v>30</v>
       </c>
@@ -13234,8 +13241,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A141" s="35"/>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A141" s="32"/>
       <c r="B141" t="s">
         <v>30</v>
       </c>
@@ -13248,10 +13255,10 @@
       <c r="E141" s="3">
         <v>13304</v>
       </c>
-      <c r="F141" s="33" t="s">
+      <c r="F141" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G141" s="34" t="s">
+      <c r="G141" s="31" t="s">
         <v>27</v>
       </c>
       <c r="H141" s="9">
@@ -13318,8 +13325,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A142" s="35"/>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A142" s="32"/>
       <c r="B142" t="s">
         <v>30</v>
       </c>
@@ -13402,8 +13409,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A143" s="35"/>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A143" s="32"/>
       <c r="B143" t="s">
         <v>30</v>
       </c>
@@ -13486,8 +13493,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A144" s="35"/>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A144" s="32"/>
       <c r="B144" t="s">
         <v>30</v>
       </c>
@@ -13570,8 +13577,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A145" s="35"/>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A145" s="32"/>
       <c r="B145" t="s">
         <v>30</v>
       </c>
@@ -13654,8 +13661,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A146" s="35"/>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A146" s="32"/>
       <c r="B146" t="s">
         <v>30</v>
       </c>
@@ -13738,8 +13745,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A147" s="35"/>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A147" s="32"/>
       <c r="B147" t="s">
         <v>30</v>
       </c>
@@ -13822,8 +13829,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A148" s="35"/>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A148" s="32"/>
       <c r="B148" t="s">
         <v>30</v>
       </c>
@@ -13906,8 +13913,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A149" s="35"/>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A149" s="32"/>
       <c r="B149" t="s">
         <v>30</v>
       </c>
@@ -13990,36 +13997,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="35"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="29"/>
-      <c r="H150" s="30"/>
-      <c r="I150" s="31"/>
-      <c r="J150" s="32"/>
-      <c r="K150" s="30"/>
-      <c r="L150" s="31"/>
-      <c r="M150" s="32"/>
-      <c r="N150" s="30"/>
-      <c r="O150" s="31"/>
-      <c r="P150" s="32"/>
-      <c r="Q150" s="30"/>
-      <c r="R150" s="31"/>
-      <c r="S150" s="32"/>
-      <c r="T150" s="30"/>
-      <c r="U150" s="31"/>
-      <c r="V150" s="32"/>
-      <c r="W150" s="30"/>
-      <c r="X150" s="31"/>
-      <c r="Y150" s="32"/>
-      <c r="Z150" s="27"/>
-    </row>
-    <row r="151" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="35"/>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A150" s="32"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="29"/>
+      <c r="K150" s="27"/>
+      <c r="L150" s="28"/>
+      <c r="M150" s="29"/>
+      <c r="N150" s="27"/>
+      <c r="O150" s="28"/>
+      <c r="P150" s="29"/>
+      <c r="Q150" s="27"/>
+      <c r="R150" s="28"/>
+      <c r="S150" s="29"/>
+      <c r="T150" s="27"/>
+      <c r="U150" s="28"/>
+      <c r="V150" s="29"/>
+      <c r="W150" s="27"/>
+      <c r="X150" s="28"/>
+      <c r="Y150" s="29"/>
+      <c r="Z150" s="24"/>
+    </row>
+    <row r="151" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="32"/>
       <c r="B151" t="s">
         <v>30</v>
       </c>
@@ -14032,10 +14039,10 @@
       <c r="E151" s="3">
         <v>23304</v>
       </c>
-      <c r="F151" s="33" t="s">
+      <c r="F151" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G151" s="34" t="s">
+      <c r="G151" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H151" s="9">
@@ -14102,8 +14109,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A152" s="35"/>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A152" s="32"/>
       <c r="B152" t="s">
         <v>30</v>
       </c>
@@ -14186,8 +14193,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A153" s="35"/>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A153" s="32"/>
       <c r="B153" t="s">
         <v>30</v>
       </c>
@@ -14270,8 +14277,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A154" s="35"/>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A154" s="32"/>
       <c r="B154" t="s">
         <v>30</v>
       </c>
@@ -14354,8 +14361,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A155" s="35"/>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A155" s="32"/>
       <c r="B155" t="s">
         <v>30</v>
       </c>
@@ -14438,8 +14445,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A156" s="35"/>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A156" s="32"/>
       <c r="B156" t="s">
         <v>30</v>
       </c>
@@ -14522,8 +14529,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A157" s="35"/>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A157" s="32"/>
       <c r="B157" t="s">
         <v>30</v>
       </c>
@@ -14606,8 +14613,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A158" s="35"/>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A158" s="32"/>
       <c r="B158" t="s">
         <v>30</v>
       </c>
@@ -14620,10 +14627,10 @@
       <c r="E158" s="3">
         <v>23304</v>
       </c>
-      <c r="F158" s="33" t="s">
+      <c r="F158" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G158" s="34" t="s">
+      <c r="G158" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H158" s="9">
@@ -14690,8 +14697,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A159" s="35"/>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A159" s="32"/>
       <c r="B159" t="s">
         <v>30</v>
       </c>
@@ -14774,8 +14781,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A160" s="35"/>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A160" s="32"/>
       <c r="B160" t="s">
         <v>30</v>
       </c>
@@ -14858,8 +14865,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A161" s="35"/>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A161" s="32"/>
       <c r="B161" t="s">
         <v>30</v>
       </c>
@@ -14942,8 +14949,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A162" s="35"/>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A162" s="32"/>
       <c r="B162" t="s">
         <v>30</v>
       </c>
@@ -14956,10 +14963,10 @@
       <c r="E162" s="3">
         <v>23304</v>
       </c>
-      <c r="F162" s="33" t="s">
+      <c r="F162" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="34" t="s">
+      <c r="G162" s="31" t="s">
         <v>27</v>
       </c>
       <c r="H162" s="9">
@@ -15026,8 +15033,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A163" s="35"/>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A163" s="32"/>
       <c r="B163" t="s">
         <v>30</v>
       </c>
@@ -15110,8 +15117,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A164" s="35"/>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A164" s="32"/>
       <c r="B164" t="s">
         <v>30</v>
       </c>
@@ -15194,8 +15201,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A165" s="35"/>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A165" s="32"/>
       <c r="B165" t="s">
         <v>30</v>
       </c>
@@ -15278,8 +15285,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A166" s="35"/>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A166" s="32"/>
       <c r="B166" t="s">
         <v>30</v>
       </c>
@@ -15362,8 +15369,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A167" s="35"/>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A167" s="32"/>
       <c r="B167" t="s">
         <v>30</v>
       </c>
@@ -15446,8 +15453,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A168" s="35"/>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A168" s="32"/>
       <c r="B168" t="s">
         <v>30</v>
       </c>
@@ -15530,8 +15537,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A169" s="35"/>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A169" s="32"/>
       <c r="B169" t="s">
         <v>30</v>
       </c>
@@ -15614,8 +15621,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A170" s="35"/>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A170" s="32"/>
       <c r="B170" t="s">
         <v>30</v>
       </c>
@@ -15698,7 +15705,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
@@ -15721,6327 +15731,7 @@
       <c r="W171" s="12"/>
       <c r="X171" s="13"/>
       <c r="Y171" s="14"/>
-    </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="H172" s="15"/>
-      <c r="I172" s="16"/>
-      <c r="J172" s="17"/>
-      <c r="K172" s="15"/>
-      <c r="L172" s="16"/>
-      <c r="M172" s="17"/>
-      <c r="N172" s="15"/>
-      <c r="O172" s="16"/>
-      <c r="P172" s="17"/>
-      <c r="Q172" s="15"/>
-      <c r="R172" s="16"/>
-      <c r="S172" s="17"/>
-      <c r="T172" s="15"/>
-      <c r="U172" s="16"/>
-      <c r="V172" s="17"/>
-      <c r="W172" s="15"/>
-      <c r="X172" s="16"/>
-      <c r="Y172" s="17"/>
-      <c r="Z172"/>
-    </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="H173" s="15"/>
-      <c r="I173" s="16"/>
-      <c r="J173" s="17"/>
-      <c r="K173" s="15"/>
-      <c r="L173" s="16"/>
-      <c r="M173" s="17"/>
-      <c r="N173" s="15"/>
-      <c r="O173" s="16"/>
-      <c r="P173" s="17"/>
-      <c r="Q173" s="15"/>
-      <c r="R173" s="16"/>
-      <c r="S173" s="17"/>
-      <c r="T173" s="15"/>
-      <c r="U173" s="16"/>
-      <c r="V173" s="17"/>
-      <c r="W173" s="15"/>
-      <c r="X173" s="16"/>
-      <c r="Y173" s="17"/>
-      <c r="Z173"/>
-    </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="H174" s="15"/>
-      <c r="I174" s="16"/>
-      <c r="J174" s="17"/>
-      <c r="K174" s="15"/>
-      <c r="L174" s="16"/>
-      <c r="M174" s="17"/>
-      <c r="N174" s="15"/>
-      <c r="O174" s="16"/>
-      <c r="P174" s="17"/>
-      <c r="Q174" s="15"/>
-      <c r="R174" s="16"/>
-      <c r="S174" s="17"/>
-      <c r="T174" s="15"/>
-      <c r="U174" s="16"/>
-      <c r="V174" s="17"/>
-      <c r="W174" s="15"/>
-      <c r="X174" s="16"/>
-      <c r="Y174" s="17"/>
-      <c r="Z174"/>
-    </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="H175" s="15"/>
-      <c r="I175" s="16"/>
-      <c r="J175" s="17"/>
-      <c r="K175" s="15"/>
-      <c r="L175" s="16"/>
-      <c r="M175" s="17"/>
-      <c r="N175" s="15"/>
-      <c r="O175" s="16"/>
-      <c r="P175" s="17"/>
-      <c r="Q175" s="15"/>
-      <c r="R175" s="16"/>
-      <c r="S175" s="17"/>
-      <c r="T175" s="15"/>
-      <c r="U175" s="16"/>
-      <c r="V175" s="17"/>
-      <c r="W175" s="15"/>
-      <c r="X175" s="16"/>
-      <c r="Y175" s="17"/>
-      <c r="Z175"/>
-    </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="H176" s="15"/>
-      <c r="I176" s="16"/>
-      <c r="J176" s="17"/>
-      <c r="K176" s="15"/>
-      <c r="L176" s="16"/>
-      <c r="M176" s="17"/>
-      <c r="N176" s="15"/>
-      <c r="O176" s="16"/>
-      <c r="P176" s="17"/>
-      <c r="Q176" s="15"/>
-      <c r="R176" s="16"/>
-      <c r="S176" s="17"/>
-      <c r="T176" s="15"/>
-      <c r="U176" s="16"/>
-      <c r="V176" s="17"/>
-      <c r="W176" s="15"/>
-      <c r="X176" s="16"/>
-      <c r="Y176" s="17"/>
-      <c r="Z176"/>
-    </row>
-    <row r="177" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H177" s="15"/>
-      <c r="I177" s="16"/>
-      <c r="J177" s="17"/>
-      <c r="K177" s="15"/>
-      <c r="L177" s="16"/>
-      <c r="M177" s="17"/>
-      <c r="N177" s="15"/>
-      <c r="O177" s="16"/>
-      <c r="P177" s="17"/>
-      <c r="Q177" s="15"/>
-      <c r="R177" s="16"/>
-      <c r="S177" s="17"/>
-      <c r="T177" s="15"/>
-      <c r="U177" s="16"/>
-      <c r="V177" s="17"/>
-      <c r="W177" s="15"/>
-      <c r="X177" s="16"/>
-      <c r="Y177" s="17"/>
-      <c r="Z177"/>
-    </row>
-    <row r="178" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H178" s="15"/>
-      <c r="I178" s="16"/>
-      <c r="J178" s="17"/>
-      <c r="K178" s="15"/>
-      <c r="L178" s="16"/>
-      <c r="M178" s="17"/>
-      <c r="N178" s="15"/>
-      <c r="O178" s="16"/>
-      <c r="P178" s="17"/>
-      <c r="Q178" s="15"/>
-      <c r="R178" s="16"/>
-      <c r="S178" s="17"/>
-      <c r="T178" s="15"/>
-      <c r="U178" s="16"/>
-      <c r="V178" s="17"/>
-      <c r="W178" s="15"/>
-      <c r="X178" s="16"/>
-      <c r="Y178" s="17"/>
-      <c r="Z178"/>
-    </row>
-    <row r="179" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H179" s="15"/>
-      <c r="I179" s="16"/>
-      <c r="J179" s="17"/>
-      <c r="K179" s="15"/>
-      <c r="L179" s="16"/>
-      <c r="M179" s="17"/>
-      <c r="N179" s="15"/>
-      <c r="O179" s="16"/>
-      <c r="P179" s="17"/>
-      <c r="Q179" s="15"/>
-      <c r="R179" s="16"/>
-      <c r="S179" s="17"/>
-      <c r="T179" s="15"/>
-      <c r="U179" s="16"/>
-      <c r="V179" s="17"/>
-      <c r="W179" s="15"/>
-      <c r="X179" s="16"/>
-      <c r="Y179" s="17"/>
-      <c r="Z179"/>
-    </row>
-    <row r="180" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H180" s="15"/>
-      <c r="I180" s="16"/>
-      <c r="J180" s="17"/>
-      <c r="K180" s="15"/>
-      <c r="L180" s="16"/>
-      <c r="M180" s="17"/>
-      <c r="N180" s="15"/>
-      <c r="O180" s="16"/>
-      <c r="P180" s="17"/>
-      <c r="Q180" s="15"/>
-      <c r="R180" s="16"/>
-      <c r="S180" s="17"/>
-      <c r="T180" s="15"/>
-      <c r="U180" s="16"/>
-      <c r="V180" s="17"/>
-      <c r="W180" s="15"/>
-      <c r="X180" s="16"/>
-      <c r="Y180" s="17"/>
-      <c r="Z180"/>
-    </row>
-    <row r="181" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H181" s="15"/>
-      <c r="I181" s="16"/>
-      <c r="J181" s="17"/>
-      <c r="K181" s="15"/>
-      <c r="L181" s="16"/>
-      <c r="M181" s="17"/>
-      <c r="N181" s="15"/>
-      <c r="O181" s="16"/>
-      <c r="P181" s="17"/>
-      <c r="Q181" s="15"/>
-      <c r="R181" s="16"/>
-      <c r="S181" s="17"/>
-      <c r="T181" s="15"/>
-      <c r="U181" s="16"/>
-      <c r="V181" s="17"/>
-      <c r="W181" s="15"/>
-      <c r="X181" s="16"/>
-      <c r="Y181" s="17"/>
-      <c r="Z181"/>
-    </row>
-    <row r="182" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H182" s="15"/>
-      <c r="I182" s="16"/>
-      <c r="J182" s="17"/>
-      <c r="K182" s="15"/>
-      <c r="L182" s="16"/>
-      <c r="M182" s="17"/>
-      <c r="N182" s="15"/>
-      <c r="O182" s="16"/>
-      <c r="P182" s="17"/>
-      <c r="Q182" s="15"/>
-      <c r="R182" s="16"/>
-      <c r="S182" s="17"/>
-      <c r="T182" s="15"/>
-      <c r="U182" s="16"/>
-      <c r="V182" s="17"/>
-      <c r="W182" s="15"/>
-      <c r="X182" s="16"/>
-      <c r="Y182" s="17"/>
-      <c r="Z182"/>
-    </row>
-    <row r="183" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H183" s="15"/>
-      <c r="I183" s="16"/>
-      <c r="J183" s="17"/>
-      <c r="K183" s="15"/>
-      <c r="L183" s="16"/>
-      <c r="M183" s="17"/>
-      <c r="N183" s="15"/>
-      <c r="O183" s="16"/>
-      <c r="P183" s="17"/>
-      <c r="Q183" s="15"/>
-      <c r="R183" s="16"/>
-      <c r="S183" s="17"/>
-      <c r="T183" s="15"/>
-      <c r="U183" s="16"/>
-      <c r="V183" s="17"/>
-      <c r="W183" s="15"/>
-      <c r="X183" s="16"/>
-      <c r="Y183" s="17"/>
-      <c r="Z183"/>
-    </row>
-    <row r="184" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H184" s="15"/>
-      <c r="I184" s="16"/>
-      <c r="J184" s="17"/>
-      <c r="K184" s="15"/>
-      <c r="L184" s="16"/>
-      <c r="M184" s="17"/>
-      <c r="N184" s="15"/>
-      <c r="O184" s="16"/>
-      <c r="P184" s="17"/>
-      <c r="Q184" s="15"/>
-      <c r="R184" s="16"/>
-      <c r="S184" s="17"/>
-      <c r="T184" s="15"/>
-      <c r="U184" s="16"/>
-      <c r="V184" s="17"/>
-      <c r="W184" s="15"/>
-      <c r="X184" s="16"/>
-      <c r="Y184" s="17"/>
-      <c r="Z184"/>
-    </row>
-    <row r="185" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H185" s="15"/>
-      <c r="I185" s="16"/>
-      <c r="J185" s="17"/>
-      <c r="K185" s="15"/>
-      <c r="L185" s="16"/>
-      <c r="M185" s="17"/>
-      <c r="N185" s="15"/>
-      <c r="O185" s="16"/>
-      <c r="P185" s="17"/>
-      <c r="Q185" s="15"/>
-      <c r="R185" s="16"/>
-      <c r="S185" s="17"/>
-      <c r="T185" s="15"/>
-      <c r="U185" s="16"/>
-      <c r="V185" s="17"/>
-      <c r="W185" s="15"/>
-      <c r="X185" s="16"/>
-      <c r="Y185" s="17"/>
-      <c r="Z185"/>
-    </row>
-    <row r="186" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H186" s="15"/>
-      <c r="I186" s="16"/>
-      <c r="J186" s="17"/>
-      <c r="K186" s="15"/>
-      <c r="L186" s="16"/>
-      <c r="M186" s="17"/>
-      <c r="N186" s="15"/>
-      <c r="O186" s="16"/>
-      <c r="P186" s="17"/>
-      <c r="Q186" s="15"/>
-      <c r="R186" s="16"/>
-      <c r="S186" s="17"/>
-      <c r="T186" s="15"/>
-      <c r="U186" s="16"/>
-      <c r="V186" s="17"/>
-      <c r="W186" s="15"/>
-      <c r="X186" s="16"/>
-      <c r="Y186" s="17"/>
-      <c r="Z186"/>
-    </row>
-    <row r="187" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H187" s="15"/>
-      <c r="I187" s="16"/>
-      <c r="J187" s="17"/>
-      <c r="K187" s="15"/>
-      <c r="L187" s="16"/>
-      <c r="M187" s="17"/>
-      <c r="N187" s="15"/>
-      <c r="O187" s="16"/>
-      <c r="P187" s="17"/>
-      <c r="Q187" s="15"/>
-      <c r="R187" s="16"/>
-      <c r="S187" s="17"/>
-      <c r="T187" s="15"/>
-      <c r="U187" s="16"/>
-      <c r="V187" s="17"/>
-      <c r="W187" s="15"/>
-      <c r="X187" s="16"/>
-      <c r="Y187" s="17"/>
-      <c r="Z187"/>
-    </row>
-    <row r="188" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H188" s="15"/>
-      <c r="I188" s="16"/>
-      <c r="J188" s="17"/>
-      <c r="K188" s="15"/>
-      <c r="L188" s="16"/>
-      <c r="M188" s="17"/>
-      <c r="N188" s="15"/>
-      <c r="O188" s="16"/>
-      <c r="P188" s="17"/>
-      <c r="Q188" s="15"/>
-      <c r="R188" s="16"/>
-      <c r="S188" s="17"/>
-      <c r="T188" s="15"/>
-      <c r="U188" s="16"/>
-      <c r="V188" s="17"/>
-      <c r="W188" s="15"/>
-      <c r="X188" s="16"/>
-      <c r="Y188" s="17"/>
-      <c r="Z188"/>
-    </row>
-    <row r="189" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H189" s="15"/>
-      <c r="I189" s="16"/>
-      <c r="J189" s="17"/>
-      <c r="K189" s="15"/>
-      <c r="L189" s="16"/>
-      <c r="M189" s="17"/>
-      <c r="N189" s="15"/>
-      <c r="O189" s="16"/>
-      <c r="P189" s="17"/>
-      <c r="Q189" s="15"/>
-      <c r="R189" s="16"/>
-      <c r="S189" s="17"/>
-      <c r="T189" s="15"/>
-      <c r="U189" s="16"/>
-      <c r="V189" s="17"/>
-      <c r="W189" s="15"/>
-      <c r="X189" s="16"/>
-      <c r="Y189" s="17"/>
-      <c r="Z189"/>
-    </row>
-    <row r="190" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H190" s="15"/>
-      <c r="I190" s="16"/>
-      <c r="J190" s="17"/>
-      <c r="K190" s="15"/>
-      <c r="L190" s="16"/>
-      <c r="M190" s="17"/>
-      <c r="N190" s="15"/>
-      <c r="O190" s="16"/>
-      <c r="P190" s="17"/>
-      <c r="Q190" s="15"/>
-      <c r="R190" s="16"/>
-      <c r="S190" s="17"/>
-      <c r="T190" s="15"/>
-      <c r="U190" s="16"/>
-      <c r="V190" s="17"/>
-      <c r="W190" s="15"/>
-      <c r="X190" s="16"/>
-      <c r="Y190" s="17"/>
-      <c r="Z190"/>
-    </row>
-    <row r="191" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H191" s="15"/>
-      <c r="I191" s="16"/>
-      <c r="J191" s="17"/>
-      <c r="K191" s="15"/>
-      <c r="L191" s="16"/>
-      <c r="M191" s="17"/>
-      <c r="N191" s="15"/>
-      <c r="O191" s="16"/>
-      <c r="P191" s="17"/>
-      <c r="Q191" s="15"/>
-      <c r="R191" s="16"/>
-      <c r="S191" s="17"/>
-      <c r="T191" s="15"/>
-      <c r="U191" s="16"/>
-      <c r="V191" s="17"/>
-      <c r="W191" s="15"/>
-      <c r="X191" s="16"/>
-      <c r="Y191" s="17"/>
-      <c r="Z191"/>
-    </row>
-    <row r="192" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H192" s="15"/>
-      <c r="I192" s="16"/>
-      <c r="J192" s="17"/>
-      <c r="K192" s="15"/>
-      <c r="L192" s="16"/>
-      <c r="M192" s="17"/>
-      <c r="N192" s="15"/>
-      <c r="O192" s="16"/>
-      <c r="P192" s="17"/>
-      <c r="Q192" s="15"/>
-      <c r="R192" s="16"/>
-      <c r="S192" s="17"/>
-      <c r="T192" s="15"/>
-      <c r="U192" s="16"/>
-      <c r="V192" s="17"/>
-      <c r="W192" s="15"/>
-      <c r="X192" s="16"/>
-      <c r="Y192" s="17"/>
-      <c r="Z192"/>
-    </row>
-    <row r="193" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H193" s="15"/>
-      <c r="I193" s="16"/>
-      <c r="J193" s="17"/>
-      <c r="K193" s="15"/>
-      <c r="L193" s="16"/>
-      <c r="M193" s="17"/>
-      <c r="N193" s="15"/>
-      <c r="O193" s="16"/>
-      <c r="P193" s="17"/>
-      <c r="Q193" s="15"/>
-      <c r="R193" s="16"/>
-      <c r="S193" s="17"/>
-      <c r="T193" s="15"/>
-      <c r="U193" s="16"/>
-      <c r="V193" s="17"/>
-      <c r="W193" s="15"/>
-      <c r="X193" s="16"/>
-      <c r="Y193" s="17"/>
-      <c r="Z193"/>
-    </row>
-    <row r="194" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H194" s="15"/>
-      <c r="I194" s="16"/>
-      <c r="J194" s="17"/>
-      <c r="K194" s="15"/>
-      <c r="L194" s="16"/>
-      <c r="M194" s="17"/>
-      <c r="N194" s="15"/>
-      <c r="O194" s="16"/>
-      <c r="P194" s="17"/>
-      <c r="Q194" s="15"/>
-      <c r="R194" s="16"/>
-      <c r="S194" s="17"/>
-      <c r="T194" s="15"/>
-      <c r="U194" s="16"/>
-      <c r="V194" s="17"/>
-      <c r="W194" s="15"/>
-      <c r="X194" s="16"/>
-      <c r="Y194" s="17"/>
-      <c r="Z194"/>
-    </row>
-    <row r="195" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H195" s="15"/>
-      <c r="I195" s="16"/>
-      <c r="J195" s="17"/>
-      <c r="K195" s="15"/>
-      <c r="L195" s="16"/>
-      <c r="M195" s="17"/>
-      <c r="N195" s="15"/>
-      <c r="O195" s="16"/>
-      <c r="P195" s="17"/>
-      <c r="Q195" s="15"/>
-      <c r="R195" s="16"/>
-      <c r="S195" s="17"/>
-      <c r="T195" s="15"/>
-      <c r="U195" s="16"/>
-      <c r="V195" s="17"/>
-      <c r="W195" s="15"/>
-      <c r="X195" s="16"/>
-      <c r="Y195" s="17"/>
-      <c r="Z195"/>
-    </row>
-    <row r="196" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H196" s="15"/>
-      <c r="I196" s="16"/>
-      <c r="J196" s="17"/>
-      <c r="K196" s="15"/>
-      <c r="L196" s="16"/>
-      <c r="M196" s="17"/>
-      <c r="N196" s="15"/>
-      <c r="O196" s="16"/>
-      <c r="P196" s="17"/>
-      <c r="Q196" s="15"/>
-      <c r="R196" s="16"/>
-      <c r="S196" s="17"/>
-      <c r="T196" s="15"/>
-      <c r="U196" s="16"/>
-      <c r="V196" s="17"/>
-      <c r="W196" s="15"/>
-      <c r="X196" s="16"/>
-      <c r="Y196" s="17"/>
-      <c r="Z196"/>
-    </row>
-    <row r="197" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H197" s="15"/>
-      <c r="I197" s="16"/>
-      <c r="J197" s="17"/>
-      <c r="K197" s="15"/>
-      <c r="L197" s="16"/>
-      <c r="M197" s="17"/>
-      <c r="N197" s="15"/>
-      <c r="O197" s="16"/>
-      <c r="P197" s="17"/>
-      <c r="Q197" s="15"/>
-      <c r="R197" s="16"/>
-      <c r="S197" s="17"/>
-      <c r="T197" s="15"/>
-      <c r="U197" s="16"/>
-      <c r="V197" s="17"/>
-      <c r="W197" s="15"/>
-      <c r="X197" s="16"/>
-      <c r="Y197" s="17"/>
-      <c r="Z197"/>
-    </row>
-    <row r="198" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H198" s="15"/>
-      <c r="I198" s="16"/>
-      <c r="J198" s="17"/>
-      <c r="K198" s="15"/>
-      <c r="L198" s="16"/>
-      <c r="M198" s="17"/>
-      <c r="N198" s="15"/>
-      <c r="O198" s="16"/>
-      <c r="P198" s="17"/>
-      <c r="Q198" s="15"/>
-      <c r="R198" s="16"/>
-      <c r="S198" s="17"/>
-      <c r="T198" s="15"/>
-      <c r="U198" s="16"/>
-      <c r="V198" s="17"/>
-      <c r="W198" s="15"/>
-      <c r="X198" s="16"/>
-      <c r="Y198" s="17"/>
-      <c r="Z198"/>
-    </row>
-    <row r="199" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H199" s="15"/>
-      <c r="I199" s="16"/>
-      <c r="J199" s="17"/>
-      <c r="K199" s="15"/>
-      <c r="L199" s="16"/>
-      <c r="M199" s="17"/>
-      <c r="N199" s="15"/>
-      <c r="O199" s="16"/>
-      <c r="P199" s="17"/>
-      <c r="Q199" s="15"/>
-      <c r="R199" s="16"/>
-      <c r="S199" s="17"/>
-      <c r="T199" s="15"/>
-      <c r="U199" s="16"/>
-      <c r="V199" s="17"/>
-      <c r="W199" s="15"/>
-      <c r="X199" s="16"/>
-      <c r="Y199" s="17"/>
-      <c r="Z199"/>
-    </row>
-    <row r="200" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H200" s="15"/>
-      <c r="I200" s="16"/>
-      <c r="J200" s="17"/>
-      <c r="K200" s="15"/>
-      <c r="L200" s="16"/>
-      <c r="M200" s="17"/>
-      <c r="N200" s="15"/>
-      <c r="O200" s="16"/>
-      <c r="P200" s="17"/>
-      <c r="Q200" s="15"/>
-      <c r="R200" s="16"/>
-      <c r="S200" s="17"/>
-      <c r="T200" s="15"/>
-      <c r="U200" s="16"/>
-      <c r="V200" s="17"/>
-      <c r="W200" s="15"/>
-      <c r="X200" s="16"/>
-      <c r="Y200" s="17"/>
-      <c r="Z200"/>
-    </row>
-    <row r="201" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H201" s="15"/>
-      <c r="I201" s="16"/>
-      <c r="J201" s="17"/>
-      <c r="K201" s="15"/>
-      <c r="L201" s="16"/>
-      <c r="M201" s="17"/>
-      <c r="N201" s="15"/>
-      <c r="O201" s="16"/>
-      <c r="P201" s="17"/>
-      <c r="Q201" s="15"/>
-      <c r="R201" s="16"/>
-      <c r="S201" s="17"/>
-      <c r="T201" s="15"/>
-      <c r="U201" s="16"/>
-      <c r="V201" s="17"/>
-      <c r="W201" s="15"/>
-      <c r="X201" s="16"/>
-      <c r="Y201" s="17"/>
-      <c r="Z201"/>
-    </row>
-    <row r="202" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H202" s="15"/>
-      <c r="I202" s="16"/>
-      <c r="J202" s="17"/>
-      <c r="K202" s="15"/>
-      <c r="L202" s="16"/>
-      <c r="M202" s="17"/>
-      <c r="N202" s="15"/>
-      <c r="O202" s="16"/>
-      <c r="P202" s="17"/>
-      <c r="Q202" s="15"/>
-      <c r="R202" s="16"/>
-      <c r="S202" s="17"/>
-      <c r="T202" s="15"/>
-      <c r="U202" s="16"/>
-      <c r="V202" s="17"/>
-      <c r="W202" s="15"/>
-      <c r="X202" s="16"/>
-      <c r="Y202" s="17"/>
-      <c r="Z202"/>
-    </row>
-    <row r="203" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H203" s="15"/>
-      <c r="I203" s="16"/>
-      <c r="J203" s="17"/>
-      <c r="K203" s="15"/>
-      <c r="L203" s="16"/>
-      <c r="M203" s="17"/>
-      <c r="N203" s="15"/>
-      <c r="O203" s="16"/>
-      <c r="P203" s="17"/>
-      <c r="Q203" s="15"/>
-      <c r="R203" s="16"/>
-      <c r="S203" s="17"/>
-      <c r="T203" s="15"/>
-      <c r="U203" s="16"/>
-      <c r="V203" s="17"/>
-      <c r="W203" s="15"/>
-      <c r="X203" s="16"/>
-      <c r="Y203" s="17"/>
-      <c r="Z203"/>
-    </row>
-    <row r="204" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H204" s="15"/>
-      <c r="I204" s="16"/>
-      <c r="J204" s="17"/>
-      <c r="K204" s="15"/>
-      <c r="L204" s="16"/>
-      <c r="M204" s="17"/>
-      <c r="N204" s="15"/>
-      <c r="O204" s="16"/>
-      <c r="P204" s="17"/>
-      <c r="Q204" s="15"/>
-      <c r="R204" s="16"/>
-      <c r="S204" s="17"/>
-      <c r="T204" s="15"/>
-      <c r="U204" s="16"/>
-      <c r="V204" s="17"/>
-      <c r="W204" s="15"/>
-      <c r="X204" s="16"/>
-      <c r="Y204" s="17"/>
-      <c r="Z204"/>
-    </row>
-    <row r="205" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H205" s="15"/>
-      <c r="I205" s="16"/>
-      <c r="J205" s="17"/>
-      <c r="K205" s="15"/>
-      <c r="L205" s="16"/>
-      <c r="M205" s="17"/>
-      <c r="N205" s="15"/>
-      <c r="O205" s="16"/>
-      <c r="P205" s="17"/>
-      <c r="Q205" s="15"/>
-      <c r="R205" s="16"/>
-      <c r="S205" s="17"/>
-      <c r="T205" s="15"/>
-      <c r="U205" s="16"/>
-      <c r="V205" s="17"/>
-      <c r="W205" s="15"/>
-      <c r="X205" s="16"/>
-      <c r="Y205" s="17"/>
-      <c r="Z205"/>
-    </row>
-    <row r="206" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H206" s="15"/>
-      <c r="I206" s="16"/>
-      <c r="J206" s="17"/>
-      <c r="K206" s="15"/>
-      <c r="L206" s="16"/>
-      <c r="M206" s="17"/>
-      <c r="N206" s="15"/>
-      <c r="O206" s="16"/>
-      <c r="P206" s="17"/>
-      <c r="Q206" s="15"/>
-      <c r="R206" s="16"/>
-      <c r="S206" s="17"/>
-      <c r="T206" s="15"/>
-      <c r="U206" s="16"/>
-      <c r="V206" s="17"/>
-      <c r="W206" s="15"/>
-      <c r="X206" s="16"/>
-      <c r="Y206" s="17"/>
-      <c r="Z206"/>
-    </row>
-    <row r="207" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H207" s="15"/>
-      <c r="I207" s="16"/>
-      <c r="J207" s="17"/>
-      <c r="K207" s="15"/>
-      <c r="L207" s="16"/>
-      <c r="M207" s="17"/>
-      <c r="N207" s="15"/>
-      <c r="O207" s="16"/>
-      <c r="P207" s="17"/>
-      <c r="Q207" s="15"/>
-      <c r="R207" s="16"/>
-      <c r="S207" s="17"/>
-      <c r="T207" s="15"/>
-      <c r="U207" s="16"/>
-      <c r="V207" s="17"/>
-      <c r="W207" s="15"/>
-      <c r="X207" s="16"/>
-      <c r="Y207" s="17"/>
-      <c r="Z207"/>
-    </row>
-    <row r="208" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H208" s="15"/>
-      <c r="I208" s="16"/>
-      <c r="J208" s="17"/>
-      <c r="K208" s="15"/>
-      <c r="L208" s="16"/>
-      <c r="M208" s="17"/>
-      <c r="N208" s="15"/>
-      <c r="O208" s="16"/>
-      <c r="P208" s="17"/>
-      <c r="Q208" s="15"/>
-      <c r="R208" s="16"/>
-      <c r="S208" s="17"/>
-      <c r="T208" s="15"/>
-      <c r="U208" s="16"/>
-      <c r="V208" s="17"/>
-      <c r="W208" s="15"/>
-      <c r="X208" s="16"/>
-      <c r="Y208" s="17"/>
-      <c r="Z208"/>
-    </row>
-    <row r="209" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H209" s="15"/>
-      <c r="I209" s="16"/>
-      <c r="J209" s="17"/>
-      <c r="K209" s="15"/>
-      <c r="L209" s="16"/>
-      <c r="M209" s="17"/>
-      <c r="N209" s="15"/>
-      <c r="O209" s="16"/>
-      <c r="P209" s="17"/>
-      <c r="Q209" s="15"/>
-      <c r="R209" s="16"/>
-      <c r="S209" s="17"/>
-      <c r="T209" s="15"/>
-      <c r="U209" s="16"/>
-      <c r="V209" s="17"/>
-      <c r="W209" s="15"/>
-      <c r="X209" s="16"/>
-      <c r="Y209" s="17"/>
-      <c r="Z209"/>
-    </row>
-    <row r="210" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H210" s="15"/>
-      <c r="I210" s="16"/>
-      <c r="J210" s="17"/>
-      <c r="K210" s="15"/>
-      <c r="L210" s="16"/>
-      <c r="M210" s="17"/>
-      <c r="N210" s="15"/>
-      <c r="O210" s="16"/>
-      <c r="P210" s="17"/>
-      <c r="Q210" s="15"/>
-      <c r="R210" s="16"/>
-      <c r="S210" s="17"/>
-      <c r="T210" s="15"/>
-      <c r="U210" s="16"/>
-      <c r="V210" s="17"/>
-      <c r="W210" s="15"/>
-      <c r="X210" s="16"/>
-      <c r="Y210" s="17"/>
-      <c r="Z210"/>
-    </row>
-    <row r="211" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H211" s="15"/>
-      <c r="I211" s="16"/>
-      <c r="J211" s="17"/>
-      <c r="K211" s="15"/>
-      <c r="L211" s="16"/>
-      <c r="M211" s="17"/>
-      <c r="N211" s="15"/>
-      <c r="O211" s="16"/>
-      <c r="P211" s="17"/>
-      <c r="Q211" s="15"/>
-      <c r="R211" s="16"/>
-      <c r="S211" s="17"/>
-      <c r="T211" s="15"/>
-      <c r="U211" s="16"/>
-      <c r="V211" s="17"/>
-      <c r="W211" s="15"/>
-      <c r="X211" s="16"/>
-      <c r="Y211" s="17"/>
-      <c r="Z211"/>
-    </row>
-    <row r="212" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H212" s="15"/>
-      <c r="I212" s="16"/>
-      <c r="J212" s="17"/>
-      <c r="K212" s="15"/>
-      <c r="L212" s="16"/>
-      <c r="M212" s="17"/>
-      <c r="N212" s="15"/>
-      <c r="O212" s="16"/>
-      <c r="P212" s="17"/>
-      <c r="Q212" s="15"/>
-      <c r="R212" s="16"/>
-      <c r="S212" s="17"/>
-      <c r="T212" s="15"/>
-      <c r="U212" s="16"/>
-      <c r="V212" s="17"/>
-      <c r="W212" s="15"/>
-      <c r="X212" s="16"/>
-      <c r="Y212" s="17"/>
-      <c r="Z212"/>
-    </row>
-    <row r="213" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H213" s="15"/>
-      <c r="I213" s="16"/>
-      <c r="J213" s="17"/>
-      <c r="K213" s="15"/>
-      <c r="L213" s="16"/>
-      <c r="M213" s="17"/>
-      <c r="N213" s="15"/>
-      <c r="O213" s="16"/>
-      <c r="P213" s="17"/>
-      <c r="Q213" s="15"/>
-      <c r="R213" s="16"/>
-      <c r="S213" s="17"/>
-      <c r="T213" s="15"/>
-      <c r="U213" s="16"/>
-      <c r="V213" s="17"/>
-      <c r="W213" s="15"/>
-      <c r="X213" s="16"/>
-      <c r="Y213" s="17"/>
-      <c r="Z213"/>
-    </row>
-    <row r="214" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H214" s="15"/>
-      <c r="I214" s="16"/>
-      <c r="J214" s="17"/>
-      <c r="K214" s="15"/>
-      <c r="L214" s="16"/>
-      <c r="M214" s="17"/>
-      <c r="N214" s="15"/>
-      <c r="O214" s="16"/>
-      <c r="P214" s="17"/>
-      <c r="Q214" s="15"/>
-      <c r="R214" s="16"/>
-      <c r="S214" s="17"/>
-      <c r="T214" s="15"/>
-      <c r="U214" s="16"/>
-      <c r="V214" s="17"/>
-      <c r="W214" s="15"/>
-      <c r="X214" s="16"/>
-      <c r="Y214" s="17"/>
-      <c r="Z214"/>
-    </row>
-    <row r="215" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H215" s="15"/>
-      <c r="I215" s="16"/>
-      <c r="J215" s="17"/>
-      <c r="K215" s="15"/>
-      <c r="L215" s="16"/>
-      <c r="M215" s="17"/>
-      <c r="N215" s="15"/>
-      <c r="O215" s="16"/>
-      <c r="P215" s="17"/>
-      <c r="Q215" s="15"/>
-      <c r="R215" s="16"/>
-      <c r="S215" s="17"/>
-      <c r="T215" s="15"/>
-      <c r="U215" s="16"/>
-      <c r="V215" s="17"/>
-      <c r="W215" s="15"/>
-      <c r="X215" s="16"/>
-      <c r="Y215" s="17"/>
-      <c r="Z215"/>
-    </row>
-    <row r="216" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H216" s="15"/>
-      <c r="I216" s="16"/>
-      <c r="J216" s="17"/>
-      <c r="K216" s="15"/>
-      <c r="L216" s="16"/>
-      <c r="M216" s="17"/>
-      <c r="N216" s="15"/>
-      <c r="O216" s="16"/>
-      <c r="P216" s="17"/>
-      <c r="Q216" s="15"/>
-      <c r="R216" s="16"/>
-      <c r="S216" s="17"/>
-      <c r="T216" s="15"/>
-      <c r="U216" s="16"/>
-      <c r="V216" s="17"/>
-      <c r="W216" s="15"/>
-      <c r="X216" s="16"/>
-      <c r="Y216" s="17"/>
-      <c r="Z216"/>
-    </row>
-    <row r="217" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H217" s="15"/>
-      <c r="I217" s="16"/>
-      <c r="J217" s="17"/>
-      <c r="K217" s="15"/>
-      <c r="L217" s="16"/>
-      <c r="M217" s="17"/>
-      <c r="N217" s="15"/>
-      <c r="O217" s="16"/>
-      <c r="P217" s="17"/>
-      <c r="Q217" s="15"/>
-      <c r="R217" s="16"/>
-      <c r="S217" s="17"/>
-      <c r="T217" s="15"/>
-      <c r="U217" s="16"/>
-      <c r="V217" s="17"/>
-      <c r="W217" s="15"/>
-      <c r="X217" s="16"/>
-      <c r="Y217" s="17"/>
-      <c r="Z217"/>
-    </row>
-    <row r="218" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H218" s="15"/>
-      <c r="I218" s="16"/>
-      <c r="J218" s="17"/>
-      <c r="K218" s="15"/>
-      <c r="L218" s="16"/>
-      <c r="M218" s="17"/>
-      <c r="N218" s="15"/>
-      <c r="O218" s="16"/>
-      <c r="P218" s="17"/>
-      <c r="Q218" s="15"/>
-      <c r="R218" s="16"/>
-      <c r="S218" s="17"/>
-      <c r="T218" s="15"/>
-      <c r="U218" s="16"/>
-      <c r="V218" s="17"/>
-      <c r="W218" s="15"/>
-      <c r="X218" s="16"/>
-      <c r="Y218" s="17"/>
-      <c r="Z218"/>
-    </row>
-    <row r="219" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H219" s="15"/>
-      <c r="I219" s="16"/>
-      <c r="J219" s="17"/>
-      <c r="K219" s="15"/>
-      <c r="L219" s="16"/>
-      <c r="M219" s="17"/>
-      <c r="N219" s="15"/>
-      <c r="O219" s="16"/>
-      <c r="P219" s="17"/>
-      <c r="Q219" s="15"/>
-      <c r="R219" s="16"/>
-      <c r="S219" s="17"/>
-      <c r="T219" s="15"/>
-      <c r="U219" s="16"/>
-      <c r="V219" s="17"/>
-      <c r="W219" s="15"/>
-      <c r="X219" s="16"/>
-      <c r="Y219" s="17"/>
-      <c r="Z219"/>
-    </row>
-    <row r="220" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H220" s="15"/>
-      <c r="I220" s="16"/>
-      <c r="J220" s="17"/>
-      <c r="K220" s="15"/>
-      <c r="L220" s="16"/>
-      <c r="M220" s="17"/>
-      <c r="N220" s="15"/>
-      <c r="O220" s="16"/>
-      <c r="P220" s="17"/>
-      <c r="Q220" s="15"/>
-      <c r="R220" s="16"/>
-      <c r="S220" s="17"/>
-      <c r="T220" s="15"/>
-      <c r="U220" s="16"/>
-      <c r="V220" s="17"/>
-      <c r="W220" s="15"/>
-      <c r="X220" s="16"/>
-      <c r="Y220" s="17"/>
-      <c r="Z220"/>
-    </row>
-    <row r="221" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H221" s="15"/>
-      <c r="I221" s="16"/>
-      <c r="J221" s="17"/>
-      <c r="K221" s="15"/>
-      <c r="L221" s="16"/>
-      <c r="M221" s="17"/>
-      <c r="N221" s="15"/>
-      <c r="O221" s="16"/>
-      <c r="P221" s="17"/>
-      <c r="Q221" s="15"/>
-      <c r="R221" s="16"/>
-      <c r="S221" s="17"/>
-      <c r="T221" s="15"/>
-      <c r="U221" s="16"/>
-      <c r="V221" s="17"/>
-      <c r="W221" s="15"/>
-      <c r="X221" s="16"/>
-      <c r="Y221" s="17"/>
-      <c r="Z221"/>
-    </row>
-    <row r="222" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H222" s="15"/>
-      <c r="I222" s="16"/>
-      <c r="J222" s="17"/>
-      <c r="K222" s="15"/>
-      <c r="L222" s="16"/>
-      <c r="M222" s="17"/>
-      <c r="N222" s="15"/>
-      <c r="O222" s="16"/>
-      <c r="P222" s="17"/>
-      <c r="Q222" s="15"/>
-      <c r="R222" s="16"/>
-      <c r="S222" s="17"/>
-      <c r="T222" s="15"/>
-      <c r="U222" s="16"/>
-      <c r="V222" s="17"/>
-      <c r="W222" s="15"/>
-      <c r="X222" s="16"/>
-      <c r="Y222" s="17"/>
-      <c r="Z222"/>
-    </row>
-    <row r="223" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H223" s="15"/>
-      <c r="I223" s="16"/>
-      <c r="J223" s="17"/>
-      <c r="K223" s="15"/>
-      <c r="L223" s="16"/>
-      <c r="M223" s="17"/>
-      <c r="N223" s="15"/>
-      <c r="O223" s="16"/>
-      <c r="P223" s="17"/>
-      <c r="Q223" s="15"/>
-      <c r="R223" s="16"/>
-      <c r="S223" s="17"/>
-      <c r="T223" s="15"/>
-      <c r="U223" s="16"/>
-      <c r="V223" s="17"/>
-      <c r="W223" s="15"/>
-      <c r="X223" s="16"/>
-      <c r="Y223" s="17"/>
-      <c r="Z223"/>
-    </row>
-    <row r="224" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H224" s="15"/>
-      <c r="I224" s="16"/>
-      <c r="J224" s="17"/>
-      <c r="K224" s="15"/>
-      <c r="L224" s="16"/>
-      <c r="M224" s="17"/>
-      <c r="N224" s="15"/>
-      <c r="O224" s="16"/>
-      <c r="P224" s="17"/>
-      <c r="Q224" s="15"/>
-      <c r="R224" s="16"/>
-      <c r="S224" s="17"/>
-      <c r="T224" s="15"/>
-      <c r="U224" s="16"/>
-      <c r="V224" s="17"/>
-      <c r="W224" s="15"/>
-      <c r="X224" s="16"/>
-      <c r="Y224" s="17"/>
-      <c r="Z224"/>
-    </row>
-    <row r="225" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H225" s="15"/>
-      <c r="I225" s="16"/>
-      <c r="J225" s="17"/>
-      <c r="K225" s="15"/>
-      <c r="L225" s="16"/>
-      <c r="M225" s="17"/>
-      <c r="N225" s="15"/>
-      <c r="O225" s="16"/>
-      <c r="P225" s="17"/>
-      <c r="Q225" s="15"/>
-      <c r="R225" s="16"/>
-      <c r="S225" s="17"/>
-      <c r="T225" s="15"/>
-      <c r="U225" s="16"/>
-      <c r="V225" s="17"/>
-      <c r="W225" s="15"/>
-      <c r="X225" s="16"/>
-      <c r="Y225" s="17"/>
-      <c r="Z225"/>
-    </row>
-    <row r="226" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H226" s="15"/>
-      <c r="I226" s="16"/>
-      <c r="J226" s="17"/>
-      <c r="K226" s="15"/>
-      <c r="L226" s="16"/>
-      <c r="M226" s="17"/>
-      <c r="N226" s="15"/>
-      <c r="O226" s="16"/>
-      <c r="P226" s="17"/>
-      <c r="Q226" s="15"/>
-      <c r="R226" s="16"/>
-      <c r="S226" s="17"/>
-      <c r="T226" s="15"/>
-      <c r="U226" s="16"/>
-      <c r="V226" s="17"/>
-      <c r="W226" s="15"/>
-      <c r="X226" s="16"/>
-      <c r="Y226" s="17"/>
-      <c r="Z226"/>
-    </row>
-    <row r="227" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H227" s="15"/>
-      <c r="I227" s="16"/>
-      <c r="J227" s="17"/>
-      <c r="K227" s="15"/>
-      <c r="L227" s="16"/>
-      <c r="M227" s="17"/>
-      <c r="N227" s="15"/>
-      <c r="O227" s="16"/>
-      <c r="P227" s="17"/>
-      <c r="Q227" s="15"/>
-      <c r="R227" s="16"/>
-      <c r="S227" s="17"/>
-      <c r="T227" s="15"/>
-      <c r="U227" s="16"/>
-      <c r="V227" s="17"/>
-      <c r="W227" s="15"/>
-      <c r="X227" s="16"/>
-      <c r="Y227" s="17"/>
-      <c r="Z227"/>
-    </row>
-    <row r="228" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H228" s="15"/>
-      <c r="I228" s="16"/>
-      <c r="J228" s="17"/>
-      <c r="K228" s="15"/>
-      <c r="L228" s="16"/>
-      <c r="M228" s="17"/>
-      <c r="N228" s="15"/>
-      <c r="O228" s="16"/>
-      <c r="P228" s="17"/>
-      <c r="Q228" s="15"/>
-      <c r="R228" s="16"/>
-      <c r="S228" s="17"/>
-      <c r="T228" s="15"/>
-      <c r="U228" s="16"/>
-      <c r="V228" s="17"/>
-      <c r="W228" s="15"/>
-      <c r="X228" s="16"/>
-      <c r="Y228" s="17"/>
-      <c r="Z228"/>
-    </row>
-    <row r="229" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H229" s="15"/>
-      <c r="I229" s="16"/>
-      <c r="J229" s="17"/>
-      <c r="K229" s="15"/>
-      <c r="L229" s="16"/>
-      <c r="M229" s="17"/>
-      <c r="N229" s="15"/>
-      <c r="O229" s="16"/>
-      <c r="P229" s="17"/>
-      <c r="Q229" s="15"/>
-      <c r="R229" s="16"/>
-      <c r="S229" s="17"/>
-      <c r="T229" s="15"/>
-      <c r="U229" s="16"/>
-      <c r="V229" s="17"/>
-      <c r="W229" s="15"/>
-      <c r="X229" s="16"/>
-      <c r="Y229" s="17"/>
-      <c r="Z229"/>
-    </row>
-    <row r="230" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H230" s="15"/>
-      <c r="I230" s="16"/>
-      <c r="J230" s="17"/>
-      <c r="K230" s="15"/>
-      <c r="L230" s="16"/>
-      <c r="M230" s="17"/>
-      <c r="N230" s="15"/>
-      <c r="O230" s="16"/>
-      <c r="P230" s="17"/>
-      <c r="Q230" s="15"/>
-      <c r="R230" s="16"/>
-      <c r="S230" s="17"/>
-      <c r="T230" s="15"/>
-      <c r="U230" s="16"/>
-      <c r="V230" s="17"/>
-      <c r="W230" s="15"/>
-      <c r="X230" s="16"/>
-      <c r="Y230" s="17"/>
-      <c r="Z230"/>
-    </row>
-    <row r="231" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H231" s="15"/>
-      <c r="I231" s="16"/>
-      <c r="J231" s="17"/>
-      <c r="K231" s="15"/>
-      <c r="L231" s="16"/>
-      <c r="M231" s="17"/>
-      <c r="N231" s="15"/>
-      <c r="O231" s="16"/>
-      <c r="P231" s="17"/>
-      <c r="Q231" s="15"/>
-      <c r="R231" s="16"/>
-      <c r="S231" s="17"/>
-      <c r="T231" s="15"/>
-      <c r="U231" s="16"/>
-      <c r="V231" s="17"/>
-      <c r="W231" s="15"/>
-      <c r="X231" s="16"/>
-      <c r="Y231" s="17"/>
-      <c r="Z231"/>
-    </row>
-    <row r="232" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H232" s="15"/>
-      <c r="I232" s="16"/>
-      <c r="J232" s="17"/>
-      <c r="K232" s="15"/>
-      <c r="L232" s="16"/>
-      <c r="M232" s="17"/>
-      <c r="N232" s="15"/>
-      <c r="O232" s="16"/>
-      <c r="P232" s="17"/>
-      <c r="Q232" s="15"/>
-      <c r="R232" s="16"/>
-      <c r="S232" s="17"/>
-      <c r="T232" s="15"/>
-      <c r="U232" s="16"/>
-      <c r="V232" s="17"/>
-      <c r="W232" s="15"/>
-      <c r="X232" s="16"/>
-      <c r="Y232" s="17"/>
-      <c r="Z232"/>
-    </row>
-    <row r="233" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H233" s="15"/>
-      <c r="I233" s="16"/>
-      <c r="J233" s="17"/>
-      <c r="K233" s="15"/>
-      <c r="L233" s="16"/>
-      <c r="M233" s="17"/>
-      <c r="N233" s="15"/>
-      <c r="O233" s="16"/>
-      <c r="P233" s="17"/>
-      <c r="Q233" s="15"/>
-      <c r="R233" s="16"/>
-      <c r="S233" s="17"/>
-      <c r="T233" s="15"/>
-      <c r="U233" s="16"/>
-      <c r="V233" s="17"/>
-      <c r="W233" s="15"/>
-      <c r="X233" s="16"/>
-      <c r="Y233" s="17"/>
-      <c r="Z233"/>
-    </row>
-    <row r="234" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H234" s="15"/>
-      <c r="I234" s="16"/>
-      <c r="J234" s="17"/>
-      <c r="K234" s="15"/>
-      <c r="L234" s="16"/>
-      <c r="M234" s="17"/>
-      <c r="N234" s="15"/>
-      <c r="O234" s="16"/>
-      <c r="P234" s="17"/>
-      <c r="Q234" s="15"/>
-      <c r="R234" s="16"/>
-      <c r="S234" s="17"/>
-      <c r="T234" s="15"/>
-      <c r="U234" s="16"/>
-      <c r="V234" s="17"/>
-      <c r="W234" s="15"/>
-      <c r="X234" s="16"/>
-      <c r="Y234" s="17"/>
-      <c r="Z234"/>
-    </row>
-    <row r="235" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H235" s="15"/>
-      <c r="I235" s="16"/>
-      <c r="J235" s="17"/>
-      <c r="K235" s="15"/>
-      <c r="L235" s="16"/>
-      <c r="M235" s="17"/>
-      <c r="N235" s="15"/>
-      <c r="O235" s="16"/>
-      <c r="P235" s="17"/>
-      <c r="Q235" s="15"/>
-      <c r="R235" s="16"/>
-      <c r="S235" s="17"/>
-      <c r="T235" s="15"/>
-      <c r="U235" s="16"/>
-      <c r="V235" s="17"/>
-      <c r="W235" s="15"/>
-      <c r="X235" s="16"/>
-      <c r="Y235" s="17"/>
-      <c r="Z235"/>
-    </row>
-    <row r="236" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H236" s="15"/>
-      <c r="I236" s="16"/>
-      <c r="J236" s="17"/>
-      <c r="K236" s="15"/>
-      <c r="L236" s="16"/>
-      <c r="M236" s="17"/>
-      <c r="N236" s="15"/>
-      <c r="O236" s="16"/>
-      <c r="P236" s="17"/>
-      <c r="Q236" s="15"/>
-      <c r="R236" s="16"/>
-      <c r="S236" s="17"/>
-      <c r="T236" s="15"/>
-      <c r="U236" s="16"/>
-      <c r="V236" s="17"/>
-      <c r="W236" s="15"/>
-      <c r="X236" s="16"/>
-      <c r="Y236" s="17"/>
-      <c r="Z236"/>
-    </row>
-    <row r="237" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H237" s="15"/>
-      <c r="I237" s="16"/>
-      <c r="J237" s="17"/>
-      <c r="K237" s="15"/>
-      <c r="L237" s="16"/>
-      <c r="M237" s="17"/>
-      <c r="N237" s="15"/>
-      <c r="O237" s="16"/>
-      <c r="P237" s="17"/>
-      <c r="Q237" s="15"/>
-      <c r="R237" s="16"/>
-      <c r="S237" s="17"/>
-      <c r="T237" s="15"/>
-      <c r="U237" s="16"/>
-      <c r="V237" s="17"/>
-      <c r="W237" s="15"/>
-      <c r="X237" s="16"/>
-      <c r="Y237" s="17"/>
-      <c r="Z237"/>
-    </row>
-    <row r="238" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H238" s="15"/>
-      <c r="I238" s="16"/>
-      <c r="J238" s="17"/>
-      <c r="K238" s="15"/>
-      <c r="L238" s="16"/>
-      <c r="M238" s="17"/>
-      <c r="N238" s="15"/>
-      <c r="O238" s="16"/>
-      <c r="P238" s="17"/>
-      <c r="Q238" s="15"/>
-      <c r="R238" s="16"/>
-      <c r="S238" s="17"/>
-      <c r="T238" s="15"/>
-      <c r="U238" s="16"/>
-      <c r="V238" s="17"/>
-      <c r="W238" s="15"/>
-      <c r="X238" s="16"/>
-      <c r="Y238" s="17"/>
-      <c r="Z238"/>
-    </row>
-    <row r="239" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H239" s="15"/>
-      <c r="I239" s="16"/>
-      <c r="J239" s="17"/>
-      <c r="K239" s="15"/>
-      <c r="L239" s="16"/>
-      <c r="M239" s="17"/>
-      <c r="N239" s="15"/>
-      <c r="O239" s="16"/>
-      <c r="P239" s="17"/>
-      <c r="Q239" s="15"/>
-      <c r="R239" s="16"/>
-      <c r="S239" s="17"/>
-      <c r="T239" s="15"/>
-      <c r="U239" s="16"/>
-      <c r="V239" s="17"/>
-      <c r="W239" s="15"/>
-      <c r="X239" s="16"/>
-      <c r="Y239" s="17"/>
-      <c r="Z239"/>
-    </row>
-    <row r="240" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H240" s="15"/>
-      <c r="I240" s="16"/>
-      <c r="J240" s="17"/>
-      <c r="K240" s="15"/>
-      <c r="L240" s="16"/>
-      <c r="M240" s="17"/>
-      <c r="N240" s="15"/>
-      <c r="O240" s="16"/>
-      <c r="P240" s="17"/>
-      <c r="Q240" s="15"/>
-      <c r="R240" s="16"/>
-      <c r="S240" s="17"/>
-      <c r="T240" s="15"/>
-      <c r="U240" s="16"/>
-      <c r="V240" s="17"/>
-      <c r="W240" s="15"/>
-      <c r="X240" s="16"/>
-      <c r="Y240" s="17"/>
-      <c r="Z240"/>
-    </row>
-    <row r="241" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H241" s="15"/>
-      <c r="I241" s="16"/>
-      <c r="J241" s="17"/>
-      <c r="K241" s="15"/>
-      <c r="L241" s="16"/>
-      <c r="M241" s="17"/>
-      <c r="N241" s="15"/>
-      <c r="O241" s="16"/>
-      <c r="P241" s="17"/>
-      <c r="Q241" s="15"/>
-      <c r="R241" s="16"/>
-      <c r="S241" s="17"/>
-      <c r="T241" s="15"/>
-      <c r="U241" s="16"/>
-      <c r="V241" s="17"/>
-      <c r="W241" s="15"/>
-      <c r="X241" s="16"/>
-      <c r="Y241" s="17"/>
-      <c r="Z241"/>
-    </row>
-    <row r="242" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H242" s="15"/>
-      <c r="I242" s="16"/>
-      <c r="J242" s="17"/>
-      <c r="K242" s="15"/>
-      <c r="L242" s="16"/>
-      <c r="M242" s="17"/>
-      <c r="N242" s="15"/>
-      <c r="O242" s="16"/>
-      <c r="P242" s="17"/>
-      <c r="Q242" s="15"/>
-      <c r="R242" s="16"/>
-      <c r="S242" s="17"/>
-      <c r="T242" s="15"/>
-      <c r="U242" s="16"/>
-      <c r="V242" s="17"/>
-      <c r="W242" s="15"/>
-      <c r="X242" s="16"/>
-      <c r="Y242" s="17"/>
-      <c r="Z242"/>
-    </row>
-    <row r="243" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H243" s="15"/>
-      <c r="I243" s="16"/>
-      <c r="J243" s="17"/>
-      <c r="K243" s="15"/>
-      <c r="L243" s="16"/>
-      <c r="M243" s="17"/>
-      <c r="N243" s="15"/>
-      <c r="O243" s="16"/>
-      <c r="P243" s="17"/>
-      <c r="Q243" s="15"/>
-      <c r="R243" s="16"/>
-      <c r="S243" s="17"/>
-      <c r="T243" s="15"/>
-      <c r="U243" s="16"/>
-      <c r="V243" s="17"/>
-      <c r="W243" s="15"/>
-      <c r="X243" s="16"/>
-      <c r="Y243" s="17"/>
-      <c r="Z243"/>
-    </row>
-    <row r="244" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H244" s="15"/>
-      <c r="I244" s="16"/>
-      <c r="J244" s="17"/>
-      <c r="K244" s="15"/>
-      <c r="L244" s="16"/>
-      <c r="M244" s="17"/>
-      <c r="N244" s="15"/>
-      <c r="O244" s="16"/>
-      <c r="P244" s="17"/>
-      <c r="Q244" s="15"/>
-      <c r="R244" s="16"/>
-      <c r="S244" s="17"/>
-      <c r="T244" s="15"/>
-      <c r="U244" s="16"/>
-      <c r="V244" s="17"/>
-      <c r="W244" s="15"/>
-      <c r="X244" s="16"/>
-      <c r="Y244" s="17"/>
-      <c r="Z244"/>
-    </row>
-    <row r="245" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H245" s="15"/>
-      <c r="I245" s="16"/>
-      <c r="J245" s="17"/>
-      <c r="K245" s="15"/>
-      <c r="L245" s="16"/>
-      <c r="M245" s="17"/>
-      <c r="N245" s="15"/>
-      <c r="O245" s="16"/>
-      <c r="P245" s="17"/>
-      <c r="Q245" s="15"/>
-      <c r="R245" s="16"/>
-      <c r="S245" s="17"/>
-      <c r="T245" s="15"/>
-      <c r="U245" s="16"/>
-      <c r="V245" s="17"/>
-      <c r="W245" s="15"/>
-      <c r="X245" s="16"/>
-      <c r="Y245" s="17"/>
-      <c r="Z245"/>
-    </row>
-    <row r="246" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H246" s="15"/>
-      <c r="I246" s="16"/>
-      <c r="J246" s="17"/>
-      <c r="K246" s="15"/>
-      <c r="L246" s="16"/>
-      <c r="M246" s="17"/>
-      <c r="N246" s="15"/>
-      <c r="O246" s="16"/>
-      <c r="P246" s="17"/>
-      <c r="Q246" s="15"/>
-      <c r="R246" s="16"/>
-      <c r="S246" s="17"/>
-      <c r="T246" s="15"/>
-      <c r="U246" s="16"/>
-      <c r="V246" s="17"/>
-      <c r="W246" s="15"/>
-      <c r="X246" s="16"/>
-      <c r="Y246" s="17"/>
-      <c r="Z246"/>
-    </row>
-    <row r="247" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H247" s="15"/>
-      <c r="I247" s="16"/>
-      <c r="J247" s="17"/>
-      <c r="K247" s="15"/>
-      <c r="L247" s="16"/>
-      <c r="M247" s="17"/>
-      <c r="N247" s="15"/>
-      <c r="O247" s="16"/>
-      <c r="P247" s="17"/>
-      <c r="Q247" s="15"/>
-      <c r="R247" s="16"/>
-      <c r="S247" s="17"/>
-      <c r="T247" s="15"/>
-      <c r="U247" s="16"/>
-      <c r="V247" s="17"/>
-      <c r="W247" s="15"/>
-      <c r="X247" s="16"/>
-      <c r="Y247" s="17"/>
-      <c r="Z247"/>
-    </row>
-    <row r="248" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H248" s="15"/>
-      <c r="I248" s="16"/>
-      <c r="J248" s="17"/>
-      <c r="K248" s="15"/>
-      <c r="L248" s="16"/>
-      <c r="M248" s="17"/>
-      <c r="N248" s="15"/>
-      <c r="O248" s="16"/>
-      <c r="P248" s="17"/>
-      <c r="Q248" s="15"/>
-      <c r="R248" s="16"/>
-      <c r="S248" s="17"/>
-      <c r="T248" s="15"/>
-      <c r="U248" s="16"/>
-      <c r="V248" s="17"/>
-      <c r="W248" s="15"/>
-      <c r="X248" s="16"/>
-      <c r="Y248" s="17"/>
-      <c r="Z248"/>
-    </row>
-    <row r="249" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H249" s="15"/>
-      <c r="I249" s="16"/>
-      <c r="J249" s="17"/>
-      <c r="K249" s="15"/>
-      <c r="L249" s="16"/>
-      <c r="M249" s="17"/>
-      <c r="N249" s="15"/>
-      <c r="O249" s="16"/>
-      <c r="P249" s="17"/>
-      <c r="Q249" s="15"/>
-      <c r="R249" s="16"/>
-      <c r="S249" s="17"/>
-      <c r="T249" s="15"/>
-      <c r="U249" s="16"/>
-      <c r="V249" s="17"/>
-      <c r="W249" s="15"/>
-      <c r="X249" s="16"/>
-      <c r="Y249" s="17"/>
-      <c r="Z249"/>
-    </row>
-    <row r="250" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H250" s="15"/>
-      <c r="I250" s="16"/>
-      <c r="J250" s="17"/>
-      <c r="K250" s="15"/>
-      <c r="L250" s="16"/>
-      <c r="M250" s="17"/>
-      <c r="N250" s="15"/>
-      <c r="O250" s="16"/>
-      <c r="P250" s="17"/>
-      <c r="Q250" s="15"/>
-      <c r="R250" s="16"/>
-      <c r="S250" s="17"/>
-      <c r="T250" s="15"/>
-      <c r="U250" s="16"/>
-      <c r="V250" s="17"/>
-      <c r="W250" s="15"/>
-      <c r="X250" s="16"/>
-      <c r="Y250" s="17"/>
-      <c r="Z250"/>
-    </row>
-    <row r="251" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H251" s="15"/>
-      <c r="I251" s="16"/>
-      <c r="J251" s="17"/>
-      <c r="K251" s="15"/>
-      <c r="L251" s="16"/>
-      <c r="M251" s="17"/>
-      <c r="N251" s="15"/>
-      <c r="O251" s="16"/>
-      <c r="P251" s="17"/>
-      <c r="Q251" s="15"/>
-      <c r="R251" s="16"/>
-      <c r="S251" s="17"/>
-      <c r="T251" s="15"/>
-      <c r="U251" s="16"/>
-      <c r="V251" s="17"/>
-      <c r="W251" s="15"/>
-      <c r="X251" s="16"/>
-      <c r="Y251" s="17"/>
-      <c r="Z251"/>
-    </row>
-    <row r="252" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H252" s="15"/>
-      <c r="I252" s="16"/>
-      <c r="J252" s="17"/>
-      <c r="K252" s="15"/>
-      <c r="L252" s="16"/>
-      <c r="M252" s="17"/>
-      <c r="N252" s="15"/>
-      <c r="O252" s="16"/>
-      <c r="P252" s="17"/>
-      <c r="Q252" s="15"/>
-      <c r="R252" s="16"/>
-      <c r="S252" s="17"/>
-      <c r="T252" s="15"/>
-      <c r="U252" s="16"/>
-      <c r="V252" s="17"/>
-      <c r="W252" s="15"/>
-      <c r="X252" s="16"/>
-      <c r="Y252" s="17"/>
-      <c r="Z252"/>
-    </row>
-    <row r="253" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H253" s="15"/>
-      <c r="I253" s="16"/>
-      <c r="J253" s="17"/>
-      <c r="K253" s="15"/>
-      <c r="L253" s="16"/>
-      <c r="M253" s="17"/>
-      <c r="N253" s="15"/>
-      <c r="O253" s="16"/>
-      <c r="P253" s="17"/>
-      <c r="Q253" s="15"/>
-      <c r="R253" s="16"/>
-      <c r="S253" s="17"/>
-      <c r="T253" s="15"/>
-      <c r="U253" s="16"/>
-      <c r="V253" s="17"/>
-      <c r="W253" s="15"/>
-      <c r="X253" s="16"/>
-      <c r="Y253" s="17"/>
-      <c r="Z253"/>
-    </row>
-    <row r="254" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H254" s="15"/>
-      <c r="I254" s="16"/>
-      <c r="J254" s="17"/>
-      <c r="K254" s="15"/>
-      <c r="L254" s="16"/>
-      <c r="M254" s="17"/>
-      <c r="N254" s="15"/>
-      <c r="O254" s="16"/>
-      <c r="P254" s="17"/>
-      <c r="Q254" s="15"/>
-      <c r="R254" s="16"/>
-      <c r="S254" s="17"/>
-      <c r="T254" s="15"/>
-      <c r="U254" s="16"/>
-      <c r="V254" s="17"/>
-      <c r="W254" s="15"/>
-      <c r="X254" s="16"/>
-      <c r="Y254" s="17"/>
-      <c r="Z254"/>
-    </row>
-    <row r="255" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H255" s="15"/>
-      <c r="I255" s="16"/>
-      <c r="J255" s="17"/>
-      <c r="K255" s="15"/>
-      <c r="L255" s="16"/>
-      <c r="M255" s="17"/>
-      <c r="N255" s="15"/>
-      <c r="O255" s="16"/>
-      <c r="P255" s="17"/>
-      <c r="Q255" s="15"/>
-      <c r="R255" s="16"/>
-      <c r="S255" s="17"/>
-      <c r="T255" s="15"/>
-      <c r="U255" s="16"/>
-      <c r="V255" s="17"/>
-      <c r="W255" s="15"/>
-      <c r="X255" s="16"/>
-      <c r="Y255" s="17"/>
-      <c r="Z255"/>
-    </row>
-    <row r="256" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H256" s="15"/>
-      <c r="I256" s="16"/>
-      <c r="J256" s="17"/>
-      <c r="K256" s="15"/>
-      <c r="L256" s="16"/>
-      <c r="M256" s="17"/>
-      <c r="N256" s="15"/>
-      <c r="O256" s="16"/>
-      <c r="P256" s="17"/>
-      <c r="Q256" s="15"/>
-      <c r="R256" s="16"/>
-      <c r="S256" s="17"/>
-      <c r="T256" s="15"/>
-      <c r="U256" s="16"/>
-      <c r="V256" s="17"/>
-      <c r="W256" s="15"/>
-      <c r="X256" s="16"/>
-      <c r="Y256" s="17"/>
-      <c r="Z256"/>
-    </row>
-    <row r="257" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H257" s="15"/>
-      <c r="I257" s="16"/>
-      <c r="J257" s="17"/>
-      <c r="K257" s="15"/>
-      <c r="L257" s="16"/>
-      <c r="M257" s="17"/>
-      <c r="N257" s="15"/>
-      <c r="O257" s="16"/>
-      <c r="P257" s="17"/>
-      <c r="Q257" s="15"/>
-      <c r="R257" s="16"/>
-      <c r="S257" s="17"/>
-      <c r="T257" s="15"/>
-      <c r="U257" s="16"/>
-      <c r="V257" s="17"/>
-      <c r="W257" s="15"/>
-      <c r="X257" s="16"/>
-      <c r="Y257" s="17"/>
-      <c r="Z257"/>
-    </row>
-    <row r="258" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H258" s="15"/>
-      <c r="I258" s="16"/>
-      <c r="J258" s="17"/>
-      <c r="K258" s="15"/>
-      <c r="L258" s="16"/>
-      <c r="M258" s="17"/>
-      <c r="N258" s="15"/>
-      <c r="O258" s="16"/>
-      <c r="P258" s="17"/>
-      <c r="Q258" s="15"/>
-      <c r="R258" s="16"/>
-      <c r="S258" s="17"/>
-      <c r="T258" s="15"/>
-      <c r="U258" s="16"/>
-      <c r="V258" s="17"/>
-      <c r="W258" s="15"/>
-      <c r="X258" s="16"/>
-      <c r="Y258" s="17"/>
-      <c r="Z258"/>
-    </row>
-    <row r="259" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H259" s="15"/>
-      <c r="I259" s="16"/>
-      <c r="J259" s="17"/>
-      <c r="K259" s="15"/>
-      <c r="L259" s="16"/>
-      <c r="M259" s="17"/>
-      <c r="N259" s="15"/>
-      <c r="O259" s="16"/>
-      <c r="P259" s="17"/>
-      <c r="Q259" s="15"/>
-      <c r="R259" s="16"/>
-      <c r="S259" s="17"/>
-      <c r="T259" s="15"/>
-      <c r="U259" s="16"/>
-      <c r="V259" s="17"/>
-      <c r="W259" s="15"/>
-      <c r="X259" s="16"/>
-      <c r="Y259" s="17"/>
-      <c r="Z259"/>
-    </row>
-    <row r="260" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H260" s="15"/>
-      <c r="I260" s="16"/>
-      <c r="J260" s="17"/>
-      <c r="K260" s="15"/>
-      <c r="L260" s="16"/>
-      <c r="M260" s="17"/>
-      <c r="N260" s="15"/>
-      <c r="O260" s="16"/>
-      <c r="P260" s="17"/>
-      <c r="Q260" s="15"/>
-      <c r="R260" s="16"/>
-      <c r="S260" s="17"/>
-      <c r="T260" s="15"/>
-      <c r="U260" s="16"/>
-      <c r="V260" s="17"/>
-      <c r="W260" s="15"/>
-      <c r="X260" s="16"/>
-      <c r="Y260" s="17"/>
-      <c r="Z260"/>
-    </row>
-    <row r="261" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H261" s="15"/>
-      <c r="I261" s="16"/>
-      <c r="J261" s="17"/>
-      <c r="K261" s="15"/>
-      <c r="L261" s="16"/>
-      <c r="M261" s="17"/>
-      <c r="N261" s="15"/>
-      <c r="O261" s="16"/>
-      <c r="P261" s="17"/>
-      <c r="Q261" s="15"/>
-      <c r="R261" s="16"/>
-      <c r="S261" s="17"/>
-      <c r="T261" s="15"/>
-      <c r="U261" s="16"/>
-      <c r="V261" s="17"/>
-      <c r="W261" s="15"/>
-      <c r="X261" s="16"/>
-      <c r="Y261" s="17"/>
-      <c r="Z261"/>
-    </row>
-    <row r="262" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H262" s="15"/>
-      <c r="I262" s="16"/>
-      <c r="J262" s="17"/>
-      <c r="K262" s="15"/>
-      <c r="L262" s="16"/>
-      <c r="M262" s="17"/>
-      <c r="N262" s="15"/>
-      <c r="O262" s="16"/>
-      <c r="P262" s="17"/>
-      <c r="Q262" s="15"/>
-      <c r="R262" s="16"/>
-      <c r="S262" s="17"/>
-      <c r="T262" s="15"/>
-      <c r="U262" s="16"/>
-      <c r="V262" s="17"/>
-      <c r="W262" s="15"/>
-      <c r="X262" s="16"/>
-      <c r="Y262" s="17"/>
-      <c r="Z262"/>
-    </row>
-    <row r="263" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H263" s="15"/>
-      <c r="I263" s="16"/>
-      <c r="J263" s="17"/>
-      <c r="K263" s="15"/>
-      <c r="L263" s="16"/>
-      <c r="M263" s="17"/>
-      <c r="N263" s="15"/>
-      <c r="O263" s="16"/>
-      <c r="P263" s="17"/>
-      <c r="Q263" s="15"/>
-      <c r="R263" s="16"/>
-      <c r="S263" s="17"/>
-      <c r="T263" s="15"/>
-      <c r="U263" s="16"/>
-      <c r="V263" s="17"/>
-      <c r="W263" s="15"/>
-      <c r="X263" s="16"/>
-      <c r="Y263" s="17"/>
-      <c r="Z263"/>
-    </row>
-    <row r="264" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H264" s="15"/>
-      <c r="I264" s="16"/>
-      <c r="J264" s="17"/>
-      <c r="K264" s="15"/>
-      <c r="L264" s="16"/>
-      <c r="M264" s="17"/>
-      <c r="N264" s="15"/>
-      <c r="O264" s="16"/>
-      <c r="P264" s="17"/>
-      <c r="Q264" s="15"/>
-      <c r="R264" s="16"/>
-      <c r="S264" s="17"/>
-      <c r="T264" s="15"/>
-      <c r="U264" s="16"/>
-      <c r="V264" s="17"/>
-      <c r="W264" s="15"/>
-      <c r="X264" s="16"/>
-      <c r="Y264" s="17"/>
-      <c r="Z264"/>
-    </row>
-    <row r="265" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H265" s="15"/>
-      <c r="I265" s="16"/>
-      <c r="J265" s="17"/>
-      <c r="K265" s="15"/>
-      <c r="L265" s="16"/>
-      <c r="M265" s="17"/>
-      <c r="N265" s="15"/>
-      <c r="O265" s="16"/>
-      <c r="P265" s="17"/>
-      <c r="Q265" s="15"/>
-      <c r="R265" s="16"/>
-      <c r="S265" s="17"/>
-      <c r="T265" s="15"/>
-      <c r="U265" s="16"/>
-      <c r="V265" s="17"/>
-      <c r="W265" s="15"/>
-      <c r="X265" s="16"/>
-      <c r="Y265" s="17"/>
-      <c r="Z265"/>
-    </row>
-    <row r="266" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H266" s="15"/>
-      <c r="I266" s="16"/>
-      <c r="J266" s="17"/>
-      <c r="K266" s="15"/>
-      <c r="L266" s="16"/>
-      <c r="M266" s="17"/>
-      <c r="N266" s="15"/>
-      <c r="O266" s="16"/>
-      <c r="P266" s="17"/>
-      <c r="Q266" s="15"/>
-      <c r="R266" s="16"/>
-      <c r="S266" s="17"/>
-      <c r="T266" s="15"/>
-      <c r="U266" s="16"/>
-      <c r="V266" s="17"/>
-      <c r="W266" s="15"/>
-      <c r="X266" s="16"/>
-      <c r="Y266" s="17"/>
-      <c r="Z266"/>
-    </row>
-    <row r="267" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H267" s="15"/>
-      <c r="I267" s="16"/>
-      <c r="J267" s="17"/>
-      <c r="K267" s="15"/>
-      <c r="L267" s="16"/>
-      <c r="M267" s="17"/>
-      <c r="N267" s="15"/>
-      <c r="O267" s="16"/>
-      <c r="P267" s="17"/>
-      <c r="Q267" s="15"/>
-      <c r="R267" s="16"/>
-      <c r="S267" s="17"/>
-      <c r="T267" s="15"/>
-      <c r="U267" s="16"/>
-      <c r="V267" s="17"/>
-      <c r="W267" s="15"/>
-      <c r="X267" s="16"/>
-      <c r="Y267" s="17"/>
-      <c r="Z267"/>
-    </row>
-    <row r="268" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H268" s="15"/>
-      <c r="I268" s="16"/>
-      <c r="J268" s="17"/>
-      <c r="K268" s="15"/>
-      <c r="L268" s="16"/>
-      <c r="M268" s="17"/>
-      <c r="N268" s="15"/>
-      <c r="O268" s="16"/>
-      <c r="P268" s="17"/>
-      <c r="Q268" s="15"/>
-      <c r="R268" s="16"/>
-      <c r="S268" s="17"/>
-      <c r="T268" s="15"/>
-      <c r="U268" s="16"/>
-      <c r="V268" s="17"/>
-      <c r="W268" s="15"/>
-      <c r="X268" s="16"/>
-      <c r="Y268" s="17"/>
-      <c r="Z268"/>
-    </row>
-    <row r="269" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H269" s="15"/>
-      <c r="I269" s="16"/>
-      <c r="J269" s="17"/>
-      <c r="K269" s="15"/>
-      <c r="L269" s="16"/>
-      <c r="M269" s="17"/>
-      <c r="N269" s="15"/>
-      <c r="O269" s="16"/>
-      <c r="P269" s="17"/>
-      <c r="Q269" s="15"/>
-      <c r="R269" s="16"/>
-      <c r="S269" s="17"/>
-      <c r="T269" s="15"/>
-      <c r="U269" s="16"/>
-      <c r="V269" s="17"/>
-      <c r="W269" s="15"/>
-      <c r="X269" s="16"/>
-      <c r="Y269" s="17"/>
-      <c r="Z269"/>
-    </row>
-    <row r="270" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H270" s="15"/>
-      <c r="I270" s="16"/>
-      <c r="J270" s="17"/>
-      <c r="K270" s="15"/>
-      <c r="L270" s="16"/>
-      <c r="M270" s="17"/>
-      <c r="N270" s="15"/>
-      <c r="O270" s="16"/>
-      <c r="P270" s="17"/>
-      <c r="Q270" s="15"/>
-      <c r="R270" s="16"/>
-      <c r="S270" s="17"/>
-      <c r="T270" s="15"/>
-      <c r="U270" s="16"/>
-      <c r="V270" s="17"/>
-      <c r="W270" s="15"/>
-      <c r="X270" s="16"/>
-      <c r="Y270" s="17"/>
-      <c r="Z270"/>
-    </row>
-    <row r="271" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H271" s="15"/>
-      <c r="I271" s="16"/>
-      <c r="J271" s="17"/>
-      <c r="K271" s="15"/>
-      <c r="L271" s="16"/>
-      <c r="M271" s="17"/>
-      <c r="N271" s="15"/>
-      <c r="O271" s="16"/>
-      <c r="P271" s="17"/>
-      <c r="Q271" s="15"/>
-      <c r="R271" s="16"/>
-      <c r="S271" s="17"/>
-      <c r="T271" s="15"/>
-      <c r="U271" s="16"/>
-      <c r="V271" s="17"/>
-      <c r="W271" s="15"/>
-      <c r="X271" s="16"/>
-      <c r="Y271" s="17"/>
-      <c r="Z271"/>
-    </row>
-    <row r="272" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H272" s="15"/>
-      <c r="I272" s="16"/>
-      <c r="J272" s="17"/>
-      <c r="K272" s="15"/>
-      <c r="L272" s="16"/>
-      <c r="M272" s="17"/>
-      <c r="N272" s="15"/>
-      <c r="O272" s="16"/>
-      <c r="P272" s="17"/>
-      <c r="Q272" s="15"/>
-      <c r="R272" s="16"/>
-      <c r="S272" s="17"/>
-      <c r="T272" s="15"/>
-      <c r="U272" s="16"/>
-      <c r="V272" s="17"/>
-      <c r="W272" s="15"/>
-      <c r="X272" s="16"/>
-      <c r="Y272" s="17"/>
-      <c r="Z272"/>
-    </row>
-    <row r="273" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H273" s="15"/>
-      <c r="I273" s="16"/>
-      <c r="J273" s="17"/>
-      <c r="K273" s="15"/>
-      <c r="L273" s="16"/>
-      <c r="M273" s="17"/>
-      <c r="N273" s="15"/>
-      <c r="O273" s="16"/>
-      <c r="P273" s="17"/>
-      <c r="Q273" s="15"/>
-      <c r="R273" s="16"/>
-      <c r="S273" s="17"/>
-      <c r="T273" s="15"/>
-      <c r="U273" s="16"/>
-      <c r="V273" s="17"/>
-      <c r="W273" s="15"/>
-      <c r="X273" s="16"/>
-      <c r="Y273" s="17"/>
-      <c r="Z273"/>
-    </row>
-    <row r="274" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H274" s="15"/>
-      <c r="I274" s="16"/>
-      <c r="J274" s="17"/>
-      <c r="K274" s="15"/>
-      <c r="L274" s="16"/>
-      <c r="M274" s="17"/>
-      <c r="N274" s="15"/>
-      <c r="O274" s="16"/>
-      <c r="P274" s="17"/>
-      <c r="Q274" s="15"/>
-      <c r="R274" s="16"/>
-      <c r="S274" s="17"/>
-      <c r="T274" s="15"/>
-      <c r="U274" s="16"/>
-      <c r="V274" s="17"/>
-      <c r="W274" s="15"/>
-      <c r="X274" s="16"/>
-      <c r="Y274" s="17"/>
-      <c r="Z274"/>
-    </row>
-    <row r="275" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H275" s="15"/>
-      <c r="I275" s="16"/>
-      <c r="J275" s="17"/>
-      <c r="K275" s="15"/>
-      <c r="L275" s="16"/>
-      <c r="M275" s="17"/>
-      <c r="N275" s="15"/>
-      <c r="O275" s="16"/>
-      <c r="P275" s="17"/>
-      <c r="Q275" s="15"/>
-      <c r="R275" s="16"/>
-      <c r="S275" s="17"/>
-      <c r="T275" s="15"/>
-      <c r="U275" s="16"/>
-      <c r="V275" s="17"/>
-      <c r="W275" s="15"/>
-      <c r="X275" s="16"/>
-      <c r="Y275" s="17"/>
-      <c r="Z275"/>
-    </row>
-    <row r="276" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H276" s="15"/>
-      <c r="I276" s="16"/>
-      <c r="J276" s="17"/>
-      <c r="K276" s="15"/>
-      <c r="L276" s="16"/>
-      <c r="M276" s="17"/>
-      <c r="N276" s="15"/>
-      <c r="O276" s="16"/>
-      <c r="P276" s="17"/>
-      <c r="Q276" s="15"/>
-      <c r="R276" s="16"/>
-      <c r="S276" s="17"/>
-      <c r="T276" s="15"/>
-      <c r="U276" s="16"/>
-      <c r="V276" s="17"/>
-      <c r="W276" s="15"/>
-      <c r="X276" s="16"/>
-      <c r="Y276" s="17"/>
-      <c r="Z276"/>
-    </row>
-    <row r="277" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H277" s="15"/>
-      <c r="I277" s="16"/>
-      <c r="J277" s="17"/>
-      <c r="K277" s="15"/>
-      <c r="L277" s="16"/>
-      <c r="M277" s="17"/>
-      <c r="N277" s="15"/>
-      <c r="O277" s="16"/>
-      <c r="P277" s="17"/>
-      <c r="Q277" s="15"/>
-      <c r="R277" s="16"/>
-      <c r="S277" s="17"/>
-      <c r="T277" s="15"/>
-      <c r="U277" s="16"/>
-      <c r="V277" s="17"/>
-      <c r="W277" s="15"/>
-      <c r="X277" s="16"/>
-      <c r="Y277" s="17"/>
-      <c r="Z277"/>
-    </row>
-    <row r="278" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H278" s="15"/>
-      <c r="I278" s="16"/>
-      <c r="J278" s="17"/>
-      <c r="K278" s="15"/>
-      <c r="L278" s="16"/>
-      <c r="M278" s="17"/>
-      <c r="N278" s="15"/>
-      <c r="O278" s="16"/>
-      <c r="P278" s="17"/>
-      <c r="Q278" s="15"/>
-      <c r="R278" s="16"/>
-      <c r="S278" s="17"/>
-      <c r="T278" s="15"/>
-      <c r="U278" s="16"/>
-      <c r="V278" s="17"/>
-      <c r="W278" s="15"/>
-      <c r="X278" s="16"/>
-      <c r="Y278" s="17"/>
-      <c r="Z278"/>
-    </row>
-    <row r="279" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H279" s="15"/>
-      <c r="I279" s="16"/>
-      <c r="J279" s="17"/>
-      <c r="K279" s="15"/>
-      <c r="L279" s="16"/>
-      <c r="M279" s="17"/>
-      <c r="N279" s="15"/>
-      <c r="O279" s="16"/>
-      <c r="P279" s="17"/>
-      <c r="Q279" s="15"/>
-      <c r="R279" s="16"/>
-      <c r="S279" s="17"/>
-      <c r="T279" s="15"/>
-      <c r="U279" s="16"/>
-      <c r="V279" s="17"/>
-      <c r="W279" s="15"/>
-      <c r="X279" s="16"/>
-      <c r="Y279" s="17"/>
-      <c r="Z279"/>
-    </row>
-    <row r="280" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H280" s="15"/>
-      <c r="I280" s="16"/>
-      <c r="J280" s="17"/>
-      <c r="K280" s="15"/>
-      <c r="L280" s="16"/>
-      <c r="M280" s="17"/>
-      <c r="N280" s="15"/>
-      <c r="O280" s="16"/>
-      <c r="P280" s="17"/>
-      <c r="Q280" s="15"/>
-      <c r="R280" s="16"/>
-      <c r="S280" s="17"/>
-      <c r="T280" s="15"/>
-      <c r="U280" s="16"/>
-      <c r="V280" s="17"/>
-      <c r="W280" s="15"/>
-      <c r="X280" s="16"/>
-      <c r="Y280" s="17"/>
-      <c r="Z280"/>
-    </row>
-    <row r="281" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H281" s="15"/>
-      <c r="I281" s="16"/>
-      <c r="J281" s="17"/>
-      <c r="K281" s="15"/>
-      <c r="L281" s="16"/>
-      <c r="M281" s="17"/>
-      <c r="N281" s="15"/>
-      <c r="O281" s="16"/>
-      <c r="P281" s="17"/>
-      <c r="Q281" s="15"/>
-      <c r="R281" s="16"/>
-      <c r="S281" s="17"/>
-      <c r="T281" s="15"/>
-      <c r="U281" s="16"/>
-      <c r="V281" s="17"/>
-      <c r="W281" s="15"/>
-      <c r="X281" s="16"/>
-      <c r="Y281" s="17"/>
-      <c r="Z281"/>
-    </row>
-    <row r="282" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H282" s="15"/>
-      <c r="I282" s="16"/>
-      <c r="J282" s="17"/>
-      <c r="K282" s="15"/>
-      <c r="L282" s="16"/>
-      <c r="M282" s="17"/>
-      <c r="N282" s="15"/>
-      <c r="O282" s="16"/>
-      <c r="P282" s="17"/>
-      <c r="Q282" s="15"/>
-      <c r="R282" s="16"/>
-      <c r="S282" s="17"/>
-      <c r="T282" s="15"/>
-      <c r="U282" s="16"/>
-      <c r="V282" s="17"/>
-      <c r="W282" s="15"/>
-      <c r="X282" s="16"/>
-      <c r="Y282" s="17"/>
-      <c r="Z282"/>
-    </row>
-    <row r="283" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H283" s="15"/>
-      <c r="I283" s="16"/>
-      <c r="J283" s="17"/>
-      <c r="K283" s="15"/>
-      <c r="L283" s="16"/>
-      <c r="M283" s="17"/>
-      <c r="N283" s="15"/>
-      <c r="O283" s="16"/>
-      <c r="P283" s="17"/>
-      <c r="Q283" s="15"/>
-      <c r="R283" s="16"/>
-      <c r="S283" s="17"/>
-      <c r="T283" s="15"/>
-      <c r="U283" s="16"/>
-      <c r="V283" s="17"/>
-      <c r="W283" s="15"/>
-      <c r="X283" s="16"/>
-      <c r="Y283" s="17"/>
-      <c r="Z283"/>
-    </row>
-    <row r="284" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H284" s="15"/>
-      <c r="I284" s="16"/>
-      <c r="J284" s="17"/>
-      <c r="K284" s="15"/>
-      <c r="L284" s="16"/>
-      <c r="M284" s="17"/>
-      <c r="N284" s="15"/>
-      <c r="O284" s="16"/>
-      <c r="P284" s="17"/>
-      <c r="Q284" s="15"/>
-      <c r="R284" s="16"/>
-      <c r="S284" s="17"/>
-      <c r="T284" s="15"/>
-      <c r="U284" s="16"/>
-      <c r="V284" s="17"/>
-      <c r="W284" s="15"/>
-      <c r="X284" s="16"/>
-      <c r="Y284" s="17"/>
-      <c r="Z284"/>
-    </row>
-    <row r="285" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H285" s="15"/>
-      <c r="I285" s="16"/>
-      <c r="J285" s="17"/>
-      <c r="K285" s="15"/>
-      <c r="L285" s="16"/>
-      <c r="M285" s="17"/>
-      <c r="N285" s="15"/>
-      <c r="O285" s="16"/>
-      <c r="P285" s="17"/>
-      <c r="Q285" s="15"/>
-      <c r="R285" s="16"/>
-      <c r="S285" s="17"/>
-      <c r="T285" s="15"/>
-      <c r="U285" s="16"/>
-      <c r="V285" s="17"/>
-      <c r="W285" s="15"/>
-      <c r="X285" s="16"/>
-      <c r="Y285" s="17"/>
-      <c r="Z285"/>
-    </row>
-    <row r="286" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H286" s="15"/>
-      <c r="I286" s="16"/>
-      <c r="J286" s="17"/>
-      <c r="K286" s="15"/>
-      <c r="L286" s="16"/>
-      <c r="M286" s="17"/>
-      <c r="N286" s="15"/>
-      <c r="O286" s="16"/>
-      <c r="P286" s="17"/>
-      <c r="Q286" s="15"/>
-      <c r="R286" s="16"/>
-      <c r="S286" s="17"/>
-      <c r="T286" s="15"/>
-      <c r="U286" s="16"/>
-      <c r="V286" s="17"/>
-      <c r="W286" s="15"/>
-      <c r="X286" s="16"/>
-      <c r="Y286" s="17"/>
-      <c r="Z286"/>
-    </row>
-    <row r="287" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H287" s="15"/>
-      <c r="I287" s="16"/>
-      <c r="J287" s="17"/>
-      <c r="K287" s="15"/>
-      <c r="L287" s="16"/>
-      <c r="M287" s="17"/>
-      <c r="N287" s="15"/>
-      <c r="O287" s="16"/>
-      <c r="P287" s="17"/>
-      <c r="Q287" s="15"/>
-      <c r="R287" s="16"/>
-      <c r="S287" s="17"/>
-      <c r="T287" s="15"/>
-      <c r="U287" s="16"/>
-      <c r="V287" s="17"/>
-      <c r="W287" s="15"/>
-      <c r="X287" s="16"/>
-      <c r="Y287" s="17"/>
-      <c r="Z287"/>
-    </row>
-    <row r="288" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H288" s="15"/>
-      <c r="I288" s="16"/>
-      <c r="J288" s="17"/>
-      <c r="K288" s="15"/>
-      <c r="L288" s="16"/>
-      <c r="M288" s="17"/>
-      <c r="N288" s="15"/>
-      <c r="O288" s="16"/>
-      <c r="P288" s="17"/>
-      <c r="Q288" s="15"/>
-      <c r="R288" s="16"/>
-      <c r="S288" s="17"/>
-      <c r="T288" s="15"/>
-      <c r="U288" s="16"/>
-      <c r="V288" s="17"/>
-      <c r="W288" s="15"/>
-      <c r="X288" s="16"/>
-      <c r="Y288" s="17"/>
-      <c r="Z288"/>
-    </row>
-    <row r="289" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H289" s="15"/>
-      <c r="I289" s="16"/>
-      <c r="J289" s="17"/>
-      <c r="K289" s="15"/>
-      <c r="L289" s="16"/>
-      <c r="M289" s="17"/>
-      <c r="N289" s="15"/>
-      <c r="O289" s="16"/>
-      <c r="P289" s="17"/>
-      <c r="Q289" s="15"/>
-      <c r="R289" s="16"/>
-      <c r="S289" s="17"/>
-      <c r="T289" s="15"/>
-      <c r="U289" s="16"/>
-      <c r="V289" s="17"/>
-      <c r="W289" s="15"/>
-      <c r="X289" s="16"/>
-      <c r="Y289" s="17"/>
-      <c r="Z289"/>
-    </row>
-    <row r="290" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H290" s="15"/>
-      <c r="I290" s="16"/>
-      <c r="J290" s="17"/>
-      <c r="K290" s="15"/>
-      <c r="L290" s="16"/>
-      <c r="M290" s="17"/>
-      <c r="N290" s="15"/>
-      <c r="O290" s="16"/>
-      <c r="P290" s="17"/>
-      <c r="Q290" s="15"/>
-      <c r="R290" s="16"/>
-      <c r="S290" s="17"/>
-      <c r="T290" s="15"/>
-      <c r="U290" s="16"/>
-      <c r="V290" s="17"/>
-      <c r="W290" s="15"/>
-      <c r="X290" s="16"/>
-      <c r="Y290" s="17"/>
-      <c r="Z290"/>
-    </row>
-    <row r="291" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H291" s="15"/>
-      <c r="I291" s="16"/>
-      <c r="J291" s="17"/>
-      <c r="K291" s="15"/>
-      <c r="L291" s="16"/>
-      <c r="M291" s="17"/>
-      <c r="N291" s="15"/>
-      <c r="O291" s="16"/>
-      <c r="P291" s="17"/>
-      <c r="Q291" s="15"/>
-      <c r="R291" s="16"/>
-      <c r="S291" s="17"/>
-      <c r="T291" s="15"/>
-      <c r="U291" s="16"/>
-      <c r="V291" s="17"/>
-      <c r="W291" s="15"/>
-      <c r="X291" s="16"/>
-      <c r="Y291" s="17"/>
-      <c r="Z291"/>
-    </row>
-    <row r="292" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H292" s="15"/>
-      <c r="I292" s="16"/>
-      <c r="J292" s="17"/>
-      <c r="K292" s="15"/>
-      <c r="L292" s="16"/>
-      <c r="M292" s="17"/>
-      <c r="N292" s="15"/>
-      <c r="O292" s="16"/>
-      <c r="P292" s="17"/>
-      <c r="Q292" s="15"/>
-      <c r="R292" s="16"/>
-      <c r="S292" s="17"/>
-      <c r="T292" s="15"/>
-      <c r="U292" s="16"/>
-      <c r="V292" s="17"/>
-      <c r="W292" s="15"/>
-      <c r="X292" s="16"/>
-      <c r="Y292" s="17"/>
-      <c r="Z292"/>
-    </row>
-    <row r="293" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H293" s="15"/>
-      <c r="I293" s="16"/>
-      <c r="J293" s="17"/>
-      <c r="K293" s="15"/>
-      <c r="L293" s="16"/>
-      <c r="M293" s="17"/>
-      <c r="N293" s="15"/>
-      <c r="O293" s="16"/>
-      <c r="P293" s="17"/>
-      <c r="Q293" s="15"/>
-      <c r="R293" s="16"/>
-      <c r="S293" s="17"/>
-      <c r="T293" s="15"/>
-      <c r="U293" s="16"/>
-      <c r="V293" s="17"/>
-      <c r="W293" s="15"/>
-      <c r="X293" s="16"/>
-      <c r="Y293" s="17"/>
-      <c r="Z293"/>
-    </row>
-    <row r="294" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H294" s="15"/>
-      <c r="I294" s="16"/>
-      <c r="J294" s="17"/>
-      <c r="K294" s="15"/>
-      <c r="L294" s="16"/>
-      <c r="M294" s="17"/>
-      <c r="N294" s="15"/>
-      <c r="O294" s="16"/>
-      <c r="P294" s="17"/>
-      <c r="Q294" s="15"/>
-      <c r="R294" s="16"/>
-      <c r="S294" s="17"/>
-      <c r="T294" s="15"/>
-      <c r="U294" s="16"/>
-      <c r="V294" s="17"/>
-      <c r="W294" s="15"/>
-      <c r="X294" s="16"/>
-      <c r="Y294" s="17"/>
-      <c r="Z294"/>
-    </row>
-    <row r="295" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H295" s="15"/>
-      <c r="I295" s="16"/>
-      <c r="J295" s="17"/>
-      <c r="K295" s="15"/>
-      <c r="L295" s="16"/>
-      <c r="M295" s="17"/>
-      <c r="N295" s="15"/>
-      <c r="O295" s="16"/>
-      <c r="P295" s="17"/>
-      <c r="Q295" s="15"/>
-      <c r="R295" s="16"/>
-      <c r="S295" s="17"/>
-      <c r="T295" s="15"/>
-      <c r="U295" s="16"/>
-      <c r="V295" s="17"/>
-      <c r="W295" s="15"/>
-      <c r="X295" s="16"/>
-      <c r="Y295" s="17"/>
-      <c r="Z295"/>
-    </row>
-    <row r="296" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H296" s="15"/>
-      <c r="I296" s="16"/>
-      <c r="J296" s="17"/>
-      <c r="K296" s="15"/>
-      <c r="L296" s="16"/>
-      <c r="M296" s="17"/>
-      <c r="N296" s="15"/>
-      <c r="O296" s="16"/>
-      <c r="P296" s="17"/>
-      <c r="Q296" s="15"/>
-      <c r="R296" s="16"/>
-      <c r="S296" s="17"/>
-      <c r="T296" s="15"/>
-      <c r="U296" s="16"/>
-      <c r="V296" s="17"/>
-      <c r="W296" s="15"/>
-      <c r="X296" s="16"/>
-      <c r="Y296" s="17"/>
-      <c r="Z296"/>
-    </row>
-    <row r="297" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H297" s="15"/>
-      <c r="I297" s="16"/>
-      <c r="J297" s="17"/>
-      <c r="K297" s="15"/>
-      <c r="L297" s="16"/>
-      <c r="M297" s="17"/>
-      <c r="N297" s="15"/>
-      <c r="O297" s="16"/>
-      <c r="P297" s="17"/>
-      <c r="Q297" s="15"/>
-      <c r="R297" s="16"/>
-      <c r="S297" s="17"/>
-      <c r="T297" s="15"/>
-      <c r="U297" s="16"/>
-      <c r="V297" s="17"/>
-      <c r="W297" s="15"/>
-      <c r="X297" s="16"/>
-      <c r="Y297" s="17"/>
-      <c r="Z297"/>
-    </row>
-    <row r="298" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H298" s="15"/>
-      <c r="I298" s="16"/>
-      <c r="J298" s="17"/>
-      <c r="K298" s="15"/>
-      <c r="L298" s="16"/>
-      <c r="M298" s="17"/>
-      <c r="N298" s="15"/>
-      <c r="O298" s="16"/>
-      <c r="P298" s="17"/>
-      <c r="Q298" s="15"/>
-      <c r="R298" s="16"/>
-      <c r="S298" s="17"/>
-      <c r="T298" s="15"/>
-      <c r="U298" s="16"/>
-      <c r="V298" s="17"/>
-      <c r="W298" s="15"/>
-      <c r="X298" s="16"/>
-      <c r="Y298" s="17"/>
-      <c r="Z298"/>
-    </row>
-    <row r="299" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H299" s="15"/>
-      <c r="I299" s="16"/>
-      <c r="J299" s="17"/>
-      <c r="K299" s="15"/>
-      <c r="L299" s="16"/>
-      <c r="M299" s="17"/>
-      <c r="N299" s="15"/>
-      <c r="O299" s="16"/>
-      <c r="P299" s="17"/>
-      <c r="Q299" s="15"/>
-      <c r="R299" s="16"/>
-      <c r="S299" s="17"/>
-      <c r="T299" s="15"/>
-      <c r="U299" s="16"/>
-      <c r="V299" s="17"/>
-      <c r="W299" s="15"/>
-      <c r="X299" s="16"/>
-      <c r="Y299" s="17"/>
-      <c r="Z299"/>
-    </row>
-    <row r="300" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H300" s="15"/>
-      <c r="I300" s="16"/>
-      <c r="J300" s="17"/>
-      <c r="K300" s="15"/>
-      <c r="L300" s="16"/>
-      <c r="M300" s="17"/>
-      <c r="N300" s="15"/>
-      <c r="O300" s="16"/>
-      <c r="P300" s="17"/>
-      <c r="Q300" s="15"/>
-      <c r="R300" s="16"/>
-      <c r="S300" s="17"/>
-      <c r="T300" s="15"/>
-      <c r="U300" s="16"/>
-      <c r="V300" s="17"/>
-      <c r="W300" s="15"/>
-      <c r="X300" s="16"/>
-      <c r="Y300" s="17"/>
-      <c r="Z300"/>
-    </row>
-    <row r="301" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H301" s="15"/>
-      <c r="I301" s="16"/>
-      <c r="J301" s="17"/>
-      <c r="K301" s="15"/>
-      <c r="L301" s="16"/>
-      <c r="M301" s="17"/>
-      <c r="N301" s="15"/>
-      <c r="O301" s="16"/>
-      <c r="P301" s="17"/>
-      <c r="Q301" s="15"/>
-      <c r="R301" s="16"/>
-      <c r="S301" s="17"/>
-      <c r="T301" s="15"/>
-      <c r="U301" s="16"/>
-      <c r="V301" s="17"/>
-      <c r="W301" s="15"/>
-      <c r="X301" s="16"/>
-      <c r="Y301" s="17"/>
-      <c r="Z301"/>
-    </row>
-    <row r="302" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H302" s="15"/>
-      <c r="I302" s="16"/>
-      <c r="J302" s="17"/>
-      <c r="K302" s="15"/>
-      <c r="L302" s="16"/>
-      <c r="M302" s="17"/>
-      <c r="N302" s="15"/>
-      <c r="O302" s="16"/>
-      <c r="P302" s="17"/>
-      <c r="Q302" s="15"/>
-      <c r="R302" s="16"/>
-      <c r="S302" s="17"/>
-      <c r="T302" s="15"/>
-      <c r="U302" s="16"/>
-      <c r="V302" s="17"/>
-      <c r="W302" s="15"/>
-      <c r="X302" s="16"/>
-      <c r="Y302" s="17"/>
-      <c r="Z302"/>
-    </row>
-    <row r="303" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H303" s="15"/>
-      <c r="I303" s="16"/>
-      <c r="J303" s="17"/>
-      <c r="K303" s="15"/>
-      <c r="L303" s="16"/>
-      <c r="M303" s="17"/>
-      <c r="N303" s="15"/>
-      <c r="O303" s="16"/>
-      <c r="P303" s="17"/>
-      <c r="Q303" s="15"/>
-      <c r="R303" s="16"/>
-      <c r="S303" s="17"/>
-      <c r="T303" s="15"/>
-      <c r="U303" s="16"/>
-      <c r="V303" s="17"/>
-      <c r="W303" s="15"/>
-      <c r="X303" s="16"/>
-      <c r="Y303" s="17"/>
-      <c r="Z303"/>
-    </row>
-    <row r="304" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H304" s="15"/>
-      <c r="I304" s="16"/>
-      <c r="J304" s="17"/>
-      <c r="K304" s="15"/>
-      <c r="L304" s="16"/>
-      <c r="M304" s="17"/>
-      <c r="N304" s="15"/>
-      <c r="O304" s="16"/>
-      <c r="P304" s="17"/>
-      <c r="Q304" s="15"/>
-      <c r="R304" s="16"/>
-      <c r="S304" s="17"/>
-      <c r="T304" s="15"/>
-      <c r="U304" s="16"/>
-      <c r="V304" s="17"/>
-      <c r="W304" s="15"/>
-      <c r="X304" s="16"/>
-      <c r="Y304" s="17"/>
-      <c r="Z304"/>
-    </row>
-    <row r="305" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H305" s="15"/>
-      <c r="I305" s="16"/>
-      <c r="J305" s="17"/>
-      <c r="K305" s="15"/>
-      <c r="L305" s="16"/>
-      <c r="M305" s="17"/>
-      <c r="N305" s="15"/>
-      <c r="O305" s="16"/>
-      <c r="P305" s="17"/>
-      <c r="Q305" s="15"/>
-      <c r="R305" s="16"/>
-      <c r="S305" s="17"/>
-      <c r="T305" s="15"/>
-      <c r="U305" s="16"/>
-      <c r="V305" s="17"/>
-      <c r="W305" s="15"/>
-      <c r="X305" s="16"/>
-      <c r="Y305" s="17"/>
-      <c r="Z305"/>
-    </row>
-    <row r="306" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H306" s="15"/>
-      <c r="I306" s="16"/>
-      <c r="J306" s="17"/>
-      <c r="K306" s="15"/>
-      <c r="L306" s="16"/>
-      <c r="M306" s="17"/>
-      <c r="N306" s="15"/>
-      <c r="O306" s="16"/>
-      <c r="P306" s="17"/>
-      <c r="Q306" s="15"/>
-      <c r="R306" s="16"/>
-      <c r="S306" s="17"/>
-      <c r="T306" s="15"/>
-      <c r="U306" s="16"/>
-      <c r="V306" s="17"/>
-      <c r="W306" s="15"/>
-      <c r="X306" s="16"/>
-      <c r="Y306" s="17"/>
-      <c r="Z306"/>
-    </row>
-    <row r="307" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H307" s="15"/>
-      <c r="I307" s="16"/>
-      <c r="J307" s="17"/>
-      <c r="K307" s="15"/>
-      <c r="L307" s="16"/>
-      <c r="M307" s="17"/>
-      <c r="N307" s="15"/>
-      <c r="O307" s="16"/>
-      <c r="P307" s="17"/>
-      <c r="Q307" s="15"/>
-      <c r="R307" s="16"/>
-      <c r="S307" s="17"/>
-      <c r="T307" s="15"/>
-      <c r="U307" s="16"/>
-      <c r="V307" s="17"/>
-      <c r="W307" s="15"/>
-      <c r="X307" s="16"/>
-      <c r="Y307" s="17"/>
-      <c r="Z307"/>
-    </row>
-    <row r="308" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H308" s="15"/>
-      <c r="I308" s="16"/>
-      <c r="J308" s="17"/>
-      <c r="K308" s="15"/>
-      <c r="L308" s="16"/>
-      <c r="M308" s="17"/>
-      <c r="N308" s="15"/>
-      <c r="O308" s="16"/>
-      <c r="P308" s="17"/>
-      <c r="Q308" s="15"/>
-      <c r="R308" s="16"/>
-      <c r="S308" s="17"/>
-      <c r="T308" s="15"/>
-      <c r="U308" s="16"/>
-      <c r="V308" s="17"/>
-      <c r="W308" s="15"/>
-      <c r="X308" s="16"/>
-      <c r="Y308" s="17"/>
-      <c r="Z308"/>
-    </row>
-    <row r="309" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H309" s="15"/>
-      <c r="I309" s="16"/>
-      <c r="J309" s="17"/>
-      <c r="K309" s="15"/>
-      <c r="L309" s="16"/>
-      <c r="M309" s="17"/>
-      <c r="N309" s="15"/>
-      <c r="O309" s="16"/>
-      <c r="P309" s="17"/>
-      <c r="Q309" s="15"/>
-      <c r="R309" s="16"/>
-      <c r="S309" s="17"/>
-      <c r="T309" s="15"/>
-      <c r="U309" s="16"/>
-      <c r="V309" s="17"/>
-      <c r="W309" s="15"/>
-      <c r="X309" s="16"/>
-      <c r="Y309" s="17"/>
-      <c r="Z309"/>
-    </row>
-    <row r="310" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H310" s="15"/>
-      <c r="I310" s="16"/>
-      <c r="J310" s="17"/>
-      <c r="K310" s="15"/>
-      <c r="L310" s="16"/>
-      <c r="M310" s="17"/>
-      <c r="N310" s="15"/>
-      <c r="O310" s="16"/>
-      <c r="P310" s="17"/>
-      <c r="Q310" s="15"/>
-      <c r="R310" s="16"/>
-      <c r="S310" s="17"/>
-      <c r="T310" s="15"/>
-      <c r="U310" s="16"/>
-      <c r="V310" s="17"/>
-      <c r="W310" s="15"/>
-      <c r="X310" s="16"/>
-      <c r="Y310" s="17"/>
-      <c r="Z310"/>
-    </row>
-    <row r="311" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H311" s="15"/>
-      <c r="I311" s="16"/>
-      <c r="J311" s="17"/>
-      <c r="K311" s="15"/>
-      <c r="L311" s="16"/>
-      <c r="M311" s="17"/>
-      <c r="N311" s="15"/>
-      <c r="O311" s="16"/>
-      <c r="P311" s="17"/>
-      <c r="Q311" s="15"/>
-      <c r="R311" s="16"/>
-      <c r="S311" s="17"/>
-      <c r="T311" s="15"/>
-      <c r="U311" s="16"/>
-      <c r="V311" s="17"/>
-      <c r="W311" s="15"/>
-      <c r="X311" s="16"/>
-      <c r="Y311" s="17"/>
-      <c r="Z311"/>
-    </row>
-    <row r="312" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H312" s="15"/>
-      <c r="I312" s="16"/>
-      <c r="J312" s="17"/>
-      <c r="K312" s="15"/>
-      <c r="L312" s="16"/>
-      <c r="M312" s="17"/>
-      <c r="N312" s="15"/>
-      <c r="O312" s="16"/>
-      <c r="P312" s="17"/>
-      <c r="Q312" s="15"/>
-      <c r="R312" s="16"/>
-      <c r="S312" s="17"/>
-      <c r="T312" s="15"/>
-      <c r="U312" s="16"/>
-      <c r="V312" s="17"/>
-      <c r="W312" s="15"/>
-      <c r="X312" s="16"/>
-      <c r="Y312" s="17"/>
-      <c r="Z312"/>
-    </row>
-    <row r="313" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H313" s="15"/>
-      <c r="I313" s="16"/>
-      <c r="J313" s="17"/>
-      <c r="K313" s="15"/>
-      <c r="L313" s="16"/>
-      <c r="M313" s="17"/>
-      <c r="N313" s="15"/>
-      <c r="O313" s="16"/>
-      <c r="P313" s="17"/>
-      <c r="Q313" s="15"/>
-      <c r="R313" s="16"/>
-      <c r="S313" s="17"/>
-      <c r="T313" s="15"/>
-      <c r="U313" s="16"/>
-      <c r="V313" s="17"/>
-      <c r="W313" s="15"/>
-      <c r="X313" s="16"/>
-      <c r="Y313" s="17"/>
-      <c r="Z313"/>
-    </row>
-    <row r="314" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H314" s="15"/>
-      <c r="I314" s="16"/>
-      <c r="J314" s="17"/>
-      <c r="K314" s="15"/>
-      <c r="L314" s="16"/>
-      <c r="M314" s="17"/>
-      <c r="N314" s="15"/>
-      <c r="O314" s="16"/>
-      <c r="P314" s="17"/>
-      <c r="Q314" s="15"/>
-      <c r="R314" s="16"/>
-      <c r="S314" s="17"/>
-      <c r="T314" s="15"/>
-      <c r="U314" s="16"/>
-      <c r="V314" s="17"/>
-      <c r="W314" s="15"/>
-      <c r="X314" s="16"/>
-      <c r="Y314" s="17"/>
-      <c r="Z314"/>
-    </row>
-    <row r="315" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H315" s="15"/>
-      <c r="I315" s="16"/>
-      <c r="J315" s="17"/>
-      <c r="K315" s="15"/>
-      <c r="L315" s="16"/>
-      <c r="M315" s="17"/>
-      <c r="N315" s="15"/>
-      <c r="O315" s="16"/>
-      <c r="P315" s="17"/>
-      <c r="Q315" s="15"/>
-      <c r="R315" s="16"/>
-      <c r="S315" s="17"/>
-      <c r="T315" s="15"/>
-      <c r="U315" s="16"/>
-      <c r="V315" s="17"/>
-      <c r="W315" s="15"/>
-      <c r="X315" s="16"/>
-      <c r="Y315" s="17"/>
-      <c r="Z315"/>
-    </row>
-    <row r="316" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H316" s="15"/>
-      <c r="I316" s="16"/>
-      <c r="J316" s="17"/>
-      <c r="K316" s="15"/>
-      <c r="L316" s="16"/>
-      <c r="M316" s="17"/>
-      <c r="N316" s="15"/>
-      <c r="O316" s="16"/>
-      <c r="P316" s="17"/>
-      <c r="Q316" s="15"/>
-      <c r="R316" s="16"/>
-      <c r="S316" s="17"/>
-      <c r="T316" s="15"/>
-      <c r="U316" s="16"/>
-      <c r="V316" s="17"/>
-      <c r="W316" s="15"/>
-      <c r="X316" s="16"/>
-      <c r="Y316" s="17"/>
-      <c r="Z316"/>
-    </row>
-    <row r="317" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H317" s="15"/>
-      <c r="I317" s="16"/>
-      <c r="J317" s="17"/>
-      <c r="K317" s="15"/>
-      <c r="L317" s="16"/>
-      <c r="M317" s="17"/>
-      <c r="N317" s="15"/>
-      <c r="O317" s="16"/>
-      <c r="P317" s="17"/>
-      <c r="Q317" s="15"/>
-      <c r="R317" s="16"/>
-      <c r="S317" s="17"/>
-      <c r="T317" s="15"/>
-      <c r="U317" s="16"/>
-      <c r="V317" s="17"/>
-      <c r="W317" s="15"/>
-      <c r="X317" s="16"/>
-      <c r="Y317" s="17"/>
-      <c r="Z317"/>
-    </row>
-    <row r="318" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H318" s="15"/>
-      <c r="I318" s="16"/>
-      <c r="J318" s="17"/>
-      <c r="K318" s="15"/>
-      <c r="L318" s="16"/>
-      <c r="M318" s="17"/>
-      <c r="N318" s="15"/>
-      <c r="O318" s="16"/>
-      <c r="P318" s="17"/>
-      <c r="Q318" s="15"/>
-      <c r="R318" s="16"/>
-      <c r="S318" s="17"/>
-      <c r="T318" s="15"/>
-      <c r="U318" s="16"/>
-      <c r="V318" s="17"/>
-      <c r="W318" s="15"/>
-      <c r="X318" s="16"/>
-      <c r="Y318" s="17"/>
-      <c r="Z318"/>
-    </row>
-    <row r="319" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H319" s="15"/>
-      <c r="I319" s="16"/>
-      <c r="J319" s="17"/>
-      <c r="K319" s="15"/>
-      <c r="L319" s="16"/>
-      <c r="M319" s="17"/>
-      <c r="N319" s="15"/>
-      <c r="O319" s="16"/>
-      <c r="P319" s="17"/>
-      <c r="Q319" s="15"/>
-      <c r="R319" s="16"/>
-      <c r="S319" s="17"/>
-      <c r="T319" s="15"/>
-      <c r="U319" s="16"/>
-      <c r="V319" s="17"/>
-      <c r="W319" s="15"/>
-      <c r="X319" s="16"/>
-      <c r="Y319" s="17"/>
-      <c r="Z319"/>
-    </row>
-    <row r="320" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H320" s="15"/>
-      <c r="I320" s="16"/>
-      <c r="J320" s="17"/>
-      <c r="K320" s="15"/>
-      <c r="L320" s="16"/>
-      <c r="M320" s="17"/>
-      <c r="N320" s="15"/>
-      <c r="O320" s="16"/>
-      <c r="P320" s="17"/>
-      <c r="Q320" s="15"/>
-      <c r="R320" s="16"/>
-      <c r="S320" s="17"/>
-      <c r="T320" s="15"/>
-      <c r="U320" s="16"/>
-      <c r="V320" s="17"/>
-      <c r="W320" s="15"/>
-      <c r="X320" s="16"/>
-      <c r="Y320" s="17"/>
-      <c r="Z320"/>
-    </row>
-    <row r="321" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H321" s="15"/>
-      <c r="I321" s="16"/>
-      <c r="J321" s="17"/>
-      <c r="K321" s="15"/>
-      <c r="L321" s="16"/>
-      <c r="M321" s="17"/>
-      <c r="N321" s="15"/>
-      <c r="O321" s="16"/>
-      <c r="P321" s="17"/>
-      <c r="Q321" s="15"/>
-      <c r="R321" s="16"/>
-      <c r="S321" s="17"/>
-      <c r="T321" s="15"/>
-      <c r="U321" s="16"/>
-      <c r="V321" s="17"/>
-      <c r="W321" s="15"/>
-      <c r="X321" s="16"/>
-      <c r="Y321" s="17"/>
-      <c r="Z321"/>
-    </row>
-    <row r="322" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H322" s="15"/>
-      <c r="I322" s="16"/>
-      <c r="J322" s="17"/>
-      <c r="K322" s="15"/>
-      <c r="L322" s="16"/>
-      <c r="M322" s="17"/>
-      <c r="N322" s="15"/>
-      <c r="O322" s="16"/>
-      <c r="P322" s="17"/>
-      <c r="Q322" s="15"/>
-      <c r="R322" s="16"/>
-      <c r="S322" s="17"/>
-      <c r="T322" s="15"/>
-      <c r="U322" s="16"/>
-      <c r="V322" s="17"/>
-      <c r="W322" s="15"/>
-      <c r="X322" s="16"/>
-      <c r="Y322" s="17"/>
-      <c r="Z322"/>
-    </row>
-    <row r="323" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H323" s="15"/>
-      <c r="I323" s="16"/>
-      <c r="J323" s="17"/>
-      <c r="K323" s="15"/>
-      <c r="L323" s="16"/>
-      <c r="M323" s="17"/>
-      <c r="N323" s="15"/>
-      <c r="O323" s="16"/>
-      <c r="P323" s="17"/>
-      <c r="Q323" s="15"/>
-      <c r="R323" s="16"/>
-      <c r="S323" s="17"/>
-      <c r="T323" s="15"/>
-      <c r="U323" s="16"/>
-      <c r="V323" s="17"/>
-      <c r="W323" s="15"/>
-      <c r="X323" s="16"/>
-      <c r="Y323" s="17"/>
-      <c r="Z323"/>
-    </row>
-    <row r="324" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H324" s="15"/>
-      <c r="I324" s="16"/>
-      <c r="J324" s="17"/>
-      <c r="K324" s="15"/>
-      <c r="L324" s="16"/>
-      <c r="M324" s="17"/>
-      <c r="N324" s="15"/>
-      <c r="O324" s="16"/>
-      <c r="P324" s="17"/>
-      <c r="Q324" s="15"/>
-      <c r="R324" s="16"/>
-      <c r="S324" s="17"/>
-      <c r="T324" s="15"/>
-      <c r="U324" s="16"/>
-      <c r="V324" s="17"/>
-      <c r="W324" s="15"/>
-      <c r="X324" s="16"/>
-      <c r="Y324" s="17"/>
-      <c r="Z324"/>
-    </row>
-    <row r="325" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H325" s="15"/>
-      <c r="I325" s="16"/>
-      <c r="J325" s="17"/>
-      <c r="K325" s="15"/>
-      <c r="L325" s="16"/>
-      <c r="M325" s="17"/>
-      <c r="N325" s="15"/>
-      <c r="O325" s="16"/>
-      <c r="P325" s="17"/>
-      <c r="Q325" s="15"/>
-      <c r="R325" s="16"/>
-      <c r="S325" s="17"/>
-      <c r="T325" s="15"/>
-      <c r="U325" s="16"/>
-      <c r="V325" s="17"/>
-      <c r="W325" s="15"/>
-      <c r="X325" s="16"/>
-      <c r="Y325" s="17"/>
-      <c r="Z325"/>
-    </row>
-    <row r="326" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H326" s="15"/>
-      <c r="I326" s="16"/>
-      <c r="J326" s="17"/>
-      <c r="K326" s="15"/>
-      <c r="L326" s="16"/>
-      <c r="M326" s="17"/>
-      <c r="N326" s="15"/>
-      <c r="O326" s="16"/>
-      <c r="P326" s="17"/>
-      <c r="Q326" s="15"/>
-      <c r="R326" s="16"/>
-      <c r="S326" s="17"/>
-      <c r="T326" s="15"/>
-      <c r="U326" s="16"/>
-      <c r="V326" s="17"/>
-      <c r="W326" s="15"/>
-      <c r="X326" s="16"/>
-      <c r="Y326" s="17"/>
-      <c r="Z326"/>
-    </row>
-    <row r="327" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H327" s="15"/>
-      <c r="I327" s="16"/>
-      <c r="J327" s="17"/>
-      <c r="K327" s="15"/>
-      <c r="L327" s="16"/>
-      <c r="M327" s="17"/>
-      <c r="N327" s="15"/>
-      <c r="O327" s="16"/>
-      <c r="P327" s="17"/>
-      <c r="Q327" s="15"/>
-      <c r="R327" s="16"/>
-      <c r="S327" s="17"/>
-      <c r="T327" s="15"/>
-      <c r="U327" s="16"/>
-      <c r="V327" s="17"/>
-      <c r="W327" s="15"/>
-      <c r="X327" s="16"/>
-      <c r="Y327" s="17"/>
-      <c r="Z327"/>
-    </row>
-    <row r="328" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H328" s="15"/>
-      <c r="I328" s="16"/>
-      <c r="J328" s="17"/>
-      <c r="K328" s="15"/>
-      <c r="L328" s="16"/>
-      <c r="M328" s="17"/>
-      <c r="N328" s="15"/>
-      <c r="O328" s="16"/>
-      <c r="P328" s="17"/>
-      <c r="Q328" s="15"/>
-      <c r="R328" s="16"/>
-      <c r="S328" s="17"/>
-      <c r="T328" s="15"/>
-      <c r="U328" s="16"/>
-      <c r="V328" s="17"/>
-      <c r="W328" s="15"/>
-      <c r="X328" s="16"/>
-      <c r="Y328" s="17"/>
-      <c r="Z328"/>
-    </row>
-    <row r="329" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H329" s="15"/>
-      <c r="I329" s="16"/>
-      <c r="J329" s="17"/>
-      <c r="K329" s="15"/>
-      <c r="L329" s="16"/>
-      <c r="M329" s="17"/>
-      <c r="N329" s="15"/>
-      <c r="O329" s="16"/>
-      <c r="P329" s="17"/>
-      <c r="Q329" s="15"/>
-      <c r="R329" s="16"/>
-      <c r="S329" s="17"/>
-      <c r="T329" s="15"/>
-      <c r="U329" s="16"/>
-      <c r="V329" s="17"/>
-      <c r="W329" s="15"/>
-      <c r="X329" s="16"/>
-      <c r="Y329" s="17"/>
-      <c r="Z329"/>
-    </row>
-    <row r="330" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H330" s="15"/>
-      <c r="I330" s="16"/>
-      <c r="J330" s="17"/>
-      <c r="K330" s="15"/>
-      <c r="L330" s="16"/>
-      <c r="M330" s="17"/>
-      <c r="N330" s="15"/>
-      <c r="O330" s="16"/>
-      <c r="P330" s="17"/>
-      <c r="Q330" s="15"/>
-      <c r="R330" s="16"/>
-      <c r="S330" s="17"/>
-      <c r="T330" s="15"/>
-      <c r="U330" s="16"/>
-      <c r="V330" s="17"/>
-      <c r="W330" s="15"/>
-      <c r="X330" s="16"/>
-      <c r="Y330" s="17"/>
-      <c r="Z330"/>
-    </row>
-    <row r="331" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H331" s="15"/>
-      <c r="I331" s="16"/>
-      <c r="J331" s="17"/>
-      <c r="K331" s="15"/>
-      <c r="L331" s="16"/>
-      <c r="M331" s="17"/>
-      <c r="N331" s="15"/>
-      <c r="O331" s="16"/>
-      <c r="P331" s="17"/>
-      <c r="Q331" s="15"/>
-      <c r="R331" s="16"/>
-      <c r="S331" s="17"/>
-      <c r="T331" s="15"/>
-      <c r="U331" s="16"/>
-      <c r="V331" s="17"/>
-      <c r="W331" s="15"/>
-      <c r="X331" s="16"/>
-      <c r="Y331" s="17"/>
-      <c r="Z331"/>
-    </row>
-    <row r="332" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H332" s="15"/>
-      <c r="I332" s="16"/>
-      <c r="J332" s="17"/>
-      <c r="K332" s="15"/>
-      <c r="L332" s="16"/>
-      <c r="M332" s="17"/>
-      <c r="N332" s="15"/>
-      <c r="O332" s="16"/>
-      <c r="P332" s="17"/>
-      <c r="Q332" s="15"/>
-      <c r="R332" s="16"/>
-      <c r="S332" s="17"/>
-      <c r="T332" s="15"/>
-      <c r="U332" s="16"/>
-      <c r="V332" s="17"/>
-      <c r="W332" s="15"/>
-      <c r="X332" s="16"/>
-      <c r="Y332" s="17"/>
-      <c r="Z332"/>
-    </row>
-    <row r="333" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H333" s="15"/>
-      <c r="I333" s="16"/>
-      <c r="J333" s="17"/>
-      <c r="K333" s="15"/>
-      <c r="L333" s="16"/>
-      <c r="M333" s="17"/>
-      <c r="N333" s="15"/>
-      <c r="O333" s="16"/>
-      <c r="P333" s="17"/>
-      <c r="Q333" s="15"/>
-      <c r="R333" s="16"/>
-      <c r="S333" s="17"/>
-      <c r="T333" s="15"/>
-      <c r="U333" s="16"/>
-      <c r="V333" s="17"/>
-      <c r="W333" s="15"/>
-      <c r="X333" s="16"/>
-      <c r="Y333" s="17"/>
-      <c r="Z333"/>
-    </row>
-    <row r="334" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H334" s="15"/>
-      <c r="I334" s="16"/>
-      <c r="J334" s="17"/>
-      <c r="K334" s="15"/>
-      <c r="L334" s="16"/>
-      <c r="M334" s="17"/>
-      <c r="N334" s="15"/>
-      <c r="O334" s="16"/>
-      <c r="P334" s="17"/>
-      <c r="Q334" s="15"/>
-      <c r="R334" s="16"/>
-      <c r="S334" s="17"/>
-      <c r="T334" s="15"/>
-      <c r="U334" s="16"/>
-      <c r="V334" s="17"/>
-      <c r="W334" s="15"/>
-      <c r="X334" s="16"/>
-      <c r="Y334" s="17"/>
-      <c r="Z334"/>
-    </row>
-    <row r="335" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H335" s="15"/>
-      <c r="I335" s="16"/>
-      <c r="J335" s="17"/>
-      <c r="K335" s="15"/>
-      <c r="L335" s="16"/>
-      <c r="M335" s="17"/>
-      <c r="N335" s="15"/>
-      <c r="O335" s="16"/>
-      <c r="P335" s="17"/>
-      <c r="Q335" s="15"/>
-      <c r="R335" s="16"/>
-      <c r="S335" s="17"/>
-      <c r="T335" s="15"/>
-      <c r="U335" s="16"/>
-      <c r="V335" s="17"/>
-      <c r="W335" s="15"/>
-      <c r="X335" s="16"/>
-      <c r="Y335" s="17"/>
-      <c r="Z335"/>
-    </row>
-    <row r="336" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H336" s="15"/>
-      <c r="I336" s="16"/>
-      <c r="J336" s="17"/>
-      <c r="K336" s="15"/>
-      <c r="L336" s="16"/>
-      <c r="M336" s="17"/>
-      <c r="N336" s="15"/>
-      <c r="O336" s="16"/>
-      <c r="P336" s="17"/>
-      <c r="Q336" s="15"/>
-      <c r="R336" s="16"/>
-      <c r="S336" s="17"/>
-      <c r="T336" s="15"/>
-      <c r="U336" s="16"/>
-      <c r="V336" s="17"/>
-      <c r="W336" s="15"/>
-      <c r="X336" s="16"/>
-      <c r="Y336" s="17"/>
-      <c r="Z336"/>
-    </row>
-    <row r="337" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H337" s="15"/>
-      <c r="I337" s="16"/>
-      <c r="J337" s="17"/>
-      <c r="K337" s="15"/>
-      <c r="L337" s="16"/>
-      <c r="M337" s="17"/>
-      <c r="N337" s="15"/>
-      <c r="O337" s="16"/>
-      <c r="P337" s="17"/>
-      <c r="Q337" s="15"/>
-      <c r="R337" s="16"/>
-      <c r="S337" s="17"/>
-      <c r="T337" s="15"/>
-      <c r="U337" s="16"/>
-      <c r="V337" s="17"/>
-      <c r="W337" s="15"/>
-      <c r="X337" s="16"/>
-      <c r="Y337" s="17"/>
-      <c r="Z337"/>
-    </row>
-    <row r="338" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H338" s="15"/>
-      <c r="I338" s="16"/>
-      <c r="J338" s="17"/>
-      <c r="K338" s="15"/>
-      <c r="L338" s="16"/>
-      <c r="M338" s="17"/>
-      <c r="N338" s="15"/>
-      <c r="O338" s="16"/>
-      <c r="P338" s="17"/>
-      <c r="Q338" s="15"/>
-      <c r="R338" s="16"/>
-      <c r="S338" s="17"/>
-      <c r="T338" s="15"/>
-      <c r="U338" s="16"/>
-      <c r="V338" s="17"/>
-      <c r="W338" s="15"/>
-      <c r="X338" s="16"/>
-      <c r="Y338" s="17"/>
-      <c r="Z338"/>
-    </row>
-    <row r="339" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H339" s="15"/>
-      <c r="I339" s="16"/>
-      <c r="J339" s="17"/>
-      <c r="K339" s="15"/>
-      <c r="L339" s="16"/>
-      <c r="M339" s="17"/>
-      <c r="N339" s="15"/>
-      <c r="O339" s="16"/>
-      <c r="P339" s="17"/>
-      <c r="Q339" s="15"/>
-      <c r="R339" s="16"/>
-      <c r="S339" s="17"/>
-      <c r="T339" s="15"/>
-      <c r="U339" s="16"/>
-      <c r="V339" s="17"/>
-      <c r="W339" s="15"/>
-      <c r="X339" s="16"/>
-      <c r="Y339" s="17"/>
-      <c r="Z339"/>
-    </row>
-    <row r="340" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H340" s="15"/>
-      <c r="I340" s="16"/>
-      <c r="J340" s="17"/>
-      <c r="K340" s="15"/>
-      <c r="L340" s="16"/>
-      <c r="M340" s="17"/>
-      <c r="N340" s="15"/>
-      <c r="O340" s="16"/>
-      <c r="P340" s="17"/>
-      <c r="Q340" s="15"/>
-      <c r="R340" s="16"/>
-      <c r="S340" s="17"/>
-      <c r="T340" s="15"/>
-      <c r="U340" s="16"/>
-      <c r="V340" s="17"/>
-      <c r="W340" s="15"/>
-      <c r="X340" s="16"/>
-      <c r="Y340" s="17"/>
-      <c r="Z340"/>
-    </row>
-    <row r="341" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H341" s="15"/>
-      <c r="I341" s="16"/>
-      <c r="J341" s="17"/>
-      <c r="K341" s="15"/>
-      <c r="L341" s="16"/>
-      <c r="M341" s="17"/>
-      <c r="N341" s="15"/>
-      <c r="O341" s="16"/>
-      <c r="P341" s="17"/>
-      <c r="Q341" s="15"/>
-      <c r="R341" s="16"/>
-      <c r="S341" s="17"/>
-      <c r="T341" s="15"/>
-      <c r="U341" s="16"/>
-      <c r="V341" s="17"/>
-      <c r="W341" s="15"/>
-      <c r="X341" s="16"/>
-      <c r="Y341" s="17"/>
-      <c r="Z341"/>
-    </row>
-    <row r="342" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H342" s="15"/>
-      <c r="I342" s="16"/>
-      <c r="J342" s="17"/>
-      <c r="K342" s="15"/>
-      <c r="L342" s="16"/>
-      <c r="M342" s="17"/>
-      <c r="N342" s="15"/>
-      <c r="O342" s="16"/>
-      <c r="P342" s="17"/>
-      <c r="Q342" s="15"/>
-      <c r="R342" s="16"/>
-      <c r="S342" s="17"/>
-      <c r="T342" s="15"/>
-      <c r="U342" s="16"/>
-      <c r="V342" s="17"/>
-      <c r="W342" s="15"/>
-      <c r="X342" s="16"/>
-      <c r="Y342" s="17"/>
-      <c r="Z342"/>
-    </row>
-    <row r="343" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H343" s="15"/>
-      <c r="I343" s="16"/>
-      <c r="J343" s="17"/>
-      <c r="K343" s="15"/>
-      <c r="L343" s="16"/>
-      <c r="M343" s="17"/>
-      <c r="N343" s="15"/>
-      <c r="O343" s="16"/>
-      <c r="P343" s="17"/>
-      <c r="Q343" s="15"/>
-      <c r="R343" s="16"/>
-      <c r="S343" s="17"/>
-      <c r="T343" s="15"/>
-      <c r="U343" s="16"/>
-      <c r="V343" s="17"/>
-      <c r="W343" s="15"/>
-      <c r="X343" s="16"/>
-      <c r="Y343" s="17"/>
-      <c r="Z343"/>
-    </row>
-    <row r="344" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H344" s="15"/>
-      <c r="I344" s="16"/>
-      <c r="J344" s="17"/>
-      <c r="K344" s="15"/>
-      <c r="L344" s="16"/>
-      <c r="M344" s="17"/>
-      <c r="N344" s="15"/>
-      <c r="O344" s="16"/>
-      <c r="P344" s="17"/>
-      <c r="Q344" s="15"/>
-      <c r="R344" s="16"/>
-      <c r="S344" s="17"/>
-      <c r="T344" s="15"/>
-      <c r="U344" s="16"/>
-      <c r="V344" s="17"/>
-      <c r="W344" s="15"/>
-      <c r="X344" s="16"/>
-      <c r="Y344" s="17"/>
-      <c r="Z344"/>
-    </row>
-    <row r="345" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H345" s="15"/>
-      <c r="I345" s="16"/>
-      <c r="J345" s="17"/>
-      <c r="K345" s="15"/>
-      <c r="L345" s="16"/>
-      <c r="M345" s="17"/>
-      <c r="N345" s="15"/>
-      <c r="O345" s="16"/>
-      <c r="P345" s="17"/>
-      <c r="Q345" s="15"/>
-      <c r="R345" s="16"/>
-      <c r="S345" s="17"/>
-      <c r="T345" s="15"/>
-      <c r="U345" s="16"/>
-      <c r="V345" s="17"/>
-      <c r="W345" s="15"/>
-      <c r="X345" s="16"/>
-      <c r="Y345" s="17"/>
-      <c r="Z345"/>
-    </row>
-    <row r="346" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H346" s="15"/>
-      <c r="I346" s="16"/>
-      <c r="J346" s="17"/>
-      <c r="K346" s="15"/>
-      <c r="L346" s="16"/>
-      <c r="M346" s="17"/>
-      <c r="N346" s="15"/>
-      <c r="O346" s="16"/>
-      <c r="P346" s="17"/>
-      <c r="Q346" s="15"/>
-      <c r="R346" s="16"/>
-      <c r="S346" s="17"/>
-      <c r="T346" s="15"/>
-      <c r="U346" s="16"/>
-      <c r="V346" s="17"/>
-      <c r="W346" s="15"/>
-      <c r="X346" s="16"/>
-      <c r="Y346" s="17"/>
-      <c r="Z346"/>
-    </row>
-    <row r="347" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H347" s="15"/>
-      <c r="I347" s="16"/>
-      <c r="J347" s="17"/>
-      <c r="K347" s="15"/>
-      <c r="L347" s="16"/>
-      <c r="M347" s="17"/>
-      <c r="N347" s="15"/>
-      <c r="O347" s="16"/>
-      <c r="P347" s="17"/>
-      <c r="Q347" s="15"/>
-      <c r="R347" s="16"/>
-      <c r="S347" s="17"/>
-      <c r="T347" s="15"/>
-      <c r="U347" s="16"/>
-      <c r="V347" s="17"/>
-      <c r="W347" s="15"/>
-      <c r="X347" s="16"/>
-      <c r="Y347" s="17"/>
-      <c r="Z347"/>
-    </row>
-    <row r="348" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H348" s="15"/>
-      <c r="I348" s="16"/>
-      <c r="J348" s="17"/>
-      <c r="K348" s="15"/>
-      <c r="L348" s="16"/>
-      <c r="M348" s="17"/>
-      <c r="N348" s="15"/>
-      <c r="O348" s="16"/>
-      <c r="P348" s="17"/>
-      <c r="Q348" s="15"/>
-      <c r="R348" s="16"/>
-      <c r="S348" s="17"/>
-      <c r="T348" s="15"/>
-      <c r="U348" s="16"/>
-      <c r="V348" s="17"/>
-      <c r="W348" s="15"/>
-      <c r="X348" s="16"/>
-      <c r="Y348" s="17"/>
-      <c r="Z348"/>
-    </row>
-    <row r="349" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H349" s="15"/>
-      <c r="I349" s="16"/>
-      <c r="J349" s="17"/>
-      <c r="K349" s="15"/>
-      <c r="L349" s="16"/>
-      <c r="M349" s="17"/>
-      <c r="N349" s="15"/>
-      <c r="O349" s="16"/>
-      <c r="P349" s="17"/>
-      <c r="Q349" s="15"/>
-      <c r="R349" s="16"/>
-      <c r="S349" s="17"/>
-      <c r="T349" s="15"/>
-      <c r="U349" s="16"/>
-      <c r="V349" s="17"/>
-      <c r="W349" s="15"/>
-      <c r="X349" s="16"/>
-      <c r="Y349" s="17"/>
-      <c r="Z349"/>
-    </row>
-    <row r="350" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H350" s="15"/>
-      <c r="I350" s="16"/>
-      <c r="J350" s="17"/>
-      <c r="K350" s="15"/>
-      <c r="L350" s="16"/>
-      <c r="M350" s="17"/>
-      <c r="N350" s="15"/>
-      <c r="O350" s="16"/>
-      <c r="P350" s="17"/>
-      <c r="Q350" s="15"/>
-      <c r="R350" s="16"/>
-      <c r="S350" s="17"/>
-      <c r="T350" s="15"/>
-      <c r="U350" s="16"/>
-      <c r="V350" s="17"/>
-      <c r="W350" s="15"/>
-      <c r="X350" s="16"/>
-      <c r="Y350" s="17"/>
-      <c r="Z350"/>
-    </row>
-    <row r="351" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H351" s="15"/>
-      <c r="I351" s="16"/>
-      <c r="J351" s="17"/>
-      <c r="K351" s="15"/>
-      <c r="L351" s="16"/>
-      <c r="M351" s="17"/>
-      <c r="N351" s="15"/>
-      <c r="O351" s="16"/>
-      <c r="P351" s="17"/>
-      <c r="Q351" s="15"/>
-      <c r="R351" s="16"/>
-      <c r="S351" s="17"/>
-      <c r="T351" s="15"/>
-      <c r="U351" s="16"/>
-      <c r="V351" s="17"/>
-      <c r="W351" s="15"/>
-      <c r="X351" s="16"/>
-      <c r="Y351" s="17"/>
-      <c r="Z351"/>
-    </row>
-    <row r="352" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H352" s="15"/>
-      <c r="I352" s="16"/>
-      <c r="J352" s="17"/>
-      <c r="K352" s="15"/>
-      <c r="L352" s="16"/>
-      <c r="M352" s="17"/>
-      <c r="N352" s="15"/>
-      <c r="O352" s="16"/>
-      <c r="P352" s="17"/>
-      <c r="Q352" s="15"/>
-      <c r="R352" s="16"/>
-      <c r="S352" s="17"/>
-      <c r="T352" s="15"/>
-      <c r="U352" s="16"/>
-      <c r="V352" s="17"/>
-      <c r="W352" s="15"/>
-      <c r="X352" s="16"/>
-      <c r="Y352" s="17"/>
-      <c r="Z352"/>
-    </row>
-    <row r="353" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H353" s="15"/>
-      <c r="I353" s="16"/>
-      <c r="J353" s="17"/>
-      <c r="K353" s="15"/>
-      <c r="L353" s="16"/>
-      <c r="M353" s="17"/>
-      <c r="N353" s="15"/>
-      <c r="O353" s="16"/>
-      <c r="P353" s="17"/>
-      <c r="Q353" s="15"/>
-      <c r="R353" s="16"/>
-      <c r="S353" s="17"/>
-      <c r="T353" s="15"/>
-      <c r="U353" s="16"/>
-      <c r="V353" s="17"/>
-      <c r="W353" s="15"/>
-      <c r="X353" s="16"/>
-      <c r="Y353" s="17"/>
-      <c r="Z353"/>
-    </row>
-    <row r="354" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H354" s="15"/>
-      <c r="I354" s="16"/>
-      <c r="J354" s="17"/>
-      <c r="K354" s="15"/>
-      <c r="L354" s="16"/>
-      <c r="M354" s="17"/>
-      <c r="N354" s="15"/>
-      <c r="O354" s="16"/>
-      <c r="P354" s="17"/>
-      <c r="Q354" s="15"/>
-      <c r="R354" s="16"/>
-      <c r="S354" s="17"/>
-      <c r="T354" s="15"/>
-      <c r="U354" s="16"/>
-      <c r="V354" s="17"/>
-      <c r="W354" s="15"/>
-      <c r="X354" s="16"/>
-      <c r="Y354" s="17"/>
-      <c r="Z354"/>
-    </row>
-    <row r="355" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H355" s="15"/>
-      <c r="I355" s="16"/>
-      <c r="J355" s="17"/>
-      <c r="K355" s="15"/>
-      <c r="L355" s="16"/>
-      <c r="M355" s="17"/>
-      <c r="N355" s="15"/>
-      <c r="O355" s="16"/>
-      <c r="P355" s="17"/>
-      <c r="Q355" s="15"/>
-      <c r="R355" s="16"/>
-      <c r="S355" s="17"/>
-      <c r="T355" s="15"/>
-      <c r="U355" s="16"/>
-      <c r="V355" s="17"/>
-      <c r="W355" s="15"/>
-      <c r="X355" s="16"/>
-      <c r="Y355" s="17"/>
-      <c r="Z355"/>
-    </row>
-    <row r="356" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H356" s="15"/>
-      <c r="I356" s="16"/>
-      <c r="J356" s="17"/>
-      <c r="K356" s="15"/>
-      <c r="L356" s="16"/>
-      <c r="M356" s="17"/>
-      <c r="N356" s="15"/>
-      <c r="O356" s="16"/>
-      <c r="P356" s="17"/>
-      <c r="Q356" s="15"/>
-      <c r="R356" s="16"/>
-      <c r="S356" s="17"/>
-      <c r="T356" s="15"/>
-      <c r="U356" s="16"/>
-      <c r="V356" s="17"/>
-      <c r="W356" s="15"/>
-      <c r="X356" s="16"/>
-      <c r="Y356" s="17"/>
-      <c r="Z356"/>
-    </row>
-    <row r="357" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H357" s="15"/>
-      <c r="I357" s="16"/>
-      <c r="J357" s="17"/>
-      <c r="K357" s="15"/>
-      <c r="L357" s="16"/>
-      <c r="M357" s="17"/>
-      <c r="N357" s="15"/>
-      <c r="O357" s="16"/>
-      <c r="P357" s="17"/>
-      <c r="Q357" s="15"/>
-      <c r="R357" s="16"/>
-      <c r="S357" s="17"/>
-      <c r="T357" s="15"/>
-      <c r="U357" s="16"/>
-      <c r="V357" s="17"/>
-      <c r="W357" s="15"/>
-      <c r="X357" s="16"/>
-      <c r="Y357" s="17"/>
-      <c r="Z357"/>
-    </row>
-    <row r="358" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H358" s="15"/>
-      <c r="I358" s="16"/>
-      <c r="J358" s="17"/>
-      <c r="K358" s="15"/>
-      <c r="L358" s="16"/>
-      <c r="M358" s="17"/>
-      <c r="N358" s="15"/>
-      <c r="O358" s="16"/>
-      <c r="P358" s="17"/>
-      <c r="Q358" s="15"/>
-      <c r="R358" s="16"/>
-      <c r="S358" s="17"/>
-      <c r="T358" s="15"/>
-      <c r="U358" s="16"/>
-      <c r="V358" s="17"/>
-      <c r="W358" s="15"/>
-      <c r="X358" s="16"/>
-      <c r="Y358" s="17"/>
-      <c r="Z358"/>
-    </row>
-    <row r="359" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H359" s="15"/>
-      <c r="I359" s="16"/>
-      <c r="J359" s="17"/>
-      <c r="K359" s="15"/>
-      <c r="L359" s="16"/>
-      <c r="M359" s="17"/>
-      <c r="N359" s="15"/>
-      <c r="O359" s="16"/>
-      <c r="P359" s="17"/>
-      <c r="Q359" s="15"/>
-      <c r="R359" s="16"/>
-      <c r="S359" s="17"/>
-      <c r="T359" s="15"/>
-      <c r="U359" s="16"/>
-      <c r="V359" s="17"/>
-      <c r="W359" s="15"/>
-      <c r="X359" s="16"/>
-      <c r="Y359" s="17"/>
-      <c r="Z359"/>
-    </row>
-    <row r="360" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H360" s="15"/>
-      <c r="I360" s="16"/>
-      <c r="J360" s="17"/>
-      <c r="K360" s="15"/>
-      <c r="L360" s="16"/>
-      <c r="M360" s="17"/>
-      <c r="N360" s="15"/>
-      <c r="O360" s="16"/>
-      <c r="P360" s="17"/>
-      <c r="Q360" s="15"/>
-      <c r="R360" s="16"/>
-      <c r="S360" s="17"/>
-      <c r="T360" s="15"/>
-      <c r="U360" s="16"/>
-      <c r="V360" s="17"/>
-      <c r="W360" s="15"/>
-      <c r="X360" s="16"/>
-      <c r="Y360" s="17"/>
-      <c r="Z360"/>
-    </row>
-    <row r="361" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H361" s="15"/>
-      <c r="I361" s="16"/>
-      <c r="J361" s="17"/>
-      <c r="K361" s="15"/>
-      <c r="L361" s="16"/>
-      <c r="M361" s="17"/>
-      <c r="N361" s="15"/>
-      <c r="O361" s="16"/>
-      <c r="P361" s="17"/>
-      <c r="Q361" s="15"/>
-      <c r="R361" s="16"/>
-      <c r="S361" s="17"/>
-      <c r="T361" s="15"/>
-      <c r="U361" s="16"/>
-      <c r="V361" s="17"/>
-      <c r="W361" s="15"/>
-      <c r="X361" s="16"/>
-      <c r="Y361" s="17"/>
-      <c r="Z361"/>
-    </row>
-    <row r="362" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H362" s="15"/>
-      <c r="I362" s="16"/>
-      <c r="J362" s="17"/>
-      <c r="K362" s="15"/>
-      <c r="L362" s="16"/>
-      <c r="M362" s="17"/>
-      <c r="N362" s="15"/>
-      <c r="O362" s="16"/>
-      <c r="P362" s="17"/>
-      <c r="Q362" s="15"/>
-      <c r="R362" s="16"/>
-      <c r="S362" s="17"/>
-      <c r="T362" s="15"/>
-      <c r="U362" s="16"/>
-      <c r="V362" s="17"/>
-      <c r="W362" s="15"/>
-      <c r="X362" s="16"/>
-      <c r="Y362" s="17"/>
-      <c r="Z362"/>
-    </row>
-    <row r="363" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H363" s="15"/>
-      <c r="I363" s="16"/>
-      <c r="J363" s="17"/>
-      <c r="K363" s="15"/>
-      <c r="L363" s="16"/>
-      <c r="M363" s="17"/>
-      <c r="N363" s="15"/>
-      <c r="O363" s="16"/>
-      <c r="P363" s="17"/>
-      <c r="Q363" s="15"/>
-      <c r="R363" s="16"/>
-      <c r="S363" s="17"/>
-      <c r="T363" s="15"/>
-      <c r="U363" s="16"/>
-      <c r="V363" s="17"/>
-      <c r="W363" s="15"/>
-      <c r="X363" s="16"/>
-      <c r="Y363" s="17"/>
-      <c r="Z363"/>
-    </row>
-    <row r="364" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H364" s="15"/>
-      <c r="I364" s="16"/>
-      <c r="J364" s="17"/>
-      <c r="K364" s="15"/>
-      <c r="L364" s="16"/>
-      <c r="M364" s="17"/>
-      <c r="N364" s="15"/>
-      <c r="O364" s="16"/>
-      <c r="P364" s="17"/>
-      <c r="Q364" s="15"/>
-      <c r="R364" s="16"/>
-      <c r="S364" s="17"/>
-      <c r="T364" s="15"/>
-      <c r="U364" s="16"/>
-      <c r="V364" s="17"/>
-      <c r="W364" s="15"/>
-      <c r="X364" s="16"/>
-      <c r="Y364" s="17"/>
-      <c r="Z364"/>
-    </row>
-    <row r="365" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H365" s="15"/>
-      <c r="I365" s="16"/>
-      <c r="J365" s="17"/>
-      <c r="K365" s="15"/>
-      <c r="L365" s="16"/>
-      <c r="M365" s="17"/>
-      <c r="N365" s="15"/>
-      <c r="O365" s="16"/>
-      <c r="P365" s="17"/>
-      <c r="Q365" s="15"/>
-      <c r="R365" s="16"/>
-      <c r="S365" s="17"/>
-      <c r="T365" s="15"/>
-      <c r="U365" s="16"/>
-      <c r="V365" s="17"/>
-      <c r="W365" s="15"/>
-      <c r="X365" s="16"/>
-      <c r="Y365" s="17"/>
-      <c r="Z365"/>
-    </row>
-    <row r="366" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H366" s="15"/>
-      <c r="I366" s="16"/>
-      <c r="J366" s="17"/>
-      <c r="K366" s="15"/>
-      <c r="L366" s="16"/>
-      <c r="M366" s="17"/>
-      <c r="N366" s="15"/>
-      <c r="O366" s="16"/>
-      <c r="P366" s="17"/>
-      <c r="Q366" s="15"/>
-      <c r="R366" s="16"/>
-      <c r="S366" s="17"/>
-      <c r="T366" s="15"/>
-      <c r="U366" s="16"/>
-      <c r="V366" s="17"/>
-      <c r="W366" s="15"/>
-      <c r="X366" s="16"/>
-      <c r="Y366" s="17"/>
-      <c r="Z366"/>
-    </row>
-    <row r="367" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H367" s="15"/>
-      <c r="I367" s="16"/>
-      <c r="J367" s="17"/>
-      <c r="K367" s="15"/>
-      <c r="L367" s="16"/>
-      <c r="M367" s="17"/>
-      <c r="N367" s="15"/>
-      <c r="O367" s="16"/>
-      <c r="P367" s="17"/>
-      <c r="Q367" s="15"/>
-      <c r="R367" s="16"/>
-      <c r="S367" s="17"/>
-      <c r="T367" s="15"/>
-      <c r="U367" s="16"/>
-      <c r="V367" s="17"/>
-      <c r="W367" s="15"/>
-      <c r="X367" s="16"/>
-      <c r="Y367" s="17"/>
-      <c r="Z367"/>
-    </row>
-    <row r="368" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H368" s="15"/>
-      <c r="I368" s="16"/>
-      <c r="J368" s="17"/>
-      <c r="K368" s="15"/>
-      <c r="L368" s="16"/>
-      <c r="M368" s="17"/>
-      <c r="N368" s="15"/>
-      <c r="O368" s="16"/>
-      <c r="P368" s="17"/>
-      <c r="Q368" s="15"/>
-      <c r="R368" s="16"/>
-      <c r="S368" s="17"/>
-      <c r="T368" s="15"/>
-      <c r="U368" s="16"/>
-      <c r="V368" s="17"/>
-      <c r="W368" s="15"/>
-      <c r="X368" s="16"/>
-      <c r="Y368" s="17"/>
-      <c r="Z368"/>
-    </row>
-    <row r="369" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H369" s="15"/>
-      <c r="I369" s="16"/>
-      <c r="J369" s="17"/>
-      <c r="K369" s="15"/>
-      <c r="L369" s="16"/>
-      <c r="M369" s="17"/>
-      <c r="N369" s="15"/>
-      <c r="O369" s="16"/>
-      <c r="P369" s="17"/>
-      <c r="Q369" s="15"/>
-      <c r="R369" s="16"/>
-      <c r="S369" s="17"/>
-      <c r="T369" s="15"/>
-      <c r="U369" s="16"/>
-      <c r="V369" s="17"/>
-      <c r="W369" s="15"/>
-      <c r="X369" s="16"/>
-      <c r="Y369" s="17"/>
-      <c r="Z369"/>
-    </row>
-    <row r="370" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H370" s="15"/>
-      <c r="I370" s="16"/>
-      <c r="J370" s="17"/>
-      <c r="K370" s="15"/>
-      <c r="L370" s="16"/>
-      <c r="M370" s="17"/>
-      <c r="N370" s="15"/>
-      <c r="O370" s="16"/>
-      <c r="P370" s="17"/>
-      <c r="Q370" s="15"/>
-      <c r="R370" s="16"/>
-      <c r="S370" s="17"/>
-      <c r="T370" s="15"/>
-      <c r="U370" s="16"/>
-      <c r="V370" s="17"/>
-      <c r="W370" s="15"/>
-      <c r="X370" s="16"/>
-      <c r="Y370" s="17"/>
-      <c r="Z370"/>
-    </row>
-    <row r="371" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H371" s="15"/>
-      <c r="I371" s="16"/>
-      <c r="J371" s="17"/>
-      <c r="K371" s="15"/>
-      <c r="L371" s="16"/>
-      <c r="M371" s="17"/>
-      <c r="N371" s="15"/>
-      <c r="O371" s="16"/>
-      <c r="P371" s="17"/>
-      <c r="Q371" s="15"/>
-      <c r="R371" s="16"/>
-      <c r="S371" s="17"/>
-      <c r="T371" s="15"/>
-      <c r="U371" s="16"/>
-      <c r="V371" s="17"/>
-      <c r="W371" s="15"/>
-      <c r="X371" s="16"/>
-      <c r="Y371" s="17"/>
-      <c r="Z371"/>
-    </row>
-    <row r="372" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H372" s="15"/>
-      <c r="I372" s="16"/>
-      <c r="J372" s="17"/>
-      <c r="K372" s="15"/>
-      <c r="L372" s="16"/>
-      <c r="M372" s="17"/>
-      <c r="N372" s="15"/>
-      <c r="O372" s="16"/>
-      <c r="P372" s="17"/>
-      <c r="Q372" s="15"/>
-      <c r="R372" s="16"/>
-      <c r="S372" s="17"/>
-      <c r="T372" s="15"/>
-      <c r="U372" s="16"/>
-      <c r="V372" s="17"/>
-      <c r="W372" s="15"/>
-      <c r="X372" s="16"/>
-      <c r="Y372" s="17"/>
-      <c r="Z372"/>
-    </row>
-    <row r="373" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H373" s="15"/>
-      <c r="I373" s="16"/>
-      <c r="J373" s="17"/>
-      <c r="K373" s="15"/>
-      <c r="L373" s="16"/>
-      <c r="M373" s="17"/>
-      <c r="N373" s="15"/>
-      <c r="O373" s="16"/>
-      <c r="P373" s="17"/>
-      <c r="Q373" s="15"/>
-      <c r="R373" s="16"/>
-      <c r="S373" s="17"/>
-      <c r="T373" s="15"/>
-      <c r="U373" s="16"/>
-      <c r="V373" s="17"/>
-      <c r="W373" s="15"/>
-      <c r="X373" s="16"/>
-      <c r="Y373" s="17"/>
-      <c r="Z373"/>
-    </row>
-    <row r="374" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H374" s="15"/>
-      <c r="I374" s="16"/>
-      <c r="J374" s="17"/>
-      <c r="K374" s="15"/>
-      <c r="L374" s="16"/>
-      <c r="M374" s="17"/>
-      <c r="N374" s="15"/>
-      <c r="O374" s="16"/>
-      <c r="P374" s="17"/>
-      <c r="Q374" s="15"/>
-      <c r="R374" s="16"/>
-      <c r="S374" s="17"/>
-      <c r="T374" s="15"/>
-      <c r="U374" s="16"/>
-      <c r="V374" s="17"/>
-      <c r="W374" s="15"/>
-      <c r="X374" s="16"/>
-      <c r="Y374" s="17"/>
-      <c r="Z374"/>
-    </row>
-    <row r="375" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H375" s="15"/>
-      <c r="I375" s="16"/>
-      <c r="J375" s="17"/>
-      <c r="K375" s="15"/>
-      <c r="L375" s="16"/>
-      <c r="M375" s="17"/>
-      <c r="N375" s="15"/>
-      <c r="O375" s="16"/>
-      <c r="P375" s="17"/>
-      <c r="Q375" s="15"/>
-      <c r="R375" s="16"/>
-      <c r="S375" s="17"/>
-      <c r="T375" s="15"/>
-      <c r="U375" s="16"/>
-      <c r="V375" s="17"/>
-      <c r="W375" s="15"/>
-      <c r="X375" s="16"/>
-      <c r="Y375" s="17"/>
-      <c r="Z375"/>
-    </row>
-    <row r="376" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H376" s="15"/>
-      <c r="I376" s="16"/>
-      <c r="J376" s="17"/>
-      <c r="K376" s="15"/>
-      <c r="L376" s="16"/>
-      <c r="M376" s="17"/>
-      <c r="N376" s="15"/>
-      <c r="O376" s="16"/>
-      <c r="P376" s="17"/>
-      <c r="Q376" s="15"/>
-      <c r="R376" s="16"/>
-      <c r="S376" s="17"/>
-      <c r="T376" s="15"/>
-      <c r="U376" s="16"/>
-      <c r="V376" s="17"/>
-      <c r="W376" s="15"/>
-      <c r="X376" s="16"/>
-      <c r="Y376" s="17"/>
-      <c r="Z376"/>
-    </row>
-    <row r="377" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H377" s="15"/>
-      <c r="I377" s="16"/>
-      <c r="J377" s="17"/>
-      <c r="K377" s="15"/>
-      <c r="L377" s="16"/>
-      <c r="M377" s="17"/>
-      <c r="N377" s="15"/>
-      <c r="O377" s="16"/>
-      <c r="P377" s="17"/>
-      <c r="Q377" s="15"/>
-      <c r="R377" s="16"/>
-      <c r="S377" s="17"/>
-      <c r="T377" s="15"/>
-      <c r="U377" s="16"/>
-      <c r="V377" s="17"/>
-      <c r="W377" s="15"/>
-      <c r="X377" s="16"/>
-      <c r="Y377" s="17"/>
-      <c r="Z377"/>
-    </row>
-    <row r="378" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H378" s="15"/>
-      <c r="I378" s="16"/>
-      <c r="J378" s="17"/>
-      <c r="K378" s="15"/>
-      <c r="L378" s="16"/>
-      <c r="M378" s="17"/>
-      <c r="N378" s="15"/>
-      <c r="O378" s="16"/>
-      <c r="P378" s="17"/>
-      <c r="Q378" s="15"/>
-      <c r="R378" s="16"/>
-      <c r="S378" s="17"/>
-      <c r="T378" s="15"/>
-      <c r="U378" s="16"/>
-      <c r="V378" s="17"/>
-      <c r="W378" s="15"/>
-      <c r="X378" s="16"/>
-      <c r="Y378" s="17"/>
-      <c r="Z378"/>
-    </row>
-    <row r="379" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H379" s="15"/>
-      <c r="I379" s="16"/>
-      <c r="J379" s="17"/>
-      <c r="K379" s="15"/>
-      <c r="L379" s="16"/>
-      <c r="M379" s="17"/>
-      <c r="N379" s="15"/>
-      <c r="O379" s="16"/>
-      <c r="P379" s="17"/>
-      <c r="Q379" s="15"/>
-      <c r="R379" s="16"/>
-      <c r="S379" s="17"/>
-      <c r="T379" s="15"/>
-      <c r="U379" s="16"/>
-      <c r="V379" s="17"/>
-      <c r="W379" s="15"/>
-      <c r="X379" s="16"/>
-      <c r="Y379" s="17"/>
-      <c r="Z379"/>
-    </row>
-    <row r="380" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H380" s="15"/>
-      <c r="I380" s="16"/>
-      <c r="J380" s="17"/>
-      <c r="K380" s="15"/>
-      <c r="L380" s="16"/>
-      <c r="M380" s="17"/>
-      <c r="N380" s="15"/>
-      <c r="O380" s="16"/>
-      <c r="P380" s="17"/>
-      <c r="Q380" s="15"/>
-      <c r="R380" s="16"/>
-      <c r="S380" s="17"/>
-      <c r="T380" s="15"/>
-      <c r="U380" s="16"/>
-      <c r="V380" s="17"/>
-      <c r="W380" s="15"/>
-      <c r="X380" s="16"/>
-      <c r="Y380" s="17"/>
-      <c r="Z380"/>
-    </row>
-    <row r="381" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H381" s="15"/>
-      <c r="I381" s="16"/>
-      <c r="J381" s="17"/>
-      <c r="K381" s="15"/>
-      <c r="L381" s="16"/>
-      <c r="M381" s="17"/>
-      <c r="N381" s="15"/>
-      <c r="O381" s="16"/>
-      <c r="P381" s="17"/>
-      <c r="Q381" s="15"/>
-      <c r="R381" s="16"/>
-      <c r="S381" s="17"/>
-      <c r="T381" s="15"/>
-      <c r="U381" s="16"/>
-      <c r="V381" s="17"/>
-      <c r="W381" s="15"/>
-      <c r="X381" s="16"/>
-      <c r="Y381" s="17"/>
-      <c r="Z381"/>
-    </row>
-    <row r="382" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H382" s="15"/>
-      <c r="I382" s="16"/>
-      <c r="J382" s="17"/>
-      <c r="K382" s="15"/>
-      <c r="L382" s="16"/>
-      <c r="M382" s="17"/>
-      <c r="N382" s="15"/>
-      <c r="O382" s="16"/>
-      <c r="P382" s="17"/>
-      <c r="Q382" s="15"/>
-      <c r="R382" s="16"/>
-      <c r="S382" s="17"/>
-      <c r="T382" s="15"/>
-      <c r="U382" s="16"/>
-      <c r="V382" s="17"/>
-      <c r="W382" s="15"/>
-      <c r="X382" s="16"/>
-      <c r="Y382" s="17"/>
-      <c r="Z382"/>
-    </row>
-    <row r="383" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H383" s="15"/>
-      <c r="I383" s="16"/>
-      <c r="J383" s="17"/>
-      <c r="K383" s="15"/>
-      <c r="L383" s="16"/>
-      <c r="M383" s="17"/>
-      <c r="N383" s="15"/>
-      <c r="O383" s="16"/>
-      <c r="P383" s="17"/>
-      <c r="Q383" s="15"/>
-      <c r="R383" s="16"/>
-      <c r="S383" s="17"/>
-      <c r="T383" s="15"/>
-      <c r="U383" s="16"/>
-      <c r="V383" s="17"/>
-      <c r="W383" s="15"/>
-      <c r="X383" s="16"/>
-      <c r="Y383" s="17"/>
-      <c r="Z383"/>
-    </row>
-    <row r="384" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H384" s="15"/>
-      <c r="I384" s="16"/>
-      <c r="J384" s="17"/>
-      <c r="K384" s="15"/>
-      <c r="L384" s="16"/>
-      <c r="M384" s="17"/>
-      <c r="N384" s="15"/>
-      <c r="O384" s="16"/>
-      <c r="P384" s="17"/>
-      <c r="Q384" s="15"/>
-      <c r="R384" s="16"/>
-      <c r="S384" s="17"/>
-      <c r="T384" s="15"/>
-      <c r="U384" s="16"/>
-      <c r="V384" s="17"/>
-      <c r="W384" s="15"/>
-      <c r="X384" s="16"/>
-      <c r="Y384" s="17"/>
-      <c r="Z384"/>
-    </row>
-    <row r="385" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H385" s="15"/>
-      <c r="I385" s="16"/>
-      <c r="J385" s="17"/>
-      <c r="K385" s="15"/>
-      <c r="L385" s="16"/>
-      <c r="M385" s="17"/>
-      <c r="N385" s="15"/>
-      <c r="O385" s="16"/>
-      <c r="P385" s="17"/>
-      <c r="Q385" s="15"/>
-      <c r="R385" s="16"/>
-      <c r="S385" s="17"/>
-      <c r="T385" s="15"/>
-      <c r="U385" s="16"/>
-      <c r="V385" s="17"/>
-      <c r="W385" s="15"/>
-      <c r="X385" s="16"/>
-      <c r="Y385" s="17"/>
-      <c r="Z385"/>
-    </row>
-    <row r="386" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H386" s="15"/>
-      <c r="I386" s="16"/>
-      <c r="J386" s="17"/>
-      <c r="K386" s="15"/>
-      <c r="L386" s="16"/>
-      <c r="M386" s="17"/>
-      <c r="N386" s="15"/>
-      <c r="O386" s="16"/>
-      <c r="P386" s="17"/>
-      <c r="Q386" s="15"/>
-      <c r="R386" s="16"/>
-      <c r="S386" s="17"/>
-      <c r="T386" s="15"/>
-      <c r="U386" s="16"/>
-      <c r="V386" s="17"/>
-      <c r="W386" s="15"/>
-      <c r="X386" s="16"/>
-      <c r="Y386" s="17"/>
-      <c r="Z386"/>
-    </row>
-    <row r="387" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H387" s="15"/>
-      <c r="I387" s="16"/>
-      <c r="J387" s="17"/>
-      <c r="K387" s="15"/>
-      <c r="L387" s="16"/>
-      <c r="M387" s="17"/>
-      <c r="N387" s="15"/>
-      <c r="O387" s="16"/>
-      <c r="P387" s="17"/>
-      <c r="Q387" s="15"/>
-      <c r="R387" s="16"/>
-      <c r="S387" s="17"/>
-      <c r="T387" s="15"/>
-      <c r="U387" s="16"/>
-      <c r="V387" s="17"/>
-      <c r="W387" s="15"/>
-      <c r="X387" s="16"/>
-      <c r="Y387" s="17"/>
-      <c r="Z387"/>
-    </row>
-    <row r="388" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H388" s="15"/>
-      <c r="I388" s="16"/>
-      <c r="J388" s="17"/>
-      <c r="K388" s="15"/>
-      <c r="L388" s="16"/>
-      <c r="M388" s="17"/>
-      <c r="N388" s="15"/>
-      <c r="O388" s="16"/>
-      <c r="P388" s="17"/>
-      <c r="Q388" s="15"/>
-      <c r="R388" s="16"/>
-      <c r="S388" s="17"/>
-      <c r="T388" s="15"/>
-      <c r="U388" s="16"/>
-      <c r="V388" s="17"/>
-      <c r="W388" s="15"/>
-      <c r="X388" s="16"/>
-      <c r="Y388" s="17"/>
-      <c r="Z388"/>
-    </row>
-    <row r="389" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H389" s="15"/>
-      <c r="I389" s="16"/>
-      <c r="J389" s="17"/>
-      <c r="K389" s="15"/>
-      <c r="L389" s="16"/>
-      <c r="M389" s="17"/>
-      <c r="N389" s="15"/>
-      <c r="O389" s="16"/>
-      <c r="P389" s="17"/>
-      <c r="Q389" s="15"/>
-      <c r="R389" s="16"/>
-      <c r="S389" s="17"/>
-      <c r="T389" s="15"/>
-      <c r="U389" s="16"/>
-      <c r="V389" s="17"/>
-      <c r="W389" s="15"/>
-      <c r="X389" s="16"/>
-      <c r="Y389" s="17"/>
-      <c r="Z389"/>
-    </row>
-    <row r="390" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H390" s="15"/>
-      <c r="I390" s="16"/>
-      <c r="J390" s="17"/>
-      <c r="K390" s="15"/>
-      <c r="L390" s="16"/>
-      <c r="M390" s="17"/>
-      <c r="N390" s="15"/>
-      <c r="O390" s="16"/>
-      <c r="P390" s="17"/>
-      <c r="Q390" s="15"/>
-      <c r="R390" s="16"/>
-      <c r="S390" s="17"/>
-      <c r="T390" s="15"/>
-      <c r="U390" s="16"/>
-      <c r="V390" s="17"/>
-      <c r="W390" s="15"/>
-      <c r="X390" s="16"/>
-      <c r="Y390" s="17"/>
-      <c r="Z390"/>
-    </row>
-    <row r="391" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H391" s="15"/>
-      <c r="I391" s="16"/>
-      <c r="J391" s="17"/>
-      <c r="K391" s="15"/>
-      <c r="L391" s="16"/>
-      <c r="M391" s="17"/>
-      <c r="N391" s="15"/>
-      <c r="O391" s="16"/>
-      <c r="P391" s="17"/>
-      <c r="Q391" s="15"/>
-      <c r="R391" s="16"/>
-      <c r="S391" s="17"/>
-      <c r="T391" s="15"/>
-      <c r="U391" s="16"/>
-      <c r="V391" s="17"/>
-      <c r="W391" s="15"/>
-      <c r="X391" s="16"/>
-      <c r="Y391" s="17"/>
-      <c r="Z391"/>
-    </row>
-    <row r="392" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H392" s="15"/>
-      <c r="I392" s="16"/>
-      <c r="J392" s="17"/>
-      <c r="K392" s="15"/>
-      <c r="L392" s="16"/>
-      <c r="M392" s="17"/>
-      <c r="N392" s="15"/>
-      <c r="O392" s="16"/>
-      <c r="P392" s="17"/>
-      <c r="Q392" s="15"/>
-      <c r="R392" s="16"/>
-      <c r="S392" s="17"/>
-      <c r="T392" s="15"/>
-      <c r="U392" s="16"/>
-      <c r="V392" s="17"/>
-      <c r="W392" s="15"/>
-      <c r="X392" s="16"/>
-      <c r="Y392" s="17"/>
-      <c r="Z392"/>
-    </row>
-    <row r="393" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H393" s="15"/>
-      <c r="I393" s="16"/>
-      <c r="J393" s="17"/>
-      <c r="K393" s="15"/>
-      <c r="L393" s="16"/>
-      <c r="M393" s="17"/>
-      <c r="N393" s="15"/>
-      <c r="O393" s="16"/>
-      <c r="P393" s="17"/>
-      <c r="Q393" s="15"/>
-      <c r="R393" s="16"/>
-      <c r="S393" s="17"/>
-      <c r="T393" s="15"/>
-      <c r="U393" s="16"/>
-      <c r="V393" s="17"/>
-      <c r="W393" s="15"/>
-      <c r="X393" s="16"/>
-      <c r="Y393" s="17"/>
-      <c r="Z393"/>
-    </row>
-    <row r="394" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H394" s="15"/>
-      <c r="I394" s="16"/>
-      <c r="J394" s="17"/>
-      <c r="K394" s="15"/>
-      <c r="L394" s="16"/>
-      <c r="M394" s="17"/>
-      <c r="N394" s="15"/>
-      <c r="O394" s="16"/>
-      <c r="P394" s="17"/>
-      <c r="Q394" s="15"/>
-      <c r="R394" s="16"/>
-      <c r="S394" s="17"/>
-      <c r="T394" s="15"/>
-      <c r="U394" s="16"/>
-      <c r="V394" s="17"/>
-      <c r="W394" s="15"/>
-      <c r="X394" s="16"/>
-      <c r="Y394" s="17"/>
-      <c r="Z394"/>
-    </row>
-    <row r="395" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H395" s="15"/>
-      <c r="I395" s="16"/>
-      <c r="J395" s="17"/>
-      <c r="K395" s="15"/>
-      <c r="L395" s="16"/>
-      <c r="M395" s="17"/>
-      <c r="N395" s="15"/>
-      <c r="O395" s="16"/>
-      <c r="P395" s="17"/>
-      <c r="Q395" s="15"/>
-      <c r="R395" s="16"/>
-      <c r="S395" s="17"/>
-      <c r="T395" s="15"/>
-      <c r="U395" s="16"/>
-      <c r="V395" s="17"/>
-      <c r="W395" s="15"/>
-      <c r="X395" s="16"/>
-      <c r="Y395" s="17"/>
-      <c r="Z395"/>
-    </row>
-    <row r="396" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H396" s="15"/>
-      <c r="I396" s="16"/>
-      <c r="J396" s="17"/>
-      <c r="K396" s="15"/>
-      <c r="L396" s="16"/>
-      <c r="M396" s="17"/>
-      <c r="N396" s="15"/>
-      <c r="O396" s="16"/>
-      <c r="P396" s="17"/>
-      <c r="Q396" s="15"/>
-      <c r="R396" s="16"/>
-      <c r="S396" s="17"/>
-      <c r="T396" s="15"/>
-      <c r="U396" s="16"/>
-      <c r="V396" s="17"/>
-      <c r="W396" s="15"/>
-      <c r="X396" s="16"/>
-      <c r="Y396" s="17"/>
-      <c r="Z396"/>
-    </row>
-    <row r="397" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H397" s="15"/>
-      <c r="I397" s="16"/>
-      <c r="J397" s="17"/>
-      <c r="K397" s="15"/>
-      <c r="L397" s="16"/>
-      <c r="M397" s="17"/>
-      <c r="N397" s="15"/>
-      <c r="O397" s="16"/>
-      <c r="P397" s="17"/>
-      <c r="Q397" s="15"/>
-      <c r="R397" s="16"/>
-      <c r="S397" s="17"/>
-      <c r="T397" s="15"/>
-      <c r="U397" s="16"/>
-      <c r="V397" s="17"/>
-      <c r="W397" s="15"/>
-      <c r="X397" s="16"/>
-      <c r="Y397" s="17"/>
-      <c r="Z397"/>
-    </row>
-    <row r="398" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H398" s="15"/>
-      <c r="I398" s="16"/>
-      <c r="J398" s="17"/>
-      <c r="K398" s="15"/>
-      <c r="L398" s="16"/>
-      <c r="M398" s="17"/>
-      <c r="N398" s="15"/>
-      <c r="O398" s="16"/>
-      <c r="P398" s="17"/>
-      <c r="Q398" s="15"/>
-      <c r="R398" s="16"/>
-      <c r="S398" s="17"/>
-      <c r="T398" s="15"/>
-      <c r="U398" s="16"/>
-      <c r="V398" s="17"/>
-      <c r="W398" s="15"/>
-      <c r="X398" s="16"/>
-      <c r="Y398" s="17"/>
-      <c r="Z398"/>
-    </row>
-    <row r="399" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H399" s="15"/>
-      <c r="I399" s="16"/>
-      <c r="J399" s="17"/>
-      <c r="K399" s="15"/>
-      <c r="L399" s="16"/>
-      <c r="M399" s="17"/>
-      <c r="N399" s="15"/>
-      <c r="O399" s="16"/>
-      <c r="P399" s="17"/>
-      <c r="Q399" s="15"/>
-      <c r="R399" s="16"/>
-      <c r="S399" s="17"/>
-      <c r="T399" s="15"/>
-      <c r="U399" s="16"/>
-      <c r="V399" s="17"/>
-      <c r="W399" s="15"/>
-      <c r="X399" s="16"/>
-      <c r="Y399" s="17"/>
-      <c r="Z399"/>
-    </row>
-    <row r="400" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H400" s="15"/>
-      <c r="I400" s="16"/>
-      <c r="J400" s="17"/>
-      <c r="K400" s="15"/>
-      <c r="L400" s="16"/>
-      <c r="M400" s="17"/>
-      <c r="N400" s="15"/>
-      <c r="O400" s="16"/>
-      <c r="P400" s="17"/>
-      <c r="Q400" s="15"/>
-      <c r="R400" s="16"/>
-      <c r="S400" s="17"/>
-      <c r="T400" s="15"/>
-      <c r="U400" s="16"/>
-      <c r="V400" s="17"/>
-      <c r="W400" s="15"/>
-      <c r="X400" s="16"/>
-      <c r="Y400" s="17"/>
-      <c r="Z400"/>
-    </row>
-    <row r="401" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H401" s="15"/>
-      <c r="I401" s="16"/>
-      <c r="J401" s="17"/>
-      <c r="K401" s="15"/>
-      <c r="L401" s="16"/>
-      <c r="M401" s="17"/>
-      <c r="N401" s="15"/>
-      <c r="O401" s="16"/>
-      <c r="P401" s="17"/>
-      <c r="Q401" s="15"/>
-      <c r="R401" s="16"/>
-      <c r="S401" s="17"/>
-      <c r="T401" s="15"/>
-      <c r="U401" s="16"/>
-      <c r="V401" s="17"/>
-      <c r="W401" s="15"/>
-      <c r="X401" s="16"/>
-      <c r="Y401" s="17"/>
-      <c r="Z401"/>
-    </row>
-    <row r="402" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H402" s="15"/>
-      <c r="I402" s="16"/>
-      <c r="J402" s="17"/>
-      <c r="K402" s="15"/>
-      <c r="L402" s="16"/>
-      <c r="M402" s="17"/>
-      <c r="N402" s="15"/>
-      <c r="O402" s="16"/>
-      <c r="P402" s="17"/>
-      <c r="Q402" s="15"/>
-      <c r="R402" s="16"/>
-      <c r="S402" s="17"/>
-      <c r="T402" s="15"/>
-      <c r="U402" s="16"/>
-      <c r="V402" s="17"/>
-      <c r="W402" s="15"/>
-      <c r="X402" s="16"/>
-      <c r="Y402" s="17"/>
-      <c r="Z402"/>
-    </row>
-    <row r="403" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H403" s="15"/>
-      <c r="I403" s="16"/>
-      <c r="J403" s="17"/>
-      <c r="K403" s="15"/>
-      <c r="L403" s="16"/>
-      <c r="M403" s="17"/>
-      <c r="N403" s="15"/>
-      <c r="O403" s="16"/>
-      <c r="P403" s="17"/>
-      <c r="Q403" s="15"/>
-      <c r="R403" s="16"/>
-      <c r="S403" s="17"/>
-      <c r="T403" s="15"/>
-      <c r="U403" s="16"/>
-      <c r="V403" s="17"/>
-      <c r="W403" s="15"/>
-      <c r="X403" s="16"/>
-      <c r="Y403" s="17"/>
-      <c r="Z403"/>
-    </row>
-    <row r="404" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H404" s="15"/>
-      <c r="I404" s="16"/>
-      <c r="J404" s="17"/>
-      <c r="K404" s="15"/>
-      <c r="L404" s="16"/>
-      <c r="M404" s="17"/>
-      <c r="N404" s="15"/>
-      <c r="O404" s="16"/>
-      <c r="P404" s="17"/>
-      <c r="Q404" s="15"/>
-      <c r="R404" s="16"/>
-      <c r="S404" s="17"/>
-      <c r="T404" s="15"/>
-      <c r="U404" s="16"/>
-      <c r="V404" s="17"/>
-      <c r="W404" s="15"/>
-      <c r="X404" s="16"/>
-      <c r="Y404" s="17"/>
-      <c r="Z404"/>
-    </row>
-    <row r="405" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H405" s="15"/>
-      <c r="I405" s="16"/>
-      <c r="J405" s="17"/>
-      <c r="K405" s="15"/>
-      <c r="L405" s="16"/>
-      <c r="M405" s="17"/>
-      <c r="N405" s="15"/>
-      <c r="O405" s="16"/>
-      <c r="P405" s="17"/>
-      <c r="Q405" s="15"/>
-      <c r="R405" s="16"/>
-      <c r="S405" s="17"/>
-      <c r="T405" s="15"/>
-      <c r="U405" s="16"/>
-      <c r="V405" s="17"/>
-      <c r="W405" s="15"/>
-      <c r="X405" s="16"/>
-      <c r="Y405" s="17"/>
-      <c r="Z405"/>
-    </row>
-    <row r="406" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H406" s="15"/>
-      <c r="I406" s="16"/>
-      <c r="J406" s="17"/>
-      <c r="K406" s="15"/>
-      <c r="L406" s="16"/>
-      <c r="M406" s="17"/>
-      <c r="N406" s="15"/>
-      <c r="O406" s="16"/>
-      <c r="P406" s="17"/>
-      <c r="Q406" s="15"/>
-      <c r="R406" s="16"/>
-      <c r="S406" s="17"/>
-      <c r="T406" s="15"/>
-      <c r="U406" s="16"/>
-      <c r="V406" s="17"/>
-      <c r="W406" s="15"/>
-      <c r="X406" s="16"/>
-      <c r="Y406" s="17"/>
-      <c r="Z406"/>
-    </row>
-    <row r="407" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H407" s="15"/>
-      <c r="I407" s="16"/>
-      <c r="J407" s="17"/>
-      <c r="K407" s="15"/>
-      <c r="L407" s="16"/>
-      <c r="M407" s="17"/>
-      <c r="N407" s="15"/>
-      <c r="O407" s="16"/>
-      <c r="P407" s="17"/>
-      <c r="Q407" s="15"/>
-      <c r="R407" s="16"/>
-      <c r="S407" s="17"/>
-      <c r="T407" s="15"/>
-      <c r="U407" s="16"/>
-      <c r="V407" s="17"/>
-      <c r="W407" s="15"/>
-      <c r="X407" s="16"/>
-      <c r="Y407" s="17"/>
-      <c r="Z407"/>
-    </row>
-    <row r="408" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H408" s="15"/>
-      <c r="I408" s="16"/>
-      <c r="J408" s="17"/>
-      <c r="K408" s="15"/>
-      <c r="L408" s="16"/>
-      <c r="M408" s="17"/>
-      <c r="N408" s="15"/>
-      <c r="O408" s="16"/>
-      <c r="P408" s="17"/>
-      <c r="Q408" s="15"/>
-      <c r="R408" s="16"/>
-      <c r="S408" s="17"/>
-      <c r="T408" s="15"/>
-      <c r="U408" s="16"/>
-      <c r="V408" s="17"/>
-      <c r="W408" s="15"/>
-      <c r="X408" s="16"/>
-      <c r="Y408" s="17"/>
-      <c r="Z408"/>
-    </row>
-    <row r="409" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H409" s="15"/>
-      <c r="I409" s="16"/>
-      <c r="J409" s="17"/>
-      <c r="K409" s="15"/>
-      <c r="L409" s="16"/>
-      <c r="M409" s="17"/>
-      <c r="N409" s="15"/>
-      <c r="O409" s="16"/>
-      <c r="P409" s="17"/>
-      <c r="Q409" s="15"/>
-      <c r="R409" s="16"/>
-      <c r="S409" s="17"/>
-      <c r="T409" s="15"/>
-      <c r="U409" s="16"/>
-      <c r="V409" s="17"/>
-      <c r="W409" s="15"/>
-      <c r="X409" s="16"/>
-      <c r="Y409" s="17"/>
-      <c r="Z409"/>
-    </row>
-    <row r="410" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H410" s="15"/>
-      <c r="I410" s="16"/>
-      <c r="J410" s="17"/>
-      <c r="K410" s="15"/>
-      <c r="L410" s="16"/>
-      <c r="M410" s="17"/>
-      <c r="N410" s="15"/>
-      <c r="O410" s="16"/>
-      <c r="P410" s="17"/>
-      <c r="Q410" s="15"/>
-      <c r="R410" s="16"/>
-      <c r="S410" s="17"/>
-      <c r="T410" s="15"/>
-      <c r="U410" s="16"/>
-      <c r="V410" s="17"/>
-      <c r="W410" s="15"/>
-      <c r="X410" s="16"/>
-      <c r="Y410" s="17"/>
-      <c r="Z410"/>
-    </row>
-    <row r="411" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H411" s="15"/>
-      <c r="I411" s="16"/>
-      <c r="J411" s="17"/>
-      <c r="K411" s="15"/>
-      <c r="L411" s="16"/>
-      <c r="M411" s="17"/>
-      <c r="N411" s="15"/>
-      <c r="O411" s="16"/>
-      <c r="P411" s="17"/>
-      <c r="Q411" s="15"/>
-      <c r="R411" s="16"/>
-      <c r="S411" s="17"/>
-      <c r="T411" s="15"/>
-      <c r="U411" s="16"/>
-      <c r="V411" s="17"/>
-      <c r="W411" s="15"/>
-      <c r="X411" s="16"/>
-      <c r="Y411" s="17"/>
-      <c r="Z411"/>
-    </row>
-    <row r="412" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H412" s="15"/>
-      <c r="I412" s="16"/>
-      <c r="J412" s="17"/>
-      <c r="K412" s="15"/>
-      <c r="L412" s="16"/>
-      <c r="M412" s="17"/>
-      <c r="N412" s="15"/>
-      <c r="O412" s="16"/>
-      <c r="P412" s="17"/>
-      <c r="Q412" s="15"/>
-      <c r="R412" s="16"/>
-      <c r="S412" s="17"/>
-      <c r="T412" s="15"/>
-      <c r="U412" s="16"/>
-      <c r="V412" s="17"/>
-      <c r="W412" s="15"/>
-      <c r="X412" s="16"/>
-      <c r="Y412" s="17"/>
-      <c r="Z412"/>
-    </row>
-    <row r="413" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H413" s="15"/>
-      <c r="I413" s="16"/>
-      <c r="J413" s="17"/>
-      <c r="K413" s="15"/>
-      <c r="L413" s="16"/>
-      <c r="M413" s="17"/>
-      <c r="N413" s="15"/>
-      <c r="O413" s="16"/>
-      <c r="P413" s="17"/>
-      <c r="Q413" s="15"/>
-      <c r="R413" s="16"/>
-      <c r="S413" s="17"/>
-      <c r="T413" s="15"/>
-      <c r="U413" s="16"/>
-      <c r="V413" s="17"/>
-      <c r="W413" s="15"/>
-      <c r="X413" s="16"/>
-      <c r="Y413" s="17"/>
-      <c r="Z413"/>
-    </row>
-    <row r="414" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H414" s="15"/>
-      <c r="I414" s="16"/>
-      <c r="J414" s="17"/>
-      <c r="K414" s="15"/>
-      <c r="L414" s="16"/>
-      <c r="M414" s="17"/>
-      <c r="N414" s="15"/>
-      <c r="O414" s="16"/>
-      <c r="P414" s="17"/>
-      <c r="Q414" s="15"/>
-      <c r="R414" s="16"/>
-      <c r="S414" s="17"/>
-      <c r="T414" s="15"/>
-      <c r="U414" s="16"/>
-      <c r="V414" s="17"/>
-      <c r="W414" s="15"/>
-      <c r="X414" s="16"/>
-      <c r="Y414" s="17"/>
-      <c r="Z414"/>
-    </row>
-    <row r="415" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H415" s="15"/>
-      <c r="I415" s="16"/>
-      <c r="J415" s="17"/>
-      <c r="K415" s="15"/>
-      <c r="L415" s="16"/>
-      <c r="M415" s="17"/>
-      <c r="N415" s="15"/>
-      <c r="O415" s="16"/>
-      <c r="P415" s="17"/>
-      <c r="Q415" s="15"/>
-      <c r="R415" s="16"/>
-      <c r="S415" s="17"/>
-      <c r="T415" s="15"/>
-      <c r="U415" s="16"/>
-      <c r="V415" s="17"/>
-      <c r="W415" s="15"/>
-      <c r="X415" s="16"/>
-      <c r="Y415" s="17"/>
-      <c r="Z415"/>
-    </row>
-    <row r="416" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H416" s="15"/>
-      <c r="I416" s="16"/>
-      <c r="J416" s="17"/>
-      <c r="K416" s="15"/>
-      <c r="L416" s="16"/>
-      <c r="M416" s="17"/>
-      <c r="N416" s="15"/>
-      <c r="O416" s="16"/>
-      <c r="P416" s="17"/>
-      <c r="Q416" s="15"/>
-      <c r="R416" s="16"/>
-      <c r="S416" s="17"/>
-      <c r="T416" s="15"/>
-      <c r="U416" s="16"/>
-      <c r="V416" s="17"/>
-      <c r="W416" s="15"/>
-      <c r="X416" s="16"/>
-      <c r="Y416" s="17"/>
-      <c r="Z416"/>
-    </row>
-    <row r="417" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H417" s="15"/>
-      <c r="I417" s="16"/>
-      <c r="J417" s="17"/>
-      <c r="K417" s="15"/>
-      <c r="L417" s="16"/>
-      <c r="M417" s="17"/>
-      <c r="N417" s="15"/>
-      <c r="O417" s="16"/>
-      <c r="P417" s="17"/>
-      <c r="Q417" s="15"/>
-      <c r="R417" s="16"/>
-      <c r="S417" s="17"/>
-      <c r="T417" s="15"/>
-      <c r="U417" s="16"/>
-      <c r="V417" s="17"/>
-      <c r="W417" s="15"/>
-      <c r="X417" s="16"/>
-      <c r="Y417" s="17"/>
-      <c r="Z417"/>
-    </row>
-    <row r="418" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H418" s="15"/>
-      <c r="I418" s="16"/>
-      <c r="J418" s="17"/>
-      <c r="K418" s="15"/>
-      <c r="L418" s="16"/>
-      <c r="M418" s="17"/>
-      <c r="N418" s="15"/>
-      <c r="O418" s="16"/>
-      <c r="P418" s="17"/>
-      <c r="Q418" s="15"/>
-      <c r="R418" s="16"/>
-      <c r="S418" s="17"/>
-      <c r="T418" s="15"/>
-      <c r="U418" s="16"/>
-      <c r="V418" s="17"/>
-      <c r="W418" s="15"/>
-      <c r="X418" s="16"/>
-      <c r="Y418" s="17"/>
-      <c r="Z418"/>
-    </row>
-    <row r="419" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H419" s="15"/>
-      <c r="I419" s="16"/>
-      <c r="J419" s="17"/>
-      <c r="K419" s="15"/>
-      <c r="L419" s="16"/>
-      <c r="M419" s="17"/>
-      <c r="N419" s="15"/>
-      <c r="O419" s="16"/>
-      <c r="P419" s="17"/>
-      <c r="Q419" s="15"/>
-      <c r="R419" s="16"/>
-      <c r="S419" s="17"/>
-      <c r="T419" s="15"/>
-      <c r="U419" s="16"/>
-      <c r="V419" s="17"/>
-      <c r="W419" s="15"/>
-      <c r="X419" s="16"/>
-      <c r="Y419" s="17"/>
-      <c r="Z419"/>
-    </row>
-    <row r="420" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H420" s="15"/>
-      <c r="I420" s="16"/>
-      <c r="J420" s="17"/>
-      <c r="K420" s="15"/>
-      <c r="L420" s="16"/>
-      <c r="M420" s="17"/>
-      <c r="N420" s="15"/>
-      <c r="O420" s="16"/>
-      <c r="P420" s="17"/>
-      <c r="Q420" s="15"/>
-      <c r="R420" s="16"/>
-      <c r="S420" s="17"/>
-      <c r="T420" s="15"/>
-      <c r="U420" s="16"/>
-      <c r="V420" s="17"/>
-      <c r="W420" s="15"/>
-      <c r="X420" s="16"/>
-      <c r="Y420" s="17"/>
-      <c r="Z420"/>
-    </row>
-    <row r="421" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H421" s="15"/>
-      <c r="I421" s="16"/>
-      <c r="J421" s="17"/>
-      <c r="K421" s="15"/>
-      <c r="L421" s="16"/>
-      <c r="M421" s="17"/>
-      <c r="N421" s="15"/>
-      <c r="O421" s="16"/>
-      <c r="P421" s="17"/>
-      <c r="Q421" s="15"/>
-      <c r="R421" s="16"/>
-      <c r="S421" s="17"/>
-      <c r="T421" s="15"/>
-      <c r="U421" s="16"/>
-      <c r="V421" s="17"/>
-      <c r="W421" s="15"/>
-      <c r="X421" s="16"/>
-      <c r="Y421" s="17"/>
-      <c r="Z421"/>
-    </row>
-    <row r="422" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H422" s="15"/>
-      <c r="I422" s="16"/>
-      <c r="J422" s="17"/>
-      <c r="K422" s="15"/>
-      <c r="L422" s="16"/>
-      <c r="M422" s="17"/>
-      <c r="N422" s="15"/>
-      <c r="O422" s="16"/>
-      <c r="P422" s="17"/>
-      <c r="Q422" s="15"/>
-      <c r="R422" s="16"/>
-      <c r="S422" s="17"/>
-      <c r="T422" s="15"/>
-      <c r="U422" s="16"/>
-      <c r="V422" s="17"/>
-      <c r="W422" s="15"/>
-      <c r="X422" s="16"/>
-      <c r="Y422" s="17"/>
-      <c r="Z422"/>
-    </row>
-    <row r="423" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H423" s="15"/>
-      <c r="I423" s="16"/>
-      <c r="J423" s="17"/>
-      <c r="K423" s="15"/>
-      <c r="L423" s="16"/>
-      <c r="M423" s="17"/>
-      <c r="N423" s="15"/>
-      <c r="O423" s="16"/>
-      <c r="P423" s="17"/>
-      <c r="Q423" s="15"/>
-      <c r="R423" s="16"/>
-      <c r="S423" s="17"/>
-      <c r="T423" s="15"/>
-      <c r="U423" s="16"/>
-      <c r="V423" s="17"/>
-      <c r="W423" s="15"/>
-      <c r="X423" s="16"/>
-      <c r="Y423" s="17"/>
-      <c r="Z423"/>
-    </row>
-    <row r="424" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H424" s="15"/>
-      <c r="I424" s="16"/>
-      <c r="J424" s="17"/>
-      <c r="K424" s="15"/>
-      <c r="L424" s="16"/>
-      <c r="M424" s="17"/>
-      <c r="N424" s="15"/>
-      <c r="O424" s="16"/>
-      <c r="P424" s="17"/>
-      <c r="Q424" s="15"/>
-      <c r="R424" s="16"/>
-      <c r="S424" s="17"/>
-      <c r="T424" s="15"/>
-      <c r="U424" s="16"/>
-      <c r="V424" s="17"/>
-      <c r="W424" s="15"/>
-      <c r="X424" s="16"/>
-      <c r="Y424" s="17"/>
-      <c r="Z424"/>
-    </row>
-    <row r="425" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H425" s="15"/>
-      <c r="I425" s="16"/>
-      <c r="J425" s="17"/>
-      <c r="K425" s="15"/>
-      <c r="L425" s="16"/>
-      <c r="M425" s="17"/>
-      <c r="N425" s="15"/>
-      <c r="O425" s="16"/>
-      <c r="P425" s="17"/>
-      <c r="Q425" s="15"/>
-      <c r="R425" s="16"/>
-      <c r="S425" s="17"/>
-      <c r="T425" s="15"/>
-      <c r="U425" s="16"/>
-      <c r="V425" s="17"/>
-      <c r="W425" s="15"/>
-      <c r="X425" s="16"/>
-      <c r="Y425" s="17"/>
-      <c r="Z425"/>
-    </row>
-    <row r="426" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H426" s="15"/>
-      <c r="I426" s="16"/>
-      <c r="J426" s="17"/>
-      <c r="K426" s="15"/>
-      <c r="L426" s="16"/>
-      <c r="M426" s="17"/>
-      <c r="N426" s="15"/>
-      <c r="O426" s="16"/>
-      <c r="P426" s="17"/>
-      <c r="Q426" s="15"/>
-      <c r="R426" s="16"/>
-      <c r="S426" s="17"/>
-      <c r="T426" s="15"/>
-      <c r="U426" s="16"/>
-      <c r="V426" s="17"/>
-      <c r="W426" s="15"/>
-      <c r="X426" s="16"/>
-      <c r="Y426" s="17"/>
-      <c r="Z426"/>
-    </row>
-    <row r="427" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H427" s="15"/>
-      <c r="I427" s="16"/>
-      <c r="J427" s="17"/>
-      <c r="K427" s="15"/>
-      <c r="L427" s="16"/>
-      <c r="M427" s="17"/>
-      <c r="N427" s="15"/>
-      <c r="O427" s="16"/>
-      <c r="P427" s="17"/>
-      <c r="Q427" s="15"/>
-      <c r="R427" s="16"/>
-      <c r="S427" s="17"/>
-      <c r="T427" s="15"/>
-      <c r="U427" s="16"/>
-      <c r="V427" s="17"/>
-      <c r="W427" s="15"/>
-      <c r="X427" s="16"/>
-      <c r="Y427" s="17"/>
-      <c r="Z427"/>
-    </row>
-    <row r="428" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H428" s="15"/>
-      <c r="I428" s="16"/>
-      <c r="J428" s="17"/>
-      <c r="K428" s="15"/>
-      <c r="L428" s="16"/>
-      <c r="M428" s="17"/>
-      <c r="N428" s="15"/>
-      <c r="O428" s="16"/>
-      <c r="P428" s="17"/>
-      <c r="Q428" s="15"/>
-      <c r="R428" s="16"/>
-      <c r="S428" s="17"/>
-      <c r="T428" s="15"/>
-      <c r="U428" s="16"/>
-      <c r="V428" s="17"/>
-      <c r="W428" s="15"/>
-      <c r="X428" s="16"/>
-      <c r="Y428" s="17"/>
-      <c r="Z428"/>
-    </row>
-    <row r="429" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H429" s="15"/>
-      <c r="I429" s="16"/>
-      <c r="J429" s="17"/>
-      <c r="K429" s="15"/>
-      <c r="L429" s="16"/>
-      <c r="M429" s="17"/>
-      <c r="N429" s="15"/>
-      <c r="O429" s="16"/>
-      <c r="P429" s="17"/>
-      <c r="Q429" s="15"/>
-      <c r="R429" s="16"/>
-      <c r="S429" s="17"/>
-      <c r="T429" s="15"/>
-      <c r="U429" s="16"/>
-      <c r="V429" s="17"/>
-      <c r="W429" s="15"/>
-      <c r="X429" s="16"/>
-      <c r="Y429" s="17"/>
-      <c r="Z429"/>
-    </row>
-    <row r="430" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H430" s="15"/>
-      <c r="I430" s="16"/>
-      <c r="J430" s="17"/>
-      <c r="K430" s="15"/>
-      <c r="L430" s="16"/>
-      <c r="M430" s="17"/>
-      <c r="N430" s="15"/>
-      <c r="O430" s="16"/>
-      <c r="P430" s="17"/>
-      <c r="Q430" s="15"/>
-      <c r="R430" s="16"/>
-      <c r="S430" s="17"/>
-      <c r="T430" s="15"/>
-      <c r="U430" s="16"/>
-      <c r="V430" s="17"/>
-      <c r="W430" s="15"/>
-      <c r="X430" s="16"/>
-      <c r="Y430" s="17"/>
-      <c r="Z430"/>
-    </row>
-    <row r="431" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H431" s="15"/>
-      <c r="I431" s="16"/>
-      <c r="J431" s="17"/>
-      <c r="K431" s="15"/>
-      <c r="L431" s="16"/>
-      <c r="M431" s="17"/>
-      <c r="N431" s="15"/>
-      <c r="O431" s="16"/>
-      <c r="P431" s="17"/>
-      <c r="Q431" s="15"/>
-      <c r="R431" s="16"/>
-      <c r="S431" s="17"/>
-      <c r="T431" s="15"/>
-      <c r="U431" s="16"/>
-      <c r="V431" s="17"/>
-      <c r="W431" s="15"/>
-      <c r="X431" s="16"/>
-      <c r="Y431" s="17"/>
-      <c r="Z431"/>
-    </row>
-    <row r="432" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H432" s="15"/>
-      <c r="I432" s="16"/>
-      <c r="J432" s="17"/>
-      <c r="K432" s="15"/>
-      <c r="L432" s="16"/>
-      <c r="M432" s="17"/>
-      <c r="N432" s="15"/>
-      <c r="O432" s="16"/>
-      <c r="P432" s="17"/>
-      <c r="Q432" s="15"/>
-      <c r="R432" s="16"/>
-      <c r="S432" s="17"/>
-      <c r="T432" s="15"/>
-      <c r="U432" s="16"/>
-      <c r="V432" s="17"/>
-      <c r="W432" s="15"/>
-      <c r="X432" s="16"/>
-      <c r="Y432" s="17"/>
-      <c r="Z432"/>
-    </row>
-    <row r="433" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H433" s="15"/>
-      <c r="I433" s="16"/>
-      <c r="J433" s="17"/>
-      <c r="K433" s="15"/>
-      <c r="L433" s="16"/>
-      <c r="M433" s="17"/>
-      <c r="N433" s="15"/>
-      <c r="O433" s="16"/>
-      <c r="P433" s="17"/>
-      <c r="Q433" s="15"/>
-      <c r="R433" s="16"/>
-      <c r="S433" s="17"/>
-      <c r="T433" s="15"/>
-      <c r="U433" s="16"/>
-      <c r="V433" s="17"/>
-      <c r="W433" s="15"/>
-      <c r="X433" s="16"/>
-      <c r="Y433" s="17"/>
-      <c r="Z433"/>
-    </row>
-    <row r="434" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H434" s="15"/>
-      <c r="I434" s="16"/>
-      <c r="J434" s="17"/>
-      <c r="K434" s="15"/>
-      <c r="L434" s="16"/>
-      <c r="M434" s="17"/>
-      <c r="N434" s="15"/>
-      <c r="O434" s="16"/>
-      <c r="P434" s="17"/>
-      <c r="Q434" s="15"/>
-      <c r="R434" s="16"/>
-      <c r="S434" s="17"/>
-      <c r="T434" s="15"/>
-      <c r="U434" s="16"/>
-      <c r="V434" s="17"/>
-      <c r="W434" s="15"/>
-      <c r="X434" s="16"/>
-      <c r="Y434" s="17"/>
-      <c r="Z434"/>
-    </row>
-    <row r="435" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H435" s="15"/>
-      <c r="I435" s="16"/>
-      <c r="J435" s="17"/>
-      <c r="K435" s="15"/>
-      <c r="L435" s="16"/>
-      <c r="M435" s="17"/>
-      <c r="N435" s="15"/>
-      <c r="O435" s="16"/>
-      <c r="P435" s="17"/>
-      <c r="Q435" s="15"/>
-      <c r="R435" s="16"/>
-      <c r="S435" s="17"/>
-      <c r="T435" s="15"/>
-      <c r="U435" s="16"/>
-      <c r="V435" s="17"/>
-      <c r="W435" s="15"/>
-      <c r="X435" s="16"/>
-      <c r="Y435" s="17"/>
-      <c r="Z435"/>
-    </row>
-    <row r="436" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H436" s="15"/>
-      <c r="I436" s="16"/>
-      <c r="J436" s="17"/>
-      <c r="K436" s="15"/>
-      <c r="L436" s="16"/>
-      <c r="M436" s="17"/>
-      <c r="N436" s="15"/>
-      <c r="O436" s="16"/>
-      <c r="P436" s="17"/>
-      <c r="Q436" s="15"/>
-      <c r="R436" s="16"/>
-      <c r="S436" s="17"/>
-      <c r="T436" s="15"/>
-      <c r="U436" s="16"/>
-      <c r="V436" s="17"/>
-      <c r="W436" s="15"/>
-      <c r="X436" s="16"/>
-      <c r="Y436" s="17"/>
-      <c r="Z436"/>
-    </row>
-    <row r="437" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H437" s="15"/>
-      <c r="I437" s="16"/>
-      <c r="J437" s="17"/>
-      <c r="K437" s="15"/>
-      <c r="L437" s="16"/>
-      <c r="M437" s="17"/>
-      <c r="N437" s="15"/>
-      <c r="O437" s="16"/>
-      <c r="P437" s="17"/>
-      <c r="Q437" s="15"/>
-      <c r="R437" s="16"/>
-      <c r="S437" s="17"/>
-      <c r="T437" s="15"/>
-      <c r="U437" s="16"/>
-      <c r="V437" s="17"/>
-      <c r="W437" s="15"/>
-      <c r="X437" s="16"/>
-      <c r="Y437" s="17"/>
-      <c r="Z437"/>
-    </row>
-    <row r="438" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H438" s="15"/>
-      <c r="I438" s="16"/>
-      <c r="J438" s="17"/>
-      <c r="K438" s="15"/>
-      <c r="L438" s="16"/>
-      <c r="M438" s="17"/>
-      <c r="N438" s="15"/>
-      <c r="O438" s="16"/>
-      <c r="P438" s="17"/>
-      <c r="Q438" s="15"/>
-      <c r="R438" s="16"/>
-      <c r="S438" s="17"/>
-      <c r="T438" s="15"/>
-      <c r="U438" s="16"/>
-      <c r="V438" s="17"/>
-      <c r="W438" s="15"/>
-      <c r="X438" s="16"/>
-      <c r="Y438" s="17"/>
-      <c r="Z438"/>
-    </row>
-    <row r="439" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H439" s="15"/>
-      <c r="I439" s="16"/>
-      <c r="J439" s="17"/>
-      <c r="K439" s="15"/>
-      <c r="L439" s="16"/>
-      <c r="M439" s="17"/>
-      <c r="N439" s="15"/>
-      <c r="O439" s="16"/>
-      <c r="P439" s="17"/>
-      <c r="Q439" s="15"/>
-      <c r="R439" s="16"/>
-      <c r="S439" s="17"/>
-      <c r="T439" s="15"/>
-      <c r="U439" s="16"/>
-      <c r="V439" s="17"/>
-      <c r="W439" s="15"/>
-      <c r="X439" s="16"/>
-      <c r="Y439" s="17"/>
-      <c r="Z439"/>
-    </row>
-    <row r="440" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H440" s="15"/>
-      <c r="I440" s="16"/>
-      <c r="J440" s="17"/>
-      <c r="K440" s="15"/>
-      <c r="L440" s="16"/>
-      <c r="M440" s="17"/>
-      <c r="N440" s="15"/>
-      <c r="O440" s="16"/>
-      <c r="P440" s="17"/>
-      <c r="Q440" s="15"/>
-      <c r="R440" s="16"/>
-      <c r="S440" s="17"/>
-      <c r="T440" s="15"/>
-      <c r="U440" s="16"/>
-      <c r="V440" s="17"/>
-      <c r="W440" s="15"/>
-      <c r="X440" s="16"/>
-      <c r="Y440" s="17"/>
-      <c r="Z440"/>
-    </row>
-    <row r="441" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H441" s="15"/>
-      <c r="I441" s="16"/>
-      <c r="J441" s="17"/>
-      <c r="K441" s="15"/>
-      <c r="L441" s="16"/>
-      <c r="M441" s="17"/>
-      <c r="N441" s="15"/>
-      <c r="O441" s="16"/>
-      <c r="P441" s="17"/>
-      <c r="Q441" s="15"/>
-      <c r="R441" s="16"/>
-      <c r="S441" s="17"/>
-      <c r="T441" s="15"/>
-      <c r="U441" s="16"/>
-      <c r="V441" s="17"/>
-      <c r="W441" s="15"/>
-      <c r="X441" s="16"/>
-      <c r="Y441" s="17"/>
-      <c r="Z441"/>
-    </row>
-    <row r="442" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H442" s="15"/>
-      <c r="I442" s="16"/>
-      <c r="J442" s="17"/>
-      <c r="K442" s="15"/>
-      <c r="L442" s="16"/>
-      <c r="M442" s="17"/>
-      <c r="N442" s="15"/>
-      <c r="O442" s="16"/>
-      <c r="P442" s="17"/>
-      <c r="Q442" s="15"/>
-      <c r="R442" s="16"/>
-      <c r="S442" s="17"/>
-      <c r="T442" s="15"/>
-      <c r="U442" s="16"/>
-      <c r="V442" s="17"/>
-      <c r="W442" s="15"/>
-      <c r="X442" s="16"/>
-      <c r="Y442" s="17"/>
-      <c r="Z442"/>
-    </row>
-    <row r="443" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H443" s="15"/>
-      <c r="I443" s="16"/>
-      <c r="J443" s="17"/>
-      <c r="K443" s="15"/>
-      <c r="L443" s="16"/>
-      <c r="M443" s="17"/>
-      <c r="N443" s="15"/>
-      <c r="O443" s="16"/>
-      <c r="P443" s="17"/>
-      <c r="Q443" s="15"/>
-      <c r="R443" s="16"/>
-      <c r="S443" s="17"/>
-      <c r="T443" s="15"/>
-      <c r="U443" s="16"/>
-      <c r="V443" s="17"/>
-      <c r="W443" s="15"/>
-      <c r="X443" s="16"/>
-      <c r="Y443" s="17"/>
-      <c r="Z443"/>
-    </row>
-    <row r="444" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H444" s="15"/>
-      <c r="I444" s="16"/>
-      <c r="J444" s="17"/>
-      <c r="K444" s="15"/>
-      <c r="L444" s="16"/>
-      <c r="M444" s="17"/>
-      <c r="N444" s="15"/>
-      <c r="O444" s="16"/>
-      <c r="P444" s="17"/>
-      <c r="Q444" s="15"/>
-      <c r="R444" s="16"/>
-      <c r="S444" s="17"/>
-      <c r="T444" s="15"/>
-      <c r="U444" s="16"/>
-      <c r="V444" s="17"/>
-      <c r="W444" s="15"/>
-      <c r="X444" s="16"/>
-      <c r="Y444" s="17"/>
-      <c r="Z444"/>
-    </row>
-    <row r="445" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H445" s="15"/>
-      <c r="I445" s="16"/>
-      <c r="J445" s="17"/>
-      <c r="K445" s="15"/>
-      <c r="L445" s="16"/>
-      <c r="M445" s="17"/>
-      <c r="N445" s="15"/>
-      <c r="O445" s="16"/>
-      <c r="P445" s="17"/>
-      <c r="Q445" s="15"/>
-      <c r="R445" s="16"/>
-      <c r="S445" s="17"/>
-      <c r="T445" s="15"/>
-      <c r="U445" s="16"/>
-      <c r="V445" s="17"/>
-      <c r="W445" s="15"/>
-      <c r="X445" s="16"/>
-      <c r="Y445" s="17"/>
-      <c r="Z445"/>
-    </row>
-    <row r="446" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H446" s="15"/>
-      <c r="I446" s="16"/>
-      <c r="J446" s="17"/>
-      <c r="K446" s="15"/>
-      <c r="L446" s="16"/>
-      <c r="M446" s="17"/>
-      <c r="N446" s="15"/>
-      <c r="O446" s="16"/>
-      <c r="P446" s="17"/>
-      <c r="Q446" s="15"/>
-      <c r="R446" s="16"/>
-      <c r="S446" s="17"/>
-      <c r="T446" s="15"/>
-      <c r="U446" s="16"/>
-      <c r="V446" s="17"/>
-      <c r="W446" s="15"/>
-      <c r="X446" s="16"/>
-      <c r="Y446" s="17"/>
-      <c r="Z446"/>
-    </row>
-    <row r="447" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H447" s="15"/>
-      <c r="I447" s="16"/>
-      <c r="J447" s="17"/>
-      <c r="K447" s="15"/>
-      <c r="L447" s="16"/>
-      <c r="M447" s="17"/>
-      <c r="N447" s="15"/>
-      <c r="O447" s="16"/>
-      <c r="P447" s="17"/>
-      <c r="Q447" s="15"/>
-      <c r="R447" s="16"/>
-      <c r="S447" s="17"/>
-      <c r="T447" s="15"/>
-      <c r="U447" s="16"/>
-      <c r="V447" s="17"/>
-      <c r="W447" s="15"/>
-      <c r="X447" s="16"/>
-      <c r="Y447" s="17"/>
-      <c r="Z447"/>
-    </row>
-    <row r="448" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H448" s="15"/>
-      <c r="I448" s="16"/>
-      <c r="J448" s="17"/>
-      <c r="K448" s="15"/>
-      <c r="L448" s="16"/>
-      <c r="M448" s="17"/>
-      <c r="N448" s="15"/>
-      <c r="O448" s="16"/>
-      <c r="P448" s="17"/>
-      <c r="Q448" s="15"/>
-      <c r="R448" s="16"/>
-      <c r="S448" s="17"/>
-      <c r="T448" s="15"/>
-      <c r="U448" s="16"/>
-      <c r="V448" s="17"/>
-      <c r="W448" s="15"/>
-      <c r="X448" s="16"/>
-      <c r="Y448" s="17"/>
-      <c r="Z448"/>
-    </row>
-    <row r="449" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H449" s="15"/>
-      <c r="I449" s="16"/>
-      <c r="J449" s="17"/>
-      <c r="K449" s="15"/>
-      <c r="L449" s="16"/>
-      <c r="M449" s="17"/>
-      <c r="N449" s="15"/>
-      <c r="O449" s="16"/>
-      <c r="P449" s="17"/>
-      <c r="Q449" s="15"/>
-      <c r="R449" s="16"/>
-      <c r="S449" s="17"/>
-      <c r="T449" s="15"/>
-      <c r="U449" s="16"/>
-      <c r="V449" s="17"/>
-      <c r="W449" s="15"/>
-      <c r="X449" s="16"/>
-      <c r="Y449" s="17"/>
-      <c r="Z449"/>
-    </row>
-    <row r="450" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H450" s="15"/>
-      <c r="I450" s="16"/>
-      <c r="J450" s="17"/>
-      <c r="K450" s="15"/>
-      <c r="L450" s="16"/>
-      <c r="M450" s="17"/>
-      <c r="N450" s="15"/>
-      <c r="O450" s="16"/>
-      <c r="P450" s="17"/>
-      <c r="Q450" s="15"/>
-      <c r="R450" s="16"/>
-      <c r="S450" s="17"/>
-      <c r="T450" s="15"/>
-      <c r="U450" s="16"/>
-      <c r="V450" s="17"/>
-      <c r="W450" s="15"/>
-      <c r="X450" s="16"/>
-      <c r="Y450" s="17"/>
-      <c r="Z450"/>
-    </row>
-    <row r="451" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H451" s="15"/>
-      <c r="I451" s="16"/>
-      <c r="J451" s="17"/>
-      <c r="K451" s="15"/>
-      <c r="L451" s="16"/>
-      <c r="M451" s="17"/>
-      <c r="N451" s="15"/>
-      <c r="O451" s="16"/>
-      <c r="P451" s="17"/>
-      <c r="Q451" s="15"/>
-      <c r="R451" s="16"/>
-      <c r="S451" s="17"/>
-      <c r="T451" s="15"/>
-      <c r="U451" s="16"/>
-      <c r="V451" s="17"/>
-      <c r="W451" s="15"/>
-      <c r="X451" s="16"/>
-      <c r="Y451" s="17"/>
-      <c r="Z451"/>
-    </row>
-    <row r="452" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H452" s="15"/>
-      <c r="I452" s="16"/>
-      <c r="J452" s="17"/>
-      <c r="K452" s="15"/>
-      <c r="L452" s="16"/>
-      <c r="M452" s="17"/>
-      <c r="N452" s="15"/>
-      <c r="O452" s="16"/>
-      <c r="P452" s="17"/>
-      <c r="Q452" s="15"/>
-      <c r="R452" s="16"/>
-      <c r="S452" s="17"/>
-      <c r="T452" s="15"/>
-      <c r="U452" s="16"/>
-      <c r="V452" s="17"/>
-      <c r="W452" s="15"/>
-      <c r="X452" s="16"/>
-      <c r="Y452" s="17"/>
-      <c r="Z452"/>
-    </row>
-    <row r="453" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H453" s="15"/>
-      <c r="I453" s="16"/>
-      <c r="J453" s="17"/>
-      <c r="K453" s="15"/>
-      <c r="L453" s="16"/>
-      <c r="M453" s="17"/>
-      <c r="N453" s="15"/>
-      <c r="O453" s="16"/>
-      <c r="P453" s="17"/>
-      <c r="Q453" s="15"/>
-      <c r="R453" s="16"/>
-      <c r="S453" s="17"/>
-      <c r="T453" s="15"/>
-      <c r="U453" s="16"/>
-      <c r="V453" s="17"/>
-      <c r="W453" s="15"/>
-      <c r="X453" s="16"/>
-      <c r="Y453" s="17"/>
-      <c r="Z453"/>
-    </row>
-    <row r="454" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H454" s="15"/>
-      <c r="I454" s="16"/>
-      <c r="J454" s="17"/>
-      <c r="K454" s="15"/>
-      <c r="L454" s="16"/>
-      <c r="M454" s="17"/>
-      <c r="N454" s="15"/>
-      <c r="O454" s="16"/>
-      <c r="P454" s="17"/>
-      <c r="Q454" s="15"/>
-      <c r="R454" s="16"/>
-      <c r="S454" s="17"/>
-      <c r="T454" s="15"/>
-      <c r="U454" s="16"/>
-      <c r="V454" s="17"/>
-      <c r="W454" s="15"/>
-      <c r="X454" s="16"/>
-      <c r="Y454" s="17"/>
-      <c r="Z454"/>
-    </row>
-    <row r="455" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H455" s="15"/>
-      <c r="I455" s="16"/>
-      <c r="J455" s="17"/>
-      <c r="K455" s="15"/>
-      <c r="L455" s="16"/>
-      <c r="M455" s="17"/>
-      <c r="N455" s="15"/>
-      <c r="O455" s="16"/>
-      <c r="P455" s="17"/>
-      <c r="Q455" s="15"/>
-      <c r="R455" s="16"/>
-      <c r="S455" s="17"/>
-      <c r="T455" s="15"/>
-      <c r="U455" s="16"/>
-      <c r="V455" s="17"/>
-      <c r="W455" s="15"/>
-      <c r="X455" s="16"/>
-      <c r="Y455" s="17"/>
-      <c r="Z455"/>
-    </row>
-    <row r="456" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H456" s="15"/>
-      <c r="I456" s="16"/>
-      <c r="J456" s="17"/>
-      <c r="K456" s="15"/>
-      <c r="L456" s="16"/>
-      <c r="M456" s="17"/>
-      <c r="N456" s="15"/>
-      <c r="O456" s="16"/>
-      <c r="P456" s="17"/>
-      <c r="Q456" s="15"/>
-      <c r="R456" s="16"/>
-      <c r="S456" s="17"/>
-      <c r="T456" s="15"/>
-      <c r="U456" s="16"/>
-      <c r="V456" s="17"/>
-      <c r="W456" s="15"/>
-      <c r="X456" s="16"/>
-      <c r="Y456" s="17"/>
-      <c r="Z456"/>
-    </row>
-    <row r="457" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H457" s="15"/>
-      <c r="I457" s="16"/>
-      <c r="J457" s="17"/>
-      <c r="K457" s="15"/>
-      <c r="L457" s="16"/>
-      <c r="M457" s="17"/>
-      <c r="N457" s="15"/>
-      <c r="O457" s="16"/>
-      <c r="P457" s="17"/>
-      <c r="Q457" s="15"/>
-      <c r="R457" s="16"/>
-      <c r="S457" s="17"/>
-      <c r="T457" s="15"/>
-      <c r="U457" s="16"/>
-      <c r="V457" s="17"/>
-      <c r="W457" s="15"/>
-      <c r="X457" s="16"/>
-      <c r="Y457" s="17"/>
-      <c r="Z457"/>
-    </row>
-    <row r="458" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H458" s="15"/>
-      <c r="I458" s="16"/>
-      <c r="J458" s="17"/>
-      <c r="K458" s="15"/>
-      <c r="L458" s="16"/>
-      <c r="M458" s="17"/>
-      <c r="N458" s="15"/>
-      <c r="O458" s="16"/>
-      <c r="P458" s="17"/>
-      <c r="Q458" s="15"/>
-      <c r="R458" s="16"/>
-      <c r="S458" s="17"/>
-      <c r="T458" s="15"/>
-      <c r="U458" s="16"/>
-      <c r="V458" s="17"/>
-      <c r="W458" s="15"/>
-      <c r="X458" s="16"/>
-      <c r="Y458" s="17"/>
-      <c r="Z458"/>
-    </row>
-    <row r="459" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H459" s="15"/>
-      <c r="I459" s="16"/>
-      <c r="J459" s="17"/>
-      <c r="K459" s="15"/>
-      <c r="L459" s="16"/>
-      <c r="M459" s="17"/>
-      <c r="N459" s="15"/>
-      <c r="O459" s="16"/>
-      <c r="P459" s="17"/>
-      <c r="Q459" s="15"/>
-      <c r="R459" s="16"/>
-      <c r="S459" s="17"/>
-      <c r="T459" s="15"/>
-      <c r="U459" s="16"/>
-      <c r="V459" s="17"/>
-      <c r="W459" s="15"/>
-      <c r="X459" s="16"/>
-      <c r="Y459" s="17"/>
-      <c r="Z459"/>
-    </row>
-    <row r="460" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H460" s="15"/>
-      <c r="I460" s="16"/>
-      <c r="J460" s="17"/>
-      <c r="K460" s="15"/>
-      <c r="L460" s="16"/>
-      <c r="M460" s="17"/>
-      <c r="N460" s="15"/>
-      <c r="O460" s="16"/>
-      <c r="P460" s="17"/>
-      <c r="Q460" s="15"/>
-      <c r="R460" s="16"/>
-      <c r="S460" s="17"/>
-      <c r="T460" s="15"/>
-      <c r="U460" s="16"/>
-      <c r="V460" s="17"/>
-      <c r="W460" s="15"/>
-      <c r="X460" s="16"/>
-      <c r="Y460" s="17"/>
-      <c r="Z460"/>
-    </row>
-    <row r="461" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H461" s="15"/>
-      <c r="I461" s="16"/>
-      <c r="J461" s="17"/>
-      <c r="K461" s="15"/>
-      <c r="L461" s="16"/>
-      <c r="M461" s="17"/>
-      <c r="N461" s="15"/>
-      <c r="O461" s="16"/>
-      <c r="P461" s="17"/>
-      <c r="Q461" s="15"/>
-      <c r="R461" s="16"/>
-      <c r="S461" s="17"/>
-      <c r="T461" s="15"/>
-      <c r="U461" s="16"/>
-      <c r="V461" s="17"/>
-      <c r="W461" s="15"/>
-      <c r="X461" s="16"/>
-      <c r="Y461" s="17"/>
-      <c r="Z461"/>
-    </row>
-    <row r="462" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H462" s="15"/>
-      <c r="I462" s="16"/>
-      <c r="J462" s="17"/>
-      <c r="K462" s="15"/>
-      <c r="L462" s="16"/>
-      <c r="M462" s="17"/>
-      <c r="N462" s="15"/>
-      <c r="O462" s="16"/>
-      <c r="P462" s="17"/>
-      <c r="Q462" s="15"/>
-      <c r="R462" s="16"/>
-      <c r="S462" s="17"/>
-      <c r="T462" s="15"/>
-      <c r="U462" s="16"/>
-      <c r="V462" s="17"/>
-      <c r="W462" s="15"/>
-      <c r="X462" s="16"/>
-      <c r="Y462" s="17"/>
-      <c r="Z462"/>
-    </row>
-    <row r="463" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H463" s="15"/>
-      <c r="I463" s="16"/>
-      <c r="J463" s="17"/>
-      <c r="K463" s="15"/>
-      <c r="L463" s="16"/>
-      <c r="M463" s="17"/>
-      <c r="N463" s="15"/>
-      <c r="O463" s="16"/>
-      <c r="P463" s="17"/>
-      <c r="Q463" s="15"/>
-      <c r="R463" s="16"/>
-      <c r="S463" s="17"/>
-      <c r="T463" s="15"/>
-      <c r="U463" s="16"/>
-      <c r="V463" s="17"/>
-      <c r="W463" s="15"/>
-      <c r="X463" s="16"/>
-      <c r="Y463" s="17"/>
-      <c r="Z463"/>
-    </row>
-    <row r="464" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H464" s="15"/>
-      <c r="I464" s="16"/>
-      <c r="J464" s="17"/>
-      <c r="K464" s="15"/>
-      <c r="L464" s="16"/>
-      <c r="M464" s="17"/>
-      <c r="N464" s="15"/>
-      <c r="O464" s="16"/>
-      <c r="P464" s="17"/>
-      <c r="Q464" s="15"/>
-      <c r="R464" s="16"/>
-      <c r="S464" s="17"/>
-      <c r="T464" s="15"/>
-      <c r="U464" s="16"/>
-      <c r="V464" s="17"/>
-      <c r="W464" s="15"/>
-      <c r="X464" s="16"/>
-      <c r="Y464" s="17"/>
-      <c r="Z464"/>
-    </row>
-    <row r="465" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H465" s="15"/>
-      <c r="I465" s="16"/>
-      <c r="J465" s="17"/>
-      <c r="K465" s="15"/>
-      <c r="L465" s="16"/>
-      <c r="M465" s="17"/>
-      <c r="N465" s="15"/>
-      <c r="O465" s="16"/>
-      <c r="P465" s="17"/>
-      <c r="Q465" s="15"/>
-      <c r="R465" s="16"/>
-      <c r="S465" s="17"/>
-      <c r="T465" s="15"/>
-      <c r="U465" s="16"/>
-      <c r="V465" s="17"/>
-      <c r="W465" s="15"/>
-      <c r="X465" s="16"/>
-      <c r="Y465" s="17"/>
-      <c r="Z465"/>
-    </row>
-    <row r="466" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H466" s="15"/>
-      <c r="I466" s="16"/>
-      <c r="J466" s="17"/>
-      <c r="K466" s="15"/>
-      <c r="L466" s="16"/>
-      <c r="M466" s="17"/>
-      <c r="N466" s="15"/>
-      <c r="O466" s="16"/>
-      <c r="P466" s="17"/>
-      <c r="Q466" s="15"/>
-      <c r="R466" s="16"/>
-      <c r="S466" s="17"/>
-      <c r="T466" s="15"/>
-      <c r="U466" s="16"/>
-      <c r="V466" s="17"/>
-      <c r="W466" s="15"/>
-      <c r="X466" s="16"/>
-      <c r="Y466" s="17"/>
-      <c r="Z466"/>
-    </row>
-    <row r="467" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H467" s="15"/>
-      <c r="I467" s="16"/>
-      <c r="J467" s="17"/>
-      <c r="K467" s="15"/>
-      <c r="L467" s="16"/>
-      <c r="M467" s="17"/>
-      <c r="N467" s="15"/>
-      <c r="O467" s="16"/>
-      <c r="P467" s="17"/>
-      <c r="Q467" s="15"/>
-      <c r="R467" s="16"/>
-      <c r="S467" s="17"/>
-      <c r="T467" s="15"/>
-      <c r="U467" s="16"/>
-      <c r="V467" s="17"/>
-      <c r="W467" s="15"/>
-      <c r="X467" s="16"/>
-      <c r="Y467" s="17"/>
-      <c r="Z467"/>
-    </row>
-    <row r="468" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H468" s="15"/>
-      <c r="I468" s="16"/>
-      <c r="J468" s="17"/>
-      <c r="K468" s="15"/>
-      <c r="L468" s="16"/>
-      <c r="M468" s="17"/>
-      <c r="N468" s="15"/>
-      <c r="O468" s="16"/>
-      <c r="P468" s="17"/>
-      <c r="Q468" s="15"/>
-      <c r="R468" s="16"/>
-      <c r="S468" s="17"/>
-      <c r="T468" s="15"/>
-      <c r="U468" s="16"/>
-      <c r="V468" s="17"/>
-      <c r="W468" s="15"/>
-      <c r="X468" s="16"/>
-      <c r="Y468" s="17"/>
-      <c r="Z468"/>
-    </row>
-    <row r="469" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H469" s="15"/>
-      <c r="I469" s="16"/>
-      <c r="J469" s="17"/>
-      <c r="K469" s="15"/>
-      <c r="L469" s="16"/>
-      <c r="M469" s="17"/>
-      <c r="N469" s="15"/>
-      <c r="O469" s="16"/>
-      <c r="P469" s="17"/>
-      <c r="Q469" s="15"/>
-      <c r="R469" s="16"/>
-      <c r="S469" s="17"/>
-      <c r="T469" s="15"/>
-      <c r="U469" s="16"/>
-      <c r="V469" s="17"/>
-      <c r="W469" s="15"/>
-      <c r="X469" s="16"/>
-      <c r="Y469" s="17"/>
-      <c r="Z469"/>
-    </row>
-    <row r="470" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H470" s="15"/>
-      <c r="I470" s="16"/>
-      <c r="J470" s="17"/>
-      <c r="K470" s="15"/>
-      <c r="L470" s="16"/>
-      <c r="M470" s="17"/>
-      <c r="N470" s="15"/>
-      <c r="O470" s="16"/>
-      <c r="P470" s="17"/>
-      <c r="Q470" s="15"/>
-      <c r="R470" s="16"/>
-      <c r="S470" s="17"/>
-      <c r="T470" s="15"/>
-      <c r="U470" s="16"/>
-      <c r="V470" s="17"/>
-      <c r="W470" s="15"/>
-      <c r="X470" s="16"/>
-      <c r="Y470" s="17"/>
-      <c r="Z470"/>
-    </row>
-    <row r="471" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H471" s="15"/>
-      <c r="I471" s="16"/>
-      <c r="J471" s="17"/>
-      <c r="K471" s="15"/>
-      <c r="L471" s="16"/>
-      <c r="M471" s="17"/>
-      <c r="N471" s="15"/>
-      <c r="O471" s="16"/>
-      <c r="P471" s="17"/>
-      <c r="Q471" s="15"/>
-      <c r="R471" s="16"/>
-      <c r="S471" s="17"/>
-      <c r="T471" s="15"/>
-      <c r="U471" s="16"/>
-      <c r="V471" s="17"/>
-      <c r="W471" s="15"/>
-      <c r="X471" s="16"/>
-      <c r="Y471" s="17"/>
-      <c r="Z471"/>
-    </row>
-    <row r="472" spans="8:26" x14ac:dyDescent="0.35">
-      <c r="H472" s="15"/>
-      <c r="I472" s="16"/>
-      <c r="J472" s="17"/>
-      <c r="K472" s="15"/>
-      <c r="L472" s="16"/>
-      <c r="M472" s="17"/>
-      <c r="N472" s="15"/>
-      <c r="O472" s="16"/>
-      <c r="P472" s="17"/>
-      <c r="Q472" s="15"/>
-      <c r="R472" s="16"/>
-      <c r="S472" s="17"/>
-      <c r="T472" s="15"/>
-      <c r="U472" s="16"/>
-      <c r="V472" s="17"/>
-      <c r="W472" s="15"/>
-      <c r="X472" s="16"/>
-      <c r="Y472" s="17"/>
-      <c r="Z472"/>
+      <c r="Z171" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -22057,7 +15747,7 @@
     <mergeCell ref="T1:V1"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
-  <conditionalFormatting sqref="O1:O1048576">
+  <conditionalFormatting sqref="O1:O171">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -22069,7 +15759,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
+  <conditionalFormatting sqref="R1:R171">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -22081,7 +15771,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576">
+  <conditionalFormatting sqref="U1:U171">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -22093,7 +15783,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
+  <conditionalFormatting sqref="L1:L171">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -22105,7 +15795,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I1:I171">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -22117,8 +15807,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
